--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.414279</v>
+        <v>0.399874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315344</v>
+        <v>0.300193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33097</v>
+        <v>0.318982</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.422923</v>
+        <v>0.413088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.321742</v>
+        <v>0.304888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.336179</v>
+        <v>0.326173</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.433706</v>
+        <v>0.424464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.329968</v>
+        <v>0.312215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341295</v>
+        <v>0.331136</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449307</v>
+        <v>0.435075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.335379</v>
+        <v>0.317462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.350064</v>
+        <v>0.337144</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.465658</v>
+        <v>0.448368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.342879</v>
+        <v>0.323717</v>
       </c>
       <c r="D6" t="n">
-        <v>0.355602</v>
+        <v>0.344058</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.47469</v>
+        <v>0.458488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.269988</v>
+        <v>0.263383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.292025</v>
+        <v>0.288037</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.352242</v>
+        <v>0.344923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.280813</v>
+        <v>0.27156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.302583</v>
+        <v>0.296287</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.367336</v>
+        <v>0.35633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.288474</v>
+        <v>0.27758</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309953</v>
+        <v>0.302548</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.376788</v>
+        <v>0.367298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.299894</v>
+        <v>0.288788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.319157</v>
+        <v>0.313978</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.389515</v>
+        <v>0.383371</v>
       </c>
       <c r="C11" t="n">
-        <v>0.308096</v>
+        <v>0.296411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.329069</v>
+        <v>0.324136</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.400325</v>
+        <v>0.395122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.318566</v>
+        <v>0.30742</v>
       </c>
       <c r="D12" t="n">
-        <v>0.335854</v>
+        <v>0.332684</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.414027</v>
+        <v>0.409444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.327022</v>
+        <v>0.314698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.345296</v>
+        <v>0.341691</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423814</v>
+        <v>0.420095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.337092</v>
+        <v>0.324494</v>
       </c>
       <c r="D14" t="n">
-        <v>0.356993</v>
+        <v>0.351851</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.436119</v>
+        <v>0.432713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.342806</v>
+        <v>0.330069</v>
       </c>
       <c r="D15" t="n">
-        <v>0.364426</v>
+        <v>0.360509</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.447106</v>
+        <v>0.444469</v>
       </c>
       <c r="C16" t="n">
-        <v>0.350257</v>
+        <v>0.337561</v>
       </c>
       <c r="D16" t="n">
-        <v>0.374768</v>
+        <v>0.372443</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460157</v>
+        <v>0.456455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.358858</v>
+        <v>0.343449</v>
       </c>
       <c r="D17" t="n">
-        <v>0.38245</v>
+        <v>0.379386</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472108</v>
+        <v>0.468193</v>
       </c>
       <c r="C18" t="n">
-        <v>0.364707</v>
+        <v>0.350313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.390138</v>
+        <v>0.389126</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.484841</v>
+        <v>0.481552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.371447</v>
+        <v>0.356397</v>
       </c>
       <c r="D19" t="n">
-        <v>0.398623</v>
+        <v>0.395893</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.496834</v>
+        <v>0.492522</v>
       </c>
       <c r="C20" t="n">
-        <v>0.380479</v>
+        <v>0.364077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40549</v>
+        <v>0.404585</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.510321</v>
+        <v>0.506397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.295532</v>
+        <v>0.289707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31345</v>
+        <v>0.313002</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.392486</v>
+        <v>0.392556</v>
       </c>
       <c r="C22" t="n">
-        <v>0.303931</v>
+        <v>0.297752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.324257</v>
+        <v>0.323637</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40459</v>
+        <v>0.40497</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31191</v>
+        <v>0.305668</v>
       </c>
       <c r="D23" t="n">
-        <v>0.333723</v>
+        <v>0.334554</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.415041</v>
+        <v>0.414803</v>
       </c>
       <c r="C24" t="n">
-        <v>0.320858</v>
+        <v>0.313926</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343273</v>
+        <v>0.342995</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.426222</v>
+        <v>0.425739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.32992</v>
+        <v>0.32294</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353457</v>
+        <v>0.353503</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.436923</v>
+        <v>0.436508</v>
       </c>
       <c r="C26" t="n">
-        <v>0.339037</v>
+        <v>0.331446</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364569</v>
+        <v>0.364771</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.45093</v>
+        <v>0.449759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.347677</v>
+        <v>0.339117</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375965</v>
+        <v>0.37577</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.461326</v>
+        <v>0.461873</v>
       </c>
       <c r="C28" t="n">
-        <v>0.356414</v>
+        <v>0.346811</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385602</v>
+        <v>0.385013</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.473471</v>
+        <v>0.473837</v>
       </c>
       <c r="C29" t="n">
-        <v>0.364396</v>
+        <v>0.354216</v>
       </c>
       <c r="D29" t="n">
-        <v>0.39854</v>
+        <v>0.396762</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.484768</v>
+        <v>0.485225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.372788</v>
+        <v>0.36168</v>
       </c>
       <c r="D30" t="n">
-        <v>0.406055</v>
+        <v>0.405413</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495827</v>
+        <v>0.495428</v>
       </c>
       <c r="C31" t="n">
-        <v>0.380052</v>
+        <v>0.367897</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415758</v>
+        <v>0.414738</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507903</v>
+        <v>0.507076</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388443</v>
+        <v>0.376277</v>
       </c>
       <c r="D32" t="n">
-        <v>0.425777</v>
+        <v>0.424726</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519027</v>
+        <v>0.518151</v>
       </c>
       <c r="C33" t="n">
-        <v>0.394931</v>
+        <v>0.382844</v>
       </c>
       <c r="D33" t="n">
-        <v>0.434337</v>
+        <v>0.433901</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530276</v>
+        <v>0.529695</v>
       </c>
       <c r="C34" t="n">
-        <v>0.403454</v>
+        <v>0.390359</v>
       </c>
       <c r="D34" t="n">
-        <v>0.443948</v>
+        <v>0.444588</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542439</v>
+        <v>0.541526</v>
       </c>
       <c r="C35" t="n">
-        <v>0.31371</v>
+        <v>0.305426</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338578</v>
+        <v>0.338422</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.41261</v>
+        <v>0.411951</v>
       </c>
       <c r="C36" t="n">
-        <v>0.321764</v>
+        <v>0.313804</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348306</v>
+        <v>0.348297</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.423116</v>
+        <v>0.423331</v>
       </c>
       <c r="C37" t="n">
-        <v>0.329774</v>
+        <v>0.321167</v>
       </c>
       <c r="D37" t="n">
-        <v>0.358178</v>
+        <v>0.357437</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.434393</v>
+        <v>0.433577</v>
       </c>
       <c r="C38" t="n">
-        <v>0.33862</v>
+        <v>0.330219</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369537</v>
+        <v>0.36866</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444485</v>
+        <v>0.444601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.347226</v>
+        <v>0.338906</v>
       </c>
       <c r="D39" t="n">
-        <v>0.379847</v>
+        <v>0.379014</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.456271</v>
+        <v>0.455964</v>
       </c>
       <c r="C40" t="n">
-        <v>0.356292</v>
+        <v>0.347145</v>
       </c>
       <c r="D40" t="n">
-        <v>0.390332</v>
+        <v>0.38986</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.468945</v>
+        <v>0.469771</v>
       </c>
       <c r="C41" t="n">
-        <v>0.365208</v>
+        <v>0.356883</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401267</v>
+        <v>0.401523</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.479779</v>
+        <v>0.479559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.373659</v>
+        <v>0.363899</v>
       </c>
       <c r="D42" t="n">
-        <v>0.41129</v>
+        <v>0.410565</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.491403</v>
+        <v>0.491384</v>
       </c>
       <c r="C43" t="n">
-        <v>0.381786</v>
+        <v>0.371346</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421353</v>
+        <v>0.421222</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.502842</v>
+        <v>0.502764</v>
       </c>
       <c r="C44" t="n">
-        <v>0.389424</v>
+        <v>0.378802</v>
       </c>
       <c r="D44" t="n">
-        <v>0.431106</v>
+        <v>0.43088</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.513522</v>
+        <v>0.513962</v>
       </c>
       <c r="C45" t="n">
-        <v>0.396475</v>
+        <v>0.385367</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440413</v>
+        <v>0.440574</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.524671</v>
+        <v>0.524149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.403256</v>
+        <v>0.391739</v>
       </c>
       <c r="D46" t="n">
-        <v>0.448861</v>
+        <v>0.449273</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.536816</v>
+        <v>0.53617</v>
       </c>
       <c r="C47" t="n">
-        <v>0.41003</v>
+        <v>0.398234</v>
       </c>
       <c r="D47" t="n">
-        <v>0.457845</v>
+        <v>0.458097</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.550234</v>
+        <v>0.54758</v>
       </c>
       <c r="C48" t="n">
-        <v>0.416892</v>
+        <v>0.405147</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466704</v>
+        <v>0.466898</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.561455</v>
+        <v>0.5629110000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42284</v>
+        <v>0.411941</v>
       </c>
       <c r="D49" t="n">
-        <v>0.475355</v>
+        <v>0.475814</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.57323</v>
+        <v>0.570451</v>
       </c>
       <c r="C50" t="n">
-        <v>0.329821</v>
+        <v>0.32081</v>
       </c>
       <c r="D50" t="n">
-        <v>0.34849</v>
+        <v>0.348486</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430336</v>
+        <v>0.430237</v>
       </c>
       <c r="C51" t="n">
-        <v>0.338241</v>
+        <v>0.329074</v>
       </c>
       <c r="D51" t="n">
-        <v>0.358807</v>
+        <v>0.358856</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441528</v>
+        <v>0.441611</v>
       </c>
       <c r="C52" t="n">
-        <v>0.347046</v>
+        <v>0.337751</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370294</v>
+        <v>0.370149</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.453467</v>
+        <v>0.453134</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35622</v>
+        <v>0.346295</v>
       </c>
       <c r="D53" t="n">
-        <v>0.38118</v>
+        <v>0.381299</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.464964</v>
+        <v>0.46451</v>
       </c>
       <c r="C54" t="n">
-        <v>0.36509</v>
+        <v>0.354986</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391947</v>
+        <v>0.392158</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.478513</v>
+        <v>0.478627</v>
       </c>
       <c r="C55" t="n">
-        <v>0.374483</v>
+        <v>0.363793</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403797</v>
+        <v>0.403955</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.488391</v>
+        <v>0.488379</v>
       </c>
       <c r="C56" t="n">
-        <v>0.382713</v>
+        <v>0.371947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414714</v>
+        <v>0.415137</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499788</v>
+        <v>0.499386</v>
       </c>
       <c r="C57" t="n">
-        <v>0.390154</v>
+        <v>0.379203</v>
       </c>
       <c r="D57" t="n">
-        <v>0.423923</v>
+        <v>0.42444</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.510877</v>
+        <v>0.510412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.396992</v>
+        <v>0.385972</v>
       </c>
       <c r="D58" t="n">
-        <v>0.432793</v>
+        <v>0.433617</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.521223</v>
+        <v>0.521154</v>
       </c>
       <c r="C59" t="n">
-        <v>0.403279</v>
+        <v>0.392892</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441759</v>
+        <v>0.442548</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532783</v>
+        <v>0.531852</v>
       </c>
       <c r="C60" t="n">
-        <v>0.409482</v>
+        <v>0.399071</v>
       </c>
       <c r="D60" t="n">
-        <v>0.450946</v>
+        <v>0.452007</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.544005</v>
+        <v>0.54296</v>
       </c>
       <c r="C61" t="n">
-        <v>0.416134</v>
+        <v>0.405529</v>
       </c>
       <c r="D61" t="n">
-        <v>0.459219</v>
+        <v>0.460648</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.558544</v>
+        <v>0.558877</v>
       </c>
       <c r="C62" t="n">
-        <v>0.422576</v>
+        <v>0.412434</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468114</v>
+        <v>0.469275</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.571564</v>
+        <v>0.567049</v>
       </c>
       <c r="C63" t="n">
-        <v>0.429888</v>
+        <v>0.419739</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477463</v>
+        <v>0.478793</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5805630000000001</v>
+        <v>0.58014</v>
       </c>
       <c r="C64" t="n">
-        <v>0.343575</v>
+        <v>0.333714</v>
       </c>
       <c r="D64" t="n">
-        <v>0.369166</v>
+        <v>0.36751</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.465733</v>
+        <v>0.461904</v>
       </c>
       <c r="C65" t="n">
-        <v>0.353538</v>
+        <v>0.342897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.382873</v>
+        <v>0.380102</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.480031</v>
+        <v>0.476452</v>
       </c>
       <c r="C66" t="n">
-        <v>0.365461</v>
+        <v>0.353214</v>
       </c>
       <c r="D66" t="n">
-        <v>0.394384</v>
+        <v>0.392684</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.496062</v>
+        <v>0.488381</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37685</v>
+        <v>0.363881</v>
       </c>
       <c r="D67" t="n">
-        <v>0.409916</v>
+        <v>0.405678</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.51341</v>
+        <v>0.507949</v>
       </c>
       <c r="C68" t="n">
-        <v>0.389306</v>
+        <v>0.374995</v>
       </c>
       <c r="D68" t="n">
-        <v>0.424607</v>
+        <v>0.420591</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.533944</v>
+        <v>0.533543</v>
       </c>
       <c r="C69" t="n">
-        <v>0.400774</v>
+        <v>0.387748</v>
       </c>
       <c r="D69" t="n">
-        <v>0.441421</v>
+        <v>0.436859</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.560616</v>
+        <v>0.554848</v>
       </c>
       <c r="C70" t="n">
-        <v>0.412082</v>
+        <v>0.399281</v>
       </c>
       <c r="D70" t="n">
-        <v>0.457834</v>
+        <v>0.454736</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.580936</v>
+        <v>0.570211</v>
       </c>
       <c r="C71" t="n">
-        <v>0.428395</v>
+        <v>0.410906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.474869</v>
+        <v>0.46906</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.613245</v>
+        <v>0.599293</v>
       </c>
       <c r="C72" t="n">
-        <v>0.445075</v>
+        <v>0.427439</v>
       </c>
       <c r="D72" t="n">
-        <v>0.494779</v>
+        <v>0.487322</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.643342</v>
+        <v>0.627676</v>
       </c>
       <c r="C73" t="n">
-        <v>0.462341</v>
+        <v>0.441533</v>
       </c>
       <c r="D73" t="n">
-        <v>0.514722</v>
+        <v>0.506325</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6799539999999999</v>
+        <v>0.663289</v>
       </c>
       <c r="C74" t="n">
-        <v>0.483121</v>
+        <v>0.460415</v>
       </c>
       <c r="D74" t="n">
-        <v>0.538716</v>
+        <v>0.528795</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.713009</v>
+        <v>0.702759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.501163</v>
+        <v>0.481061</v>
       </c>
       <c r="D75" t="n">
-        <v>0.560825</v>
+        <v>0.553185</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.751329</v>
+        <v>0.740066</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5238429999999999</v>
+        <v>0.501782</v>
       </c>
       <c r="D76" t="n">
-        <v>0.58868</v>
+        <v>0.580149</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.795192</v>
+        <v>0.783899</v>
       </c>
       <c r="C77" t="n">
-        <v>0.548152</v>
+        <v>0.526489</v>
       </c>
       <c r="D77" t="n">
-        <v>0.618799</v>
+        <v>0.609757</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.849616</v>
+        <v>0.828496</v>
       </c>
       <c r="C78" t="n">
-        <v>0.47479</v>
+        <v>0.465897</v>
       </c>
       <c r="D78" t="n">
-        <v>0.52734</v>
+        <v>0.518948</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.82161</v>
+        <v>0.813167</v>
       </c>
       <c r="C79" t="n">
-        <v>0.501946</v>
+        <v>0.491472</v>
       </c>
       <c r="D79" t="n">
-        <v>0.560368</v>
+        <v>0.553973</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.866841</v>
+        <v>0.858526</v>
       </c>
       <c r="C80" t="n">
-        <v>0.530855</v>
+        <v>0.521963</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.582554</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.910039</v>
+        <v>0.906006</v>
       </c>
       <c r="C81" t="n">
-        <v>0.560956</v>
+        <v>0.550252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.619163</v>
+        <v>0.613421</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.958326</v>
+        <v>0.952196</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5933389999999999</v>
+        <v>0.5792350000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.649986</v>
+        <v>0.645417</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00891</v>
+        <v>1.00467</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6266</v>
+        <v>0.611804</v>
       </c>
       <c r="D83" t="n">
-        <v>0.685017</v>
+        <v>0.6814789999999999</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05909</v>
+        <v>1.05681</v>
       </c>
       <c r="C84" t="n">
-        <v>0.661385</v>
+        <v>0.646199</v>
       </c>
       <c r="D84" t="n">
-        <v>0.728909</v>
+        <v>0.725832</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.11219</v>
+        <v>1.11457</v>
       </c>
       <c r="C85" t="n">
-        <v>0.694</v>
+        <v>0.682773</v>
       </c>
       <c r="D85" t="n">
-        <v>0.766934</v>
+        <v>0.765039</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.16538</v>
+        <v>1.17236</v>
       </c>
       <c r="C86" t="n">
-        <v>0.730284</v>
+        <v>0.71953</v>
       </c>
       <c r="D86" t="n">
-        <v>0.807545</v>
+        <v>0.808573</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.22263</v>
+        <v>1.22922</v>
       </c>
       <c r="C87" t="n">
-        <v>0.767482</v>
+        <v>0.756711</v>
       </c>
       <c r="D87" t="n">
-        <v>0.844076</v>
+        <v>0.844866</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.28278</v>
+        <v>1.29028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.805059</v>
+        <v>0.79526</v>
       </c>
       <c r="D88" t="n">
-        <v>0.884938</v>
+        <v>0.885439</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.34273</v>
+        <v>1.35248</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8440839999999999</v>
+        <v>0.835792</v>
       </c>
       <c r="D89" t="n">
-        <v>0.925973</v>
+        <v>0.928849</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40753</v>
+        <v>1.41897</v>
       </c>
       <c r="C90" t="n">
-        <v>0.885948</v>
+        <v>0.87751</v>
       </c>
       <c r="D90" t="n">
-        <v>0.969315</v>
+        <v>0.973584</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.47354</v>
+        <v>1.4865</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9285330000000001</v>
+        <v>0.920527</v>
       </c>
       <c r="D91" t="n">
-        <v>1.0143</v>
+        <v>1.01988</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54471</v>
+        <v>1.55555</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8007300000000001</v>
+        <v>0.796867</v>
       </c>
       <c r="D92" t="n">
-        <v>0.903928</v>
+        <v>0.9070780000000001</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.354</v>
+        <v>1.36631</v>
       </c>
       <c r="C93" t="n">
-        <v>0.829602</v>
+        <v>0.825014</v>
       </c>
       <c r="D93" t="n">
-        <v>0.948665</v>
+        <v>0.951981</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39412</v>
+        <v>1.40705</v>
       </c>
       <c r="C94" t="n">
-        <v>0.859061</v>
+        <v>0.853725</v>
       </c>
       <c r="D94" t="n">
-        <v>0.980258</v>
+        <v>0.98424</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43415</v>
+        <v>1.44702</v>
       </c>
       <c r="C95" t="n">
-        <v>0.889927</v>
+        <v>0.884943</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00655</v>
+        <v>1.0101</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47536</v>
+        <v>1.49048</v>
       </c>
       <c r="C96" t="n">
-        <v>0.921859</v>
+        <v>0.916793</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0392</v>
+        <v>1.04284</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51867</v>
+        <v>1.53363</v>
       </c>
       <c r="C97" t="n">
-        <v>0.954772</v>
+        <v>0.950095</v>
       </c>
       <c r="D97" t="n">
-        <v>1.09918</v>
+        <v>1.10447</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56394</v>
+        <v>1.57994</v>
       </c>
       <c r="C98" t="n">
-        <v>0.989182</v>
+        <v>0.983568</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12834</v>
+        <v>1.13334</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.61231</v>
+        <v>1.62805</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02435</v>
+        <v>1.01805</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17115</v>
+        <v>1.1774</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.66052</v>
+        <v>1.677</v>
       </c>
       <c r="C100" t="n">
-        <v>1.06</v>
+        <v>1.05338</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21637</v>
+        <v>1.22671</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.71139</v>
+        <v>1.72748</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09579</v>
+        <v>1.08922</v>
       </c>
       <c r="D101" t="n">
-        <v>1.26108</v>
+        <v>1.27121</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76468</v>
+        <v>1.78252</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13358</v>
+        <v>1.12712</v>
       </c>
       <c r="D102" t="n">
-        <v>1.30894</v>
+        <v>1.31485</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.82071</v>
+        <v>1.83861</v>
       </c>
       <c r="C103" t="n">
-        <v>1.17116</v>
+        <v>1.16556</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35561</v>
+        <v>1.36296</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.87902</v>
+        <v>1.89617</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21124</v>
+        <v>1.20502</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40448</v>
+        <v>1.41256</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.94094</v>
+        <v>1.9616</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25204</v>
+        <v>1.2467</v>
       </c>
       <c r="D105" t="n">
-        <v>1.4554</v>
+        <v>1.46451</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.00818</v>
+        <v>2.02813</v>
       </c>
       <c r="C106" t="n">
-        <v>1.295</v>
+        <v>1.29059</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50783</v>
+        <v>1.51769</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.65101</v>
+        <v>1.66958</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04962</v>
+        <v>1.05162</v>
       </c>
       <c r="D107" t="n">
-        <v>1.27002</v>
+        <v>1.27861</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.68412</v>
+        <v>1.69959</v>
       </c>
       <c r="C108" t="n">
-        <v>1.08072</v>
+        <v>1.07729</v>
       </c>
       <c r="D108" t="n">
-        <v>1.30185</v>
+        <v>1.31293</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.71676</v>
+        <v>1.73665</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10899</v>
+        <v>1.10714</v>
       </c>
       <c r="D109" t="n">
-        <v>1.35034</v>
+        <v>1.36193</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.75968</v>
+        <v>1.77537</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13395</v>
+        <v>1.13597</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38878</v>
+        <v>1.40303</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.79655</v>
+        <v>1.81118</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16333</v>
+        <v>1.16394</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41666</v>
+        <v>1.42879</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.83312</v>
+        <v>1.85194</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20171</v>
+        <v>1.19797</v>
       </c>
       <c r="D112" t="n">
-        <v>1.46204</v>
+        <v>1.47594</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.87657</v>
+        <v>1.894</v>
       </c>
       <c r="C113" t="n">
-        <v>1.2303</v>
+        <v>1.22868</v>
       </c>
       <c r="D113" t="n">
-        <v>1.50392</v>
+        <v>1.51847</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.92651</v>
+        <v>1.943</v>
       </c>
       <c r="C114" t="n">
-        <v>1.25812</v>
+        <v>1.26043</v>
       </c>
       <c r="D114" t="n">
-        <v>1.53897</v>
+        <v>1.55205</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.97303</v>
+        <v>1.98914</v>
       </c>
       <c r="C115" t="n">
-        <v>1.302</v>
+        <v>1.29683</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59406</v>
+        <v>1.60501</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.02106</v>
+        <v>2.04096</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33094</v>
+        <v>1.33041</v>
       </c>
       <c r="D116" t="n">
-        <v>1.6392</v>
+        <v>1.65073</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.07729</v>
+        <v>2.09557</v>
       </c>
       <c r="C117" t="n">
-        <v>1.37563</v>
+        <v>1.36512</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68532</v>
+        <v>1.69651</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.13167</v>
+        <v>2.1513</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41104</v>
+        <v>1.40727</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72427</v>
+        <v>1.74235</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.19039</v>
+        <v>2.20822</v>
       </c>
       <c r="C119" t="n">
-        <v>1.44958</v>
+        <v>1.44178</v>
       </c>
       <c r="D119" t="n">
-        <v>1.77361</v>
+        <v>1.79088</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.284548</v>
+        <v>0.288123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226675</v>
+        <v>0.21329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182638</v>
+        <v>0.182743</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.298931</v>
+        <v>0.295033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.230686</v>
+        <v>0.21911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185601</v>
+        <v>0.184652</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.304726</v>
+        <v>0.301868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23649</v>
+        <v>0.223918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.188911</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.312871</v>
+        <v>0.312217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244637</v>
+        <v>0.231919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.191668</v>
+        <v>0.191283</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.326476</v>
+        <v>0.324578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.250397</v>
+        <v>0.239775</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19504</v>
+        <v>0.193535</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.336505</v>
+        <v>0.336332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207523</v>
+        <v>0.200079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.176625</v>
+        <v>0.179628</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253869</v>
+        <v>0.259115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.211055</v>
+        <v>0.204029</v>
       </c>
       <c r="D8" t="n">
-        <v>0.178942</v>
+        <v>0.181098</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261126</v>
+        <v>0.261907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218844</v>
+        <v>0.215448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.181452</v>
+        <v>0.186899</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.267013</v>
+        <v>0.273584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223029</v>
+        <v>0.220737</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189389</v>
+        <v>0.189134</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.27654</v>
+        <v>0.279042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226925</v>
+        <v>0.222853</v>
       </c>
       <c r="D11" t="n">
-        <v>0.187628</v>
+        <v>0.191603</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.284621</v>
+        <v>0.286605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233621</v>
+        <v>0.227768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191363</v>
+        <v>0.195316</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.299896</v>
+        <v>0.284264</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241527</v>
+        <v>0.235837</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194563</v>
+        <v>0.198881</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.301788</v>
+        <v>0.303406</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24863</v>
+        <v>0.2412</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196973</v>
+        <v>0.199497</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.307996</v>
+        <v>0.307934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.255884</v>
+        <v>0.245632</v>
       </c>
       <c r="D15" t="n">
-        <v>0.201313</v>
+        <v>0.204344</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.318824</v>
+        <v>0.317064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267618</v>
+        <v>0.254168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20688</v>
+        <v>0.206562</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.331543</v>
+        <v>0.329002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.274167</v>
+        <v>0.260194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.21096</v>
+        <v>0.210748</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.341281</v>
+        <v>0.338626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.282571</v>
+        <v>0.269541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.216139</v>
+        <v>0.207391</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.352238</v>
+        <v>0.349079</v>
       </c>
       <c r="C19" t="n">
-        <v>0.291255</v>
+        <v>0.278166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218886</v>
+        <v>0.219003</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.365705</v>
+        <v>0.364507</v>
       </c>
       <c r="C20" t="n">
-        <v>0.304634</v>
+        <v>0.290533</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223557</v>
+        <v>0.222366</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378231</v>
+        <v>0.378034</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246436</v>
+        <v>0.237655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204844</v>
+        <v>0.204597</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295591</v>
+        <v>0.294274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253872</v>
+        <v>0.243449</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208086</v>
+        <v>0.206623</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302834</v>
+        <v>0.301586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260023</v>
+        <v>0.249991</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211368</v>
+        <v>0.210601</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310254</v>
+        <v>0.309144</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265012</v>
+        <v>0.254742</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214735</v>
+        <v>0.214041</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317846</v>
+        <v>0.316672</v>
       </c>
       <c r="C25" t="n">
-        <v>0.272586</v>
+        <v>0.261817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218182</v>
+        <v>0.217422</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326697</v>
+        <v>0.325131</v>
       </c>
       <c r="C26" t="n">
-        <v>0.280632</v>
+        <v>0.268778</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222787</v>
+        <v>0.221274</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.33297</v>
+        <v>0.327846</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2857</v>
+        <v>0.273572</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225247</v>
+        <v>0.224273</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.343314</v>
+        <v>0.341229</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292565</v>
+        <v>0.280165</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228762</v>
+        <v>0.228416</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.35236</v>
+        <v>0.351258</v>
       </c>
       <c r="C29" t="n">
-        <v>0.299931</v>
+        <v>0.287107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233848</v>
+        <v>0.232318</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.362879</v>
+        <v>0.359966</v>
       </c>
       <c r="C30" t="n">
-        <v>0.309311</v>
+        <v>0.294881</v>
       </c>
       <c r="D30" t="n">
-        <v>0.23772</v>
+        <v>0.235999</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.37382</v>
+        <v>0.370413</v>
       </c>
       <c r="C31" t="n">
-        <v>0.315886</v>
+        <v>0.301197</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242926</v>
+        <v>0.239843</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.383309</v>
+        <v>0.380083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.326367</v>
+        <v>0.310973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247413</v>
+        <v>0.244866</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.396221</v>
+        <v>0.393309</v>
       </c>
       <c r="C33" t="n">
-        <v>0.335411</v>
+        <v>0.319339</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252754</v>
+        <v>0.248049</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408089</v>
+        <v>0.406173</v>
       </c>
       <c r="C34" t="n">
-        <v>0.346082</v>
+        <v>0.329599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257378</v>
+        <v>0.253898</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421238</v>
+        <v>0.418673</v>
       </c>
       <c r="C35" t="n">
-        <v>0.265157</v>
+        <v>0.255788</v>
       </c>
       <c r="D35" t="n">
-        <v>0.228668</v>
+        <v>0.22681</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316348</v>
+        <v>0.315082</v>
       </c>
       <c r="C36" t="n">
-        <v>0.272799</v>
+        <v>0.262819</v>
       </c>
       <c r="D36" t="n">
-        <v>0.232024</v>
+        <v>0.230234</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322911</v>
+        <v>0.321759</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278614</v>
+        <v>0.267738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.235245</v>
+        <v>0.233202</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331227</v>
+        <v>0.330035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.285524</v>
+        <v>0.274998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.239041</v>
+        <v>0.236699</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336949</v>
+        <v>0.335736</v>
       </c>
       <c r="C39" t="n">
-        <v>0.292154</v>
+        <v>0.280518</v>
       </c>
       <c r="D39" t="n">
-        <v>0.242623</v>
+        <v>0.240441</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346714</v>
+        <v>0.345212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298488</v>
+        <v>0.286597</v>
       </c>
       <c r="D40" t="n">
-        <v>0.246461</v>
+        <v>0.244509</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.35376</v>
+        <v>0.352888</v>
       </c>
       <c r="C41" t="n">
-        <v>0.305194</v>
+        <v>0.293025</v>
       </c>
       <c r="D41" t="n">
-        <v>0.24874</v>
+        <v>0.247338</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.362093</v>
+        <v>0.360799</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310764</v>
+        <v>0.298284</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253227</v>
+        <v>0.250673</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370862</v>
+        <v>0.369736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.319055</v>
+        <v>0.305764</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25647</v>
+        <v>0.254353</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380693</v>
+        <v>0.37961</v>
       </c>
       <c r="C44" t="n">
-        <v>0.327241</v>
+        <v>0.313605</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260856</v>
+        <v>0.259048</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392435</v>
+        <v>0.391389</v>
       </c>
       <c r="C45" t="n">
-        <v>0.336137</v>
+        <v>0.321857</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265718</v>
+        <v>0.262287</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.403004</v>
+        <v>0.401768</v>
       </c>
       <c r="C46" t="n">
-        <v>0.34567</v>
+        <v>0.330305</v>
       </c>
       <c r="D46" t="n">
-        <v>0.269627</v>
+        <v>0.266825</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413373</v>
+        <v>0.411984</v>
       </c>
       <c r="C47" t="n">
-        <v>0.353605</v>
+        <v>0.338098</v>
       </c>
       <c r="D47" t="n">
-        <v>0.274996</v>
+        <v>0.273342</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424432</v>
+        <v>0.423789</v>
       </c>
       <c r="C48" t="n">
-        <v>0.364116</v>
+        <v>0.347304</v>
       </c>
       <c r="D48" t="n">
-        <v>0.280059</v>
+        <v>0.278796</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435071</v>
+        <v>0.434378</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375135</v>
+        <v>0.357081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.286155</v>
+        <v>0.283081</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.44984</v>
+        <v>0.449039</v>
       </c>
       <c r="C50" t="n">
-        <v>0.280324</v>
+        <v>0.270569</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231209</v>
+        <v>0.23129</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333473</v>
+        <v>0.333283</v>
       </c>
       <c r="C51" t="n">
-        <v>0.286599</v>
+        <v>0.276421</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234484</v>
+        <v>0.234346</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340736</v>
+        <v>0.340275</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292701</v>
+        <v>0.282164</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237881</v>
+        <v>0.237777</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347189</v>
+        <v>0.346851</v>
       </c>
       <c r="C53" t="n">
-        <v>0.300304</v>
+        <v>0.288939</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241525</v>
+        <v>0.241805</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3554</v>
+        <v>0.355334</v>
       </c>
       <c r="C54" t="n">
-        <v>0.306772</v>
+        <v>0.295066</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245054</v>
+        <v>0.245303</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.364449</v>
+        <v>0.363826</v>
       </c>
       <c r="C55" t="n">
-        <v>0.314034</v>
+        <v>0.302259</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249314</v>
+        <v>0.249783</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373723</v>
+        <v>0.3736</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320509</v>
+        <v>0.307571</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253415</v>
+        <v>0.253441</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382422</v>
+        <v>0.382324</v>
       </c>
       <c r="C57" t="n">
-        <v>0.329016</v>
+        <v>0.315351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257571</v>
+        <v>0.257423</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392248</v>
+        <v>0.392062</v>
       </c>
       <c r="C58" t="n">
-        <v>0.337631</v>
+        <v>0.323271</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263386</v>
+        <v>0.263366</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.404197</v>
+        <v>0.403854</v>
       </c>
       <c r="C59" t="n">
-        <v>0.344986</v>
+        <v>0.329578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266456</v>
+        <v>0.266513</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413768</v>
+        <v>0.413077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.353437</v>
+        <v>0.337715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270847</v>
+        <v>0.270722</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424965</v>
+        <v>0.424098</v>
       </c>
       <c r="C61" t="n">
-        <v>0.363669</v>
+        <v>0.347219</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276678</v>
+        <v>0.276121</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435059</v>
+        <v>0.434728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.373163</v>
+        <v>0.355667</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280984</v>
+        <v>0.280834</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447613</v>
+        <v>0.446782</v>
       </c>
       <c r="C63" t="n">
-        <v>0.384297</v>
+        <v>0.365854</v>
       </c>
       <c r="D63" t="n">
-        <v>0.286671</v>
+        <v>0.287205</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.460232</v>
+        <v>0.460876</v>
       </c>
       <c r="C64" t="n">
-        <v>0.301164</v>
+        <v>0.288185</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24905</v>
+        <v>0.246414</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.364942</v>
+        <v>0.356945</v>
       </c>
       <c r="C65" t="n">
-        <v>0.311921</v>
+        <v>0.296724</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25</v>
+        <v>0.248034</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.378011</v>
+        <v>0.371254</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322123</v>
+        <v>0.307797</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255142</v>
+        <v>0.254483</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.389976</v>
+        <v>0.388055</v>
       </c>
       <c r="C67" t="n">
-        <v>0.331642</v>
+        <v>0.317336</v>
       </c>
       <c r="D67" t="n">
-        <v>0.260872</v>
+        <v>0.259832</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.403696</v>
+        <v>0.399639</v>
       </c>
       <c r="C68" t="n">
-        <v>0.342213</v>
+        <v>0.32804</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266956</v>
+        <v>0.266773</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412603</v>
+        <v>0.413588</v>
       </c>
       <c r="C69" t="n">
-        <v>0.355707</v>
+        <v>0.340641</v>
       </c>
       <c r="D69" t="n">
-        <v>0.273481</v>
+        <v>0.270828</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.427007</v>
+        <v>0.434997</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36812</v>
+        <v>0.354063</v>
       </c>
       <c r="D70" t="n">
-        <v>0.279297</v>
+        <v>0.278221</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453756</v>
+        <v>0.453216</v>
       </c>
       <c r="C71" t="n">
-        <v>0.383062</v>
+        <v>0.366445</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284818</v>
+        <v>0.284499</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.475434</v>
+        <v>0.472505</v>
       </c>
       <c r="C72" t="n">
-        <v>0.399452</v>
+        <v>0.38137</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292728</v>
+        <v>0.291433</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.500192</v>
+        <v>0.5001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.420234</v>
+        <v>0.401612</v>
       </c>
       <c r="D73" t="n">
-        <v>0.301699</v>
+        <v>0.300601</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.527601</v>
+        <v>0.526027</v>
       </c>
       <c r="C74" t="n">
-        <v>0.441109</v>
+        <v>0.422273</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31014</v>
+        <v>0.310435</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554213</v>
+        <v>0.558796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.461706</v>
+        <v>0.447234</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320646</v>
+        <v>0.319801</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.584772</v>
+        <v>0.599898</v>
       </c>
       <c r="C76" t="n">
-        <v>0.491245</v>
+        <v>0.480111</v>
       </c>
       <c r="D76" t="n">
-        <v>0.327915</v>
+        <v>0.335951</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.62829</v>
+        <v>0.645018</v>
       </c>
       <c r="C77" t="n">
-        <v>0.523072</v>
+        <v>0.510908</v>
       </c>
       <c r="D77" t="n">
-        <v>0.341895</v>
+        <v>0.351369</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677154</v>
+        <v>0.690962</v>
       </c>
       <c r="C78" t="n">
-        <v>0.463662</v>
+        <v>0.464188</v>
       </c>
       <c r="D78" t="n">
-        <v>0.31731</v>
+        <v>0.319437</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.626715</v>
+        <v>0.632232</v>
       </c>
       <c r="C79" t="n">
-        <v>0.494591</v>
+        <v>0.489618</v>
       </c>
       <c r="D79" t="n">
-        <v>0.329038</v>
+        <v>0.333473</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.667621</v>
+        <v>0.672435</v>
       </c>
       <c r="C80" t="n">
-        <v>0.52618</v>
+        <v>0.515857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.339037</v>
+        <v>0.346877</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.714021</v>
+        <v>0.714792</v>
       </c>
       <c r="C81" t="n">
-        <v>0.563738</v>
+        <v>0.55343</v>
       </c>
       <c r="D81" t="n">
-        <v>0.357297</v>
+        <v>0.360631</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.763599</v>
+        <v>0.760852</v>
       </c>
       <c r="C82" t="n">
-        <v>0.602089</v>
+        <v>0.588331</v>
       </c>
       <c r="D82" t="n">
-        <v>0.381425</v>
+        <v>0.378564</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.81535</v>
+        <v>0.813961</v>
       </c>
       <c r="C83" t="n">
-        <v>0.645095</v>
+        <v>0.6261060000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.400567</v>
+        <v>0.397073</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.870968</v>
+        <v>0.870189</v>
       </c>
       <c r="C84" t="n">
-        <v>0.690484</v>
+        <v>0.667666</v>
       </c>
       <c r="D84" t="n">
-        <v>0.421963</v>
+        <v>0.41749</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.929356</v>
+        <v>0.927935</v>
       </c>
       <c r="C85" t="n">
-        <v>0.736112</v>
+        <v>0.709857</v>
       </c>
       <c r="D85" t="n">
-        <v>0.440271</v>
+        <v>0.442504</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.988919</v>
+        <v>0.986161</v>
       </c>
       <c r="C86" t="n">
-        <v>0.78276</v>
+        <v>0.756232</v>
       </c>
       <c r="D86" t="n">
-        <v>0.466914</v>
+        <v>0.469384</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05159</v>
+        <v>1.05027</v>
       </c>
       <c r="C87" t="n">
-        <v>0.838706</v>
+        <v>0.8103089999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.492969</v>
+        <v>0.493068</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11764</v>
+        <v>1.11991</v>
       </c>
       <c r="C88" t="n">
-        <v>0.893923</v>
+        <v>0.861129</v>
       </c>
       <c r="D88" t="n">
-        <v>0.528421</v>
+        <v>0.518443</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.19219</v>
+        <v>1.18906</v>
       </c>
       <c r="C89" t="n">
-        <v>0.953379</v>
+        <v>0.916299</v>
       </c>
       <c r="D89" t="n">
-        <v>0.553983</v>
+        <v>0.549917</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.26444</v>
+        <v>1.26484</v>
       </c>
       <c r="C90" t="n">
-        <v>1.00939</v>
+        <v>0.969168</v>
       </c>
       <c r="D90" t="n">
-        <v>0.578775</v>
+        <v>0.580039</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.34457</v>
+        <v>1.34377</v>
       </c>
       <c r="C91" t="n">
-        <v>1.07357</v>
+        <v>1.03122</v>
       </c>
       <c r="D91" t="n">
-        <v>0.619389</v>
+        <v>0.619669</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42885</v>
+        <v>1.42454</v>
       </c>
       <c r="C92" t="n">
-        <v>0.902166</v>
+        <v>0.877209</v>
       </c>
       <c r="D92" t="n">
-        <v>0.623144</v>
+        <v>0.619495</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15304</v>
+        <v>1.1498</v>
       </c>
       <c r="C93" t="n">
-        <v>0.93828</v>
+        <v>0.91021</v>
       </c>
       <c r="D93" t="n">
-        <v>0.651356</v>
+        <v>0.642892</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.19761</v>
+        <v>1.19518</v>
       </c>
       <c r="C94" t="n">
-        <v>0.977553</v>
+        <v>0.948691</v>
       </c>
       <c r="D94" t="n">
-        <v>0.674489</v>
+        <v>0.665075</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24569</v>
+        <v>1.24158</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01401</v>
+        <v>0.984503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.696147</v>
+        <v>0.6919380000000001</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.29974</v>
+        <v>1.29784</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05846</v>
+        <v>1.0251</v>
       </c>
       <c r="D96" t="n">
-        <v>0.719977</v>
+        <v>0.722015</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.35203</v>
+        <v>1.34923</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09988</v>
+        <v>1.0639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.744438</v>
+        <v>0.741601</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.41029</v>
+        <v>1.39916</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1469</v>
+        <v>1.10655</v>
       </c>
       <c r="D98" t="n">
-        <v>0.770833</v>
+        <v>0.771613</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.46387</v>
+        <v>1.46141</v>
       </c>
       <c r="C99" t="n">
-        <v>1.19352</v>
+        <v>1.15217</v>
       </c>
       <c r="D99" t="n">
-        <v>0.798457</v>
+        <v>0.800444</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.52686</v>
+        <v>1.50022</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24311</v>
+        <v>1.19976</v>
       </c>
       <c r="D100" t="n">
-        <v>0.830093</v>
+        <v>0.825048</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.583</v>
+        <v>1.57621</v>
       </c>
       <c r="C101" t="n">
-        <v>1.29359</v>
+        <v>1.24856</v>
       </c>
       <c r="D101" t="n">
-        <v>0.862128</v>
+        <v>0.8526589999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.64833</v>
+        <v>1.60811</v>
       </c>
       <c r="C102" t="n">
-        <v>1.34605</v>
+        <v>1.29882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.88993</v>
+        <v>0.88531</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.6886</v>
+        <v>1.6808</v>
       </c>
       <c r="C103" t="n">
-        <v>1.39991</v>
+        <v>1.35318</v>
       </c>
       <c r="D103" t="n">
-        <v>0.92137</v>
+        <v>0.919086</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.73794</v>
+        <v>1.73965</v>
       </c>
       <c r="C104" t="n">
-        <v>1.45698</v>
+        <v>1.39496</v>
       </c>
       <c r="D104" t="n">
-        <v>0.956101</v>
+        <v>0.947634</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.81083</v>
+        <v>1.80366</v>
       </c>
       <c r="C105" t="n">
-        <v>1.51217</v>
+        <v>1.45981</v>
       </c>
       <c r="D105" t="n">
-        <v>0.995375</v>
+        <v>0.98629</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.88807</v>
+        <v>1.88181</v>
       </c>
       <c r="C106" t="n">
-        <v>1.56845</v>
+        <v>1.50126</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02735</v>
+        <v>1.01614</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38439</v>
+        <v>1.3807</v>
       </c>
       <c r="C107" t="n">
-        <v>1.20004</v>
+        <v>1.16634</v>
       </c>
       <c r="D107" t="n">
-        <v>0.943016</v>
+        <v>0.941137</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42422</v>
+        <v>1.42328</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20746</v>
+        <v>1.2102</v>
       </c>
       <c r="D108" t="n">
-        <v>0.961182</v>
+        <v>0.964435</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.47198</v>
+        <v>1.46843</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24145</v>
+        <v>1.23737</v>
       </c>
       <c r="D109" t="n">
-        <v>0.984576</v>
+        <v>0.983258</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.52055</v>
+        <v>1.51822</v>
       </c>
       <c r="C110" t="n">
-        <v>1.26809</v>
+        <v>1.24815</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00854</v>
+        <v>1.00405</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.56967</v>
+        <v>1.56884</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31114</v>
+        <v>1.31107</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0375</v>
+        <v>1.03484</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.62248</v>
+        <v>1.60994</v>
       </c>
       <c r="C112" t="n">
-        <v>1.35023</v>
+        <v>1.3272</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05717</v>
+        <v>1.06081</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67851</v>
+        <v>1.67517</v>
       </c>
       <c r="C113" t="n">
-        <v>1.39329</v>
+        <v>1.35454</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09015</v>
+        <v>1.08548</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.73866</v>
+        <v>1.73337</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43791</v>
+        <v>1.39607</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11662</v>
+        <v>1.11125</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.79708</v>
+        <v>1.7927</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48575</v>
+        <v>1.44151</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14229</v>
+        <v>1.14419</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.86343</v>
+        <v>1.85854</v>
       </c>
       <c r="C116" t="n">
-        <v>1.53616</v>
+        <v>1.48809</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17483</v>
+        <v>1.17427</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.93141</v>
+        <v>1.92515</v>
       </c>
       <c r="C117" t="n">
-        <v>1.591</v>
+        <v>1.53895</v>
       </c>
       <c r="D117" t="n">
-        <v>1.20695</v>
+        <v>1.20095</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.00078</v>
+        <v>1.99465</v>
       </c>
       <c r="C118" t="n">
-        <v>1.64831</v>
+        <v>1.59335</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23719</v>
+        <v>1.23562</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.07474</v>
+        <v>2.06727</v>
       </c>
       <c r="C119" t="n">
-        <v>1.70468</v>
+        <v>1.64756</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27051</v>
+        <v>1.26959</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6447889999999999</v>
+        <v>0.643915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.491334</v>
+        <v>0.450265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.310403</v>
+        <v>0.312848</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.666484</v>
+        <v>0.669272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.511812</v>
+        <v>0.474484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.325639</v>
+        <v>0.32521</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.702292</v>
+        <v>0.70684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.548038</v>
+        <v>0.509462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.334582</v>
+        <v>0.334882</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.727328</v>
+        <v>0.72948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.574515</v>
+        <v>0.52449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347427</v>
+        <v>0.345432</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.753775</v>
+        <v>0.757141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.599907</v>
+        <v>0.530661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361996</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.792982</v>
+        <v>0.786057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6292410000000001</v>
+        <v>0.562438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368438</v>
+        <v>0.362152</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.818215</v>
+        <v>0.812929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.650182</v>
+        <v>0.592995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.371442</v>
+        <v>0.37044</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.858701</v>
+        <v>0.856525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.673983</v>
+        <v>0.611143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.385832</v>
+        <v>0.388156</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.89558</v>
+        <v>0.892384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7149720000000001</v>
+        <v>0.6560510000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.405692</v>
+        <v>0.402293</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.927876</v>
+        <v>0.924437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.483016</v>
+        <v>0.442676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.293569</v>
+        <v>0.291755</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.604394</v>
+        <v>0.603582</v>
       </c>
       <c r="C12" t="n">
-        <v>0.495961</v>
+        <v>0.463161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.305619</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.629935</v>
+        <v>0.617425</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5230939999999999</v>
+        <v>0.478643</v>
       </c>
       <c r="D13" t="n">
-        <v>0.317518</v>
+        <v>0.311345</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.656644</v>
+        <v>0.647605</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5441240000000001</v>
+        <v>0.499003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327701</v>
+        <v>0.321008</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.680192</v>
+        <v>0.673718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.580236</v>
+        <v>0.522607</v>
       </c>
       <c r="D15" t="n">
-        <v>0.340068</v>
+        <v>0.336675</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7170339999999999</v>
+        <v>0.709529</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5970569999999999</v>
+        <v>0.546793</v>
       </c>
       <c r="D16" t="n">
-        <v>0.354979</v>
+        <v>0.350029</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7525849999999999</v>
+        <v>0.744027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.636724</v>
+        <v>0.578265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.367608</v>
+        <v>0.364129</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.789663</v>
+        <v>0.787005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.663409</v>
+        <v>0.61329</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379856</v>
+        <v>0.374853</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.820306</v>
+        <v>0.828897</v>
       </c>
       <c r="C19" t="n">
-        <v>0.700084</v>
+        <v>0.64569</v>
       </c>
       <c r="D19" t="n">
-        <v>0.392071</v>
+        <v>0.391016</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8644500000000001</v>
+        <v>0.867895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.733649</v>
+        <v>0.6773670000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.403877</v>
+        <v>0.406861</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.902935</v>
+        <v>0.9109120000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.77189</v>
+        <v>0.7133659999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418212</v>
+        <v>0.417977</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.948498</v>
+        <v>0.950252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.804899</v>
+        <v>0.744185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.436326</v>
+        <v>0.4355</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.989021</v>
+        <v>0.996474</v>
       </c>
       <c r="C23" t="n">
-        <v>0.849599</v>
+        <v>0.785899</v>
       </c>
       <c r="D23" t="n">
-        <v>0.446234</v>
+        <v>0.447094</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.03917</v>
+        <v>1.04182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.889669</v>
+        <v>0.821726</v>
       </c>
       <c r="D24" t="n">
-        <v>0.463081</v>
+        <v>0.463911</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08642</v>
+        <v>1.08988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9287570000000001</v>
+        <v>0.86149</v>
       </c>
       <c r="D25" t="n">
-        <v>0.478469</v>
+        <v>0.488389</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.12534</v>
+        <v>1.13691</v>
       </c>
       <c r="C26" t="n">
-        <v>0.600927</v>
+        <v>0.560794</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343768</v>
+        <v>0.349697</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7346780000000001</v>
+        <v>0.736474</v>
       </c>
       <c r="C27" t="n">
-        <v>0.627393</v>
+        <v>0.588681</v>
       </c>
       <c r="D27" t="n">
-        <v>0.358447</v>
+        <v>0.35999</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.770909</v>
+        <v>0.7726189999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.660068</v>
+        <v>0.62132</v>
       </c>
       <c r="D28" t="n">
-        <v>0.374887</v>
+        <v>0.376949</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.804994</v>
+        <v>0.810152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.694032</v>
+        <v>0.648834</v>
       </c>
       <c r="D29" t="n">
-        <v>0.386545</v>
+        <v>0.390556</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.841023</v>
+        <v>0.845189</v>
       </c>
       <c r="C30" t="n">
-        <v>0.728196</v>
+        <v>0.680075</v>
       </c>
       <c r="D30" t="n">
-        <v>0.404452</v>
+        <v>0.401465</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.879039</v>
+        <v>0.878712</v>
       </c>
       <c r="C31" t="n">
-        <v>0.763843</v>
+        <v>0.7099259999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415899</v>
+        <v>0.416751</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.917719</v>
+        <v>0.913062</v>
       </c>
       <c r="C32" t="n">
-        <v>0.800238</v>
+        <v>0.742507</v>
       </c>
       <c r="D32" t="n">
-        <v>0.432117</v>
+        <v>0.426267</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9610880000000001</v>
+        <v>0.957156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.83621</v>
+        <v>0.774819</v>
       </c>
       <c r="D33" t="n">
-        <v>0.446828</v>
+        <v>0.439652</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00241</v>
+        <v>0.99516</v>
       </c>
       <c r="C34" t="n">
-        <v>0.871483</v>
+        <v>0.802107</v>
       </c>
       <c r="D34" t="n">
-        <v>0.457147</v>
+        <v>0.450866</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.05084</v>
+        <v>1.04433</v>
       </c>
       <c r="C35" t="n">
-        <v>0.908004</v>
+        <v>0.837456</v>
       </c>
       <c r="D35" t="n">
-        <v>0.467605</v>
+        <v>0.457465</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.09045</v>
+        <v>1.08448</v>
       </c>
       <c r="C36" t="n">
-        <v>0.945314</v>
+        <v>0.872792</v>
       </c>
       <c r="D36" t="n">
-        <v>0.491702</v>
+        <v>0.481892</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.13738</v>
+        <v>1.12479</v>
       </c>
       <c r="C37" t="n">
-        <v>0.984554</v>
+        <v>0.90566</v>
       </c>
       <c r="D37" t="n">
-        <v>0.502767</v>
+        <v>0.499294</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18033</v>
+        <v>1.174</v>
       </c>
       <c r="C38" t="n">
-        <v>1.02792</v>
+        <v>0.944196</v>
       </c>
       <c r="D38" t="n">
-        <v>0.519957</v>
+        <v>0.515014</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.2327</v>
+        <v>1.22317</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06388</v>
+        <v>0.976507</v>
       </c>
       <c r="D39" t="n">
-        <v>0.539156</v>
+        <v>0.524491</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.27818</v>
+        <v>1.27011</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6622479999999999</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.399755</v>
+        <v>0.396621</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8075909999999999</v>
+        <v>0.802658</v>
       </c>
       <c r="C41" t="n">
-        <v>0.687447</v>
+        <v>0.642828</v>
       </c>
       <c r="D41" t="n">
-        <v>0.411835</v>
+        <v>0.410577</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.842556</v>
+        <v>0.838251</v>
       </c>
       <c r="C42" t="n">
-        <v>0.717482</v>
+        <v>0.669509</v>
       </c>
       <c r="D42" t="n">
-        <v>0.42459</v>
+        <v>0.424123</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.872543</v>
+        <v>0.871625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.750629</v>
+        <v>0.700581</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438489</v>
+        <v>0.438463</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.915591</v>
+        <v>0.914196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7817269999999999</v>
+        <v>0.73171</v>
       </c>
       <c r="D44" t="n">
-        <v>0.453106</v>
+        <v>0.442277</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.949523</v>
+        <v>0.945102</v>
       </c>
       <c r="C45" t="n">
-        <v>0.818452</v>
+        <v>0.765614</v>
       </c>
       <c r="D45" t="n">
-        <v>0.471747</v>
+        <v>0.469794</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.99368</v>
+        <v>0.98739</v>
       </c>
       <c r="C46" t="n">
-        <v>0.852443</v>
+        <v>0.797875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.489606</v>
+        <v>0.488864</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03781</v>
+        <v>1.03798</v>
       </c>
       <c r="C47" t="n">
-        <v>0.890452</v>
+        <v>0.828026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.505118</v>
+        <v>0.489787</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08175</v>
+        <v>1.08195</v>
       </c>
       <c r="C48" t="n">
-        <v>0.92761</v>
+        <v>0.865407</v>
       </c>
       <c r="D48" t="n">
-        <v>0.51872</v>
+        <v>0.516783</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12253</v>
+        <v>1.12375</v>
       </c>
       <c r="C49" t="n">
-        <v>0.968937</v>
+        <v>0.902568</v>
       </c>
       <c r="D49" t="n">
-        <v>0.535744</v>
+        <v>0.530604</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17102</v>
+        <v>1.17293</v>
       </c>
       <c r="C50" t="n">
-        <v>1.00855</v>
+        <v>0.94015</v>
       </c>
       <c r="D50" t="n">
-        <v>0.552629</v>
+        <v>0.545223</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21785</v>
+        <v>1.21174</v>
       </c>
       <c r="C51" t="n">
-        <v>1.04699</v>
+        <v>0.972742</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5680539999999999</v>
+        <v>0.5697489999999999</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26018</v>
+        <v>1.26465</v>
       </c>
       <c r="C52" t="n">
-        <v>1.08953</v>
+        <v>1.01434</v>
       </c>
       <c r="D52" t="n">
-        <v>0.584856</v>
+        <v>0.5718839999999999</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.30847</v>
+        <v>1.31128</v>
       </c>
       <c r="C53" t="n">
-        <v>1.12921</v>
+        <v>1.04866</v>
       </c>
       <c r="D53" t="n">
-        <v>0.597104</v>
+        <v>0.5989449999999999</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.35647</v>
+        <v>1.3562</v>
       </c>
       <c r="C54" t="n">
-        <v>0.693535</v>
+        <v>0.652719</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429499</v>
+        <v>0.428836</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.838033</v>
+        <v>0.83995</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7194</v>
+        <v>0.675683</v>
       </c>
       <c r="D55" t="n">
-        <v>0.444568</v>
+        <v>0.445347</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.871736</v>
+        <v>0.8723649999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.749387</v>
+        <v>0.704561</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457139</v>
+        <v>0.457475</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9091900000000001</v>
+        <v>0.9096379999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.778446</v>
+        <v>0.731823</v>
       </c>
       <c r="D57" t="n">
-        <v>0.474004</v>
+        <v>0.471038</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.943041</v>
+        <v>0.945015</v>
       </c>
       <c r="C58" t="n">
-        <v>0.813648</v>
+        <v>0.763607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.486148</v>
+        <v>0.488042</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.984147</v>
+        <v>0.984484</v>
       </c>
       <c r="C59" t="n">
-        <v>0.848785</v>
+        <v>0.79792</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503301</v>
+        <v>0.503348</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02284</v>
+        <v>1.02503</v>
       </c>
       <c r="C60" t="n">
-        <v>0.884699</v>
+        <v>0.829844</v>
       </c>
       <c r="D60" t="n">
-        <v>0.521209</v>
+        <v>0.519668</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06305</v>
+        <v>1.06521</v>
       </c>
       <c r="C61" t="n">
-        <v>0.923432</v>
+        <v>0.863955</v>
       </c>
       <c r="D61" t="n">
-        <v>0.536066</v>
+        <v>0.535484</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10423</v>
+        <v>1.10885</v>
       </c>
       <c r="C62" t="n">
-        <v>0.962484</v>
+        <v>0.901989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.553747</v>
+        <v>0.5507030000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.14969</v>
+        <v>1.15438</v>
       </c>
       <c r="C63" t="n">
-        <v>0.998637</v>
+        <v>0.935523</v>
       </c>
       <c r="D63" t="n">
-        <v>0.569582</v>
+        <v>0.566944</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20038</v>
+        <v>1.2023</v>
       </c>
       <c r="C64" t="n">
-        <v>1.04021</v>
+        <v>0.9747670000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.584101</v>
+        <v>0.575986</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24548</v>
+        <v>1.24855</v>
       </c>
       <c r="C65" t="n">
-        <v>1.07884</v>
+        <v>1.00882</v>
       </c>
       <c r="D65" t="n">
-        <v>0.601849</v>
+        <v>0.59982</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29103</v>
+        <v>1.29353</v>
       </c>
       <c r="C66" t="n">
-        <v>1.12271</v>
+        <v>1.04844</v>
       </c>
       <c r="D66" t="n">
-        <v>0.621268</v>
+        <v>0.618082</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34356</v>
+        <v>1.3413</v>
       </c>
       <c r="C67" t="n">
-        <v>1.16593</v>
+        <v>1.08874</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634446</v>
+        <v>0.63385</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.38969</v>
+        <v>1.40625</v>
       </c>
       <c r="C68" t="n">
-        <v>0.718121</v>
+        <v>0.670561</v>
       </c>
       <c r="D68" t="n">
-        <v>0.456529</v>
+        <v>0.452583</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.890923</v>
+        <v>0.876977</v>
       </c>
       <c r="C69" t="n">
-        <v>0.764577</v>
+        <v>0.703406</v>
       </c>
       <c r="D69" t="n">
-        <v>0.472225</v>
+        <v>0.465227</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.948417</v>
+        <v>0.92439</v>
       </c>
       <c r="C70" t="n">
-        <v>0.811405</v>
+        <v>0.7459750000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491846</v>
+        <v>0.486081</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00253</v>
+        <v>0.980027</v>
       </c>
       <c r="C71" t="n">
-        <v>0.859405</v>
+        <v>0.787906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.515176</v>
+        <v>0.50752</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0592</v>
+        <v>1.0385</v>
       </c>
       <c r="C72" t="n">
-        <v>0.906428</v>
+        <v>0.836721</v>
       </c>
       <c r="D72" t="n">
-        <v>0.538349</v>
+        <v>0.530012</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14032</v>
+        <v>1.10453</v>
       </c>
       <c r="C73" t="n">
-        <v>0.981642</v>
+        <v>0.888579</v>
       </c>
       <c r="D73" t="n">
-        <v>0.561913</v>
+        <v>0.550744</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.22628</v>
+        <v>1.16683</v>
       </c>
       <c r="C74" t="n">
-        <v>1.05239</v>
+        <v>0.941492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.582494</v>
+        <v>0.569829</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.30397</v>
+        <v>1.24473</v>
       </c>
       <c r="C75" t="n">
-        <v>1.11936</v>
+        <v>1.00819</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6093730000000001</v>
+        <v>0.596938</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.39983</v>
+        <v>1.33752</v>
       </c>
       <c r="C76" t="n">
-        <v>1.19578</v>
+        <v>1.07491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.640854</v>
+        <v>0.621584</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.51245</v>
+        <v>1.44544</v>
       </c>
       <c r="C77" t="n">
-        <v>1.29379</v>
+        <v>1.1542</v>
       </c>
       <c r="D77" t="n">
-        <v>0.671645</v>
+        <v>0.654969</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.63692</v>
+        <v>1.55415</v>
       </c>
       <c r="C78" t="n">
-        <v>1.40286</v>
+        <v>1.24541</v>
       </c>
       <c r="D78" t="n">
-        <v>0.700354</v>
+        <v>0.676588</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.77849</v>
+        <v>1.69618</v>
       </c>
       <c r="C79" t="n">
-        <v>1.52521</v>
+        <v>1.36086</v>
       </c>
       <c r="D79" t="n">
-        <v>0.74409</v>
+        <v>0.716603</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.942</v>
+        <v>1.85544</v>
       </c>
       <c r="C80" t="n">
-        <v>1.66097</v>
+        <v>1.48779</v>
       </c>
       <c r="D80" t="n">
-        <v>0.782566</v>
+        <v>0.755569</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.13293</v>
+        <v>2.0235</v>
       </c>
       <c r="C81" t="n">
-        <v>1.83477</v>
+        <v>1.62752</v>
       </c>
       <c r="D81" t="n">
-        <v>0.834246</v>
+        <v>0.789218</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.33695</v>
+        <v>2.23571</v>
       </c>
       <c r="C82" t="n">
-        <v>1.99536</v>
+        <v>1.80866</v>
       </c>
       <c r="D82" t="n">
-        <v>0.909792</v>
+        <v>0.8715309999999999</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.57377</v>
+        <v>2.46238</v>
       </c>
       <c r="C83" t="n">
-        <v>1.29791</v>
+        <v>1.187</v>
       </c>
       <c r="D83" t="n">
-        <v>0.650618</v>
+        <v>0.628054</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.70775</v>
+        <v>1.6501</v>
       </c>
       <c r="C84" t="n">
-        <v>1.42786</v>
+        <v>1.31837</v>
       </c>
       <c r="D84" t="n">
-        <v>0.696156</v>
+        <v>0.665077</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.8899</v>
+        <v>1.83015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.57682</v>
+        <v>1.45635</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7531600000000001</v>
+        <v>0.7160609999999999</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.07581</v>
+        <v>2.02484</v>
       </c>
       <c r="C86" t="n">
-        <v>1.73287</v>
+        <v>1.62003</v>
       </c>
       <c r="D86" t="n">
-        <v>0.797372</v>
+        <v>0.77236</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.28375</v>
+        <v>2.2389</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90079</v>
+        <v>1.78944</v>
       </c>
       <c r="D87" t="n">
-        <v>0.856393</v>
+        <v>0.83474</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.50723</v>
+        <v>2.48077</v>
       </c>
       <c r="C88" t="n">
-        <v>2.09171</v>
+        <v>1.98227</v>
       </c>
       <c r="D88" t="n">
-        <v>0.926964</v>
+        <v>0.920297</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.73135</v>
+        <v>2.72609</v>
       </c>
       <c r="C89" t="n">
-        <v>2.29017</v>
+        <v>2.19155</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00517</v>
+        <v>0.999101</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.99696</v>
+        <v>2.99025</v>
       </c>
       <c r="C90" t="n">
-        <v>2.50861</v>
+        <v>2.39544</v>
       </c>
       <c r="D90" t="n">
-        <v>1.10044</v>
+        <v>1.07941</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.27835</v>
+        <v>3.27086</v>
       </c>
       <c r="C91" t="n">
-        <v>2.7447</v>
+        <v>2.62111</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19617</v>
+        <v>1.16969</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.58232</v>
+        <v>3.5734</v>
       </c>
       <c r="C92" t="n">
-        <v>3.00431</v>
+        <v>2.87231</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27993</v>
+        <v>1.26745</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.88963</v>
+        <v>3.88641</v>
       </c>
       <c r="C93" t="n">
-        <v>3.25894</v>
+        <v>3.1204</v>
       </c>
       <c r="D93" t="n">
-        <v>1.37283</v>
+        <v>1.35732</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.20946</v>
+        <v>4.21262</v>
       </c>
       <c r="C94" t="n">
-        <v>3.53873</v>
+        <v>3.38475</v>
       </c>
       <c r="D94" t="n">
-        <v>1.44348</v>
+        <v>1.45025</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.55424</v>
+        <v>4.54894</v>
       </c>
       <c r="C95" t="n">
-        <v>3.83387</v>
+        <v>3.67166</v>
       </c>
       <c r="D95" t="n">
-        <v>1.57941</v>
+        <v>1.56935</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.91246</v>
+        <v>4.90746</v>
       </c>
       <c r="C96" t="n">
-        <v>4.14312</v>
+        <v>3.96958</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69403</v>
+        <v>1.69791</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.29217</v>
+        <v>5.27614</v>
       </c>
       <c r="C97" t="n">
-        <v>2.48947</v>
+        <v>2.38518</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18106</v>
+        <v>1.18424</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.24552</v>
+        <v>3.24944</v>
       </c>
       <c r="C98" t="n">
-        <v>2.667</v>
+        <v>2.55643</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24311</v>
+        <v>1.25437</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.4806</v>
+        <v>3.46203</v>
       </c>
       <c r="C99" t="n">
-        <v>2.84853</v>
+        <v>2.72838</v>
       </c>
       <c r="D99" t="n">
-        <v>1.34465</v>
+        <v>1.35004</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.69514</v>
+        <v>3.69384</v>
       </c>
       <c r="C100" t="n">
-        <v>3.03326</v>
+        <v>2.90365</v>
       </c>
       <c r="D100" t="n">
-        <v>1.41315</v>
+        <v>1.43258</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.94658</v>
+        <v>3.89467</v>
       </c>
       <c r="C101" t="n">
-        <v>3.23159</v>
+        <v>3.09146</v>
       </c>
       <c r="D101" t="n">
-        <v>1.49452</v>
+        <v>1.49117</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.0932</v>
+        <v>4.05883</v>
       </c>
       <c r="C102" t="n">
-        <v>3.35652</v>
+        <v>3.27229</v>
       </c>
       <c r="D102" t="n">
-        <v>1.58379</v>
+        <v>1.59275</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.33678</v>
+        <v>4.32113</v>
       </c>
       <c r="C103" t="n">
-        <v>3.57294</v>
+        <v>3.46184</v>
       </c>
       <c r="D103" t="n">
-        <v>1.68686</v>
+        <v>1.67309</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.59935</v>
+        <v>4.58759</v>
       </c>
       <c r="C104" t="n">
-        <v>3.79194</v>
+        <v>3.64271</v>
       </c>
       <c r="D104" t="n">
-        <v>1.77999</v>
+        <v>1.7759</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89233</v>
+        <v>4.87555</v>
       </c>
       <c r="C105" t="n">
-        <v>4.03485</v>
+        <v>3.85841</v>
       </c>
       <c r="D105" t="n">
-        <v>1.84713</v>
+        <v>1.8479</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.20132</v>
+        <v>5.17618</v>
       </c>
       <c r="C106" t="n">
-        <v>4.29517</v>
+        <v>4.09262</v>
       </c>
       <c r="D106" t="n">
-        <v>1.958</v>
+        <v>1.96902</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.52294</v>
+        <v>5.49481</v>
       </c>
       <c r="C107" t="n">
-        <v>4.56086</v>
+        <v>4.33677</v>
       </c>
       <c r="D107" t="n">
-        <v>2.06614</v>
+        <v>2.0665</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.84561</v>
+        <v>5.81723</v>
       </c>
       <c r="C108" t="n">
-        <v>4.84414</v>
+        <v>4.59704</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16603</v>
+        <v>2.1724</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.19551</v>
+        <v>6.16588</v>
       </c>
       <c r="C109" t="n">
-        <v>5.14746</v>
+        <v>4.89226</v>
       </c>
       <c r="D109" t="n">
-        <v>2.2755</v>
+        <v>2.28625</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.54375</v>
+        <v>6.51297</v>
       </c>
       <c r="C110" t="n">
-        <v>5.45371</v>
+        <v>5.18612</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39644</v>
+        <v>2.39778</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.91227</v>
+        <v>6.88219</v>
       </c>
       <c r="C111" t="n">
-        <v>3.1387</v>
+        <v>2.99007</v>
       </c>
       <c r="D111" t="n">
-        <v>1.66679</v>
+        <v>1.67106</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.09215</v>
+        <v>4.06137</v>
       </c>
       <c r="C112" t="n">
-        <v>3.31449</v>
+        <v>3.15795</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74262</v>
+        <v>1.7294</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.31455</v>
+        <v>4.28437</v>
       </c>
       <c r="C113" t="n">
-        <v>3.49818</v>
+        <v>3.32875</v>
       </c>
       <c r="D113" t="n">
-        <v>1.82642</v>
+        <v>1.81717</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.53218</v>
+        <v>4.51017</v>
       </c>
       <c r="C114" t="n">
-        <v>3.69314</v>
+        <v>3.51897</v>
       </c>
       <c r="D114" t="n">
-        <v>1.89684</v>
+        <v>1.90552</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.77906</v>
+        <v>4.75023</v>
       </c>
       <c r="C115" t="n">
-        <v>3.89989</v>
+        <v>3.6956</v>
       </c>
       <c r="D115" t="n">
-        <v>1.98035</v>
+        <v>1.97599</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.03561</v>
+        <v>5.00469</v>
       </c>
       <c r="C116" t="n">
-        <v>4.11957</v>
+        <v>3.90606</v>
       </c>
       <c r="D116" t="n">
-        <v>2.08022</v>
+        <v>2.06275</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.30496</v>
+        <v>5.27309</v>
       </c>
       <c r="C117" t="n">
-        <v>4.34945</v>
+        <v>4.12507</v>
       </c>
       <c r="D117" t="n">
-        <v>2.19287</v>
+        <v>2.1848</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.58626</v>
+        <v>5.56037</v>
       </c>
       <c r="C118" t="n">
-        <v>4.59067</v>
+        <v>4.34452</v>
       </c>
       <c r="D118" t="n">
-        <v>2.29076</v>
+        <v>2.28938</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.88618</v>
+        <v>5.85496</v>
       </c>
       <c r="C119" t="n">
-        <v>4.84622</v>
+        <v>4.58118</v>
       </c>
       <c r="D119" t="n">
-        <v>2.38261</v>
+        <v>2.37691</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399874</v>
+        <v>0.405354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.300193</v>
+        <v>0.3009</v>
       </c>
       <c r="D2" t="n">
-        <v>0.318982</v>
+        <v>0.320699</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413088</v>
+        <v>0.416632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.304888</v>
+        <v>0.306492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.326173</v>
+        <v>0.327259</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.424464</v>
+        <v>0.427656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312215</v>
+        <v>0.313303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.331136</v>
+        <v>0.332797</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.435075</v>
+        <v>0.438031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.317462</v>
+        <v>0.318102</v>
       </c>
       <c r="D5" t="n">
-        <v>0.337144</v>
+        <v>0.339311</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.448368</v>
+        <v>0.451506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.323717</v>
+        <v>0.324263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.344058</v>
+        <v>0.345122</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.458488</v>
+        <v>0.462418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.263383</v>
+        <v>0.264411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.288037</v>
+        <v>0.288178</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.344923</v>
+        <v>0.34797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.27156</v>
+        <v>0.273506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.296287</v>
+        <v>0.298199</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35633</v>
+        <v>0.361845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27758</v>
+        <v>0.279548</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302548</v>
+        <v>0.304194</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.367298</v>
+        <v>0.373405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.288788</v>
+        <v>0.290263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.313978</v>
+        <v>0.315612</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.383371</v>
+        <v>0.386586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.296411</v>
+        <v>0.297336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324136</v>
+        <v>0.324993</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.395122</v>
+        <v>0.396969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30742</v>
+        <v>0.308951</v>
       </c>
       <c r="D12" t="n">
-        <v>0.332684</v>
+        <v>0.334462</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.409444</v>
+        <v>0.410206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.314698</v>
+        <v>0.317219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.341691</v>
+        <v>0.344429</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.420095</v>
+        <v>0.422327</v>
       </c>
       <c r="C14" t="n">
-        <v>0.324494</v>
+        <v>0.325287</v>
       </c>
       <c r="D14" t="n">
-        <v>0.351851</v>
+        <v>0.353569</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.432713</v>
+        <v>0.434433</v>
       </c>
       <c r="C15" t="n">
-        <v>0.330069</v>
+        <v>0.330517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.360509</v>
+        <v>0.361634</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.444469</v>
+        <v>0.446306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.337561</v>
+        <v>0.338337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.372443</v>
+        <v>0.372803</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456455</v>
+        <v>0.457956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.343449</v>
+        <v>0.343983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.379386</v>
+        <v>0.379934</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.468193</v>
+        <v>0.470264</v>
       </c>
       <c r="C18" t="n">
-        <v>0.350313</v>
+        <v>0.350258</v>
       </c>
       <c r="D18" t="n">
-        <v>0.389126</v>
+        <v>0.387701</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.481552</v>
+        <v>0.483526</v>
       </c>
       <c r="C19" t="n">
-        <v>0.356397</v>
+        <v>0.357068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.395893</v>
+        <v>0.3961</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.492522</v>
+        <v>0.494493</v>
       </c>
       <c r="C20" t="n">
-        <v>0.364077</v>
+        <v>0.365051</v>
       </c>
       <c r="D20" t="n">
-        <v>0.404585</v>
+        <v>0.405184</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.506397</v>
+        <v>0.5078859999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.289707</v>
+        <v>0.29166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.313002</v>
+        <v>0.317249</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.392556</v>
+        <v>0.39344</v>
       </c>
       <c r="C22" t="n">
-        <v>0.297752</v>
+        <v>0.299233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323637</v>
+        <v>0.326217</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40497</v>
+        <v>0.405729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.305668</v>
+        <v>0.307161</v>
       </c>
       <c r="D23" t="n">
-        <v>0.334554</v>
+        <v>0.335804</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.414803</v>
+        <v>0.414816</v>
       </c>
       <c r="C24" t="n">
-        <v>0.313926</v>
+        <v>0.315501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.342995</v>
+        <v>0.344995</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.425739</v>
+        <v>0.426567</v>
       </c>
       <c r="C25" t="n">
-        <v>0.32294</v>
+        <v>0.324498</v>
       </c>
       <c r="D25" t="n">
-        <v>0.353503</v>
+        <v>0.355665</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.436508</v>
+        <v>0.437408</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331446</v>
+        <v>0.333203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364771</v>
+        <v>0.366582</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449759</v>
+        <v>0.451725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.339117</v>
+        <v>0.340606</v>
       </c>
       <c r="D27" t="n">
-        <v>0.37577</v>
+        <v>0.377683</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.461873</v>
+        <v>0.462723</v>
       </c>
       <c r="C28" t="n">
-        <v>0.346811</v>
+        <v>0.348462</v>
       </c>
       <c r="D28" t="n">
-        <v>0.385013</v>
+        <v>0.387272</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.473837</v>
+        <v>0.474815</v>
       </c>
       <c r="C29" t="n">
-        <v>0.354216</v>
+        <v>0.356397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396762</v>
+        <v>0.398465</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.485225</v>
+        <v>0.486357</v>
       </c>
       <c r="C30" t="n">
-        <v>0.36168</v>
+        <v>0.363214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405413</v>
+        <v>0.407517</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495428</v>
+        <v>0.495973</v>
       </c>
       <c r="C31" t="n">
-        <v>0.367897</v>
+        <v>0.369361</v>
       </c>
       <c r="D31" t="n">
-        <v>0.414738</v>
+        <v>0.418067</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507076</v>
+        <v>0.507924</v>
       </c>
       <c r="C32" t="n">
-        <v>0.376277</v>
+        <v>0.377503</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424726</v>
+        <v>0.426531</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518151</v>
+        <v>0.519064</v>
       </c>
       <c r="C33" t="n">
-        <v>0.382844</v>
+        <v>0.384548</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433901</v>
+        <v>0.435279</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.529695</v>
+        <v>0.530915</v>
       </c>
       <c r="C34" t="n">
-        <v>0.390359</v>
+        <v>0.392019</v>
       </c>
       <c r="D34" t="n">
-        <v>0.444588</v>
+        <v>0.444727</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.541526</v>
+        <v>0.542466</v>
       </c>
       <c r="C35" t="n">
-        <v>0.305426</v>
+        <v>0.306078</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338422</v>
+        <v>0.338957</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.411951</v>
+        <v>0.412365</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313804</v>
+        <v>0.314531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348297</v>
+        <v>0.349243</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.423331</v>
+        <v>0.423711</v>
       </c>
       <c r="C37" t="n">
-        <v>0.321167</v>
+        <v>0.322043</v>
       </c>
       <c r="D37" t="n">
-        <v>0.357437</v>
+        <v>0.358664</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433577</v>
+        <v>0.43414</v>
       </c>
       <c r="C38" t="n">
-        <v>0.330219</v>
+        <v>0.330913</v>
       </c>
       <c r="D38" t="n">
-        <v>0.36866</v>
+        <v>0.369609</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444601</v>
+        <v>0.445231</v>
       </c>
       <c r="C39" t="n">
-        <v>0.338906</v>
+        <v>0.339383</v>
       </c>
       <c r="D39" t="n">
-        <v>0.379014</v>
+        <v>0.38009</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.455964</v>
+        <v>0.456834</v>
       </c>
       <c r="C40" t="n">
-        <v>0.347145</v>
+        <v>0.347807</v>
       </c>
       <c r="D40" t="n">
-        <v>0.38986</v>
+        <v>0.390737</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.469771</v>
+        <v>0.471229</v>
       </c>
       <c r="C41" t="n">
-        <v>0.356883</v>
+        <v>0.35719</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401523</v>
+        <v>0.401644</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.479559</v>
+        <v>0.480449</v>
       </c>
       <c r="C42" t="n">
-        <v>0.363899</v>
+        <v>0.364587</v>
       </c>
       <c r="D42" t="n">
-        <v>0.410565</v>
+        <v>0.411237</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.491384</v>
+        <v>0.492065</v>
       </c>
       <c r="C43" t="n">
-        <v>0.371346</v>
+        <v>0.372001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421222</v>
+        <v>0.421866</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.502764</v>
+        <v>0.503362</v>
       </c>
       <c r="C44" t="n">
-        <v>0.378802</v>
+        <v>0.379243</v>
       </c>
       <c r="D44" t="n">
-        <v>0.43088</v>
+        <v>0.431446</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.513962</v>
+        <v>0.514742</v>
       </c>
       <c r="C45" t="n">
-        <v>0.385367</v>
+        <v>0.386079</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440574</v>
+        <v>0.440869</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.524149</v>
+        <v>0.524941</v>
       </c>
       <c r="C46" t="n">
-        <v>0.391739</v>
+        <v>0.392227</v>
       </c>
       <c r="D46" t="n">
-        <v>0.449273</v>
+        <v>0.449652</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.53617</v>
+        <v>0.536959</v>
       </c>
       <c r="C47" t="n">
-        <v>0.398234</v>
+        <v>0.39862</v>
       </c>
       <c r="D47" t="n">
-        <v>0.458097</v>
+        <v>0.458423</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.54758</v>
+        <v>0.551096</v>
       </c>
       <c r="C48" t="n">
-        <v>0.405147</v>
+        <v>0.405751</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466898</v>
+        <v>0.467614</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5629110000000001</v>
+        <v>0.562548</v>
       </c>
       <c r="C49" t="n">
-        <v>0.411941</v>
+        <v>0.412574</v>
       </c>
       <c r="D49" t="n">
-        <v>0.475814</v>
+        <v>0.476168</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.570451</v>
+        <v>0.573806</v>
       </c>
       <c r="C50" t="n">
-        <v>0.32081</v>
+        <v>0.321809</v>
       </c>
       <c r="D50" t="n">
-        <v>0.348486</v>
+        <v>0.348369</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430237</v>
+        <v>0.430805</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329074</v>
+        <v>0.329301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.358856</v>
+        <v>0.359025</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441611</v>
+        <v>0.441889</v>
       </c>
       <c r="C52" t="n">
-        <v>0.337751</v>
+        <v>0.338206</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370149</v>
+        <v>0.370387</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.453134</v>
+        <v>0.453393</v>
       </c>
       <c r="C53" t="n">
-        <v>0.346295</v>
+        <v>0.34682</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381299</v>
+        <v>0.381687</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.46451</v>
+        <v>0.465033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.354986</v>
+        <v>0.355283</v>
       </c>
       <c r="D54" t="n">
-        <v>0.392158</v>
+        <v>0.392362</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.478627</v>
+        <v>0.479186</v>
       </c>
       <c r="C55" t="n">
-        <v>0.363793</v>
+        <v>0.363937</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403955</v>
+        <v>0.404096</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.488379</v>
+        <v>0.489014</v>
       </c>
       <c r="C56" t="n">
-        <v>0.371947</v>
+        <v>0.37245</v>
       </c>
       <c r="D56" t="n">
-        <v>0.415137</v>
+        <v>0.415302</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499386</v>
+        <v>0.499987</v>
       </c>
       <c r="C57" t="n">
-        <v>0.379203</v>
+        <v>0.379573</v>
       </c>
       <c r="D57" t="n">
-        <v>0.42444</v>
+        <v>0.424699</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.510412</v>
+        <v>0.510989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.385972</v>
+        <v>0.386198</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433617</v>
+        <v>0.433442</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.521154</v>
+        <v>0.521527</v>
       </c>
       <c r="C59" t="n">
-        <v>0.392892</v>
+        <v>0.392984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442548</v>
+        <v>0.442576</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.531852</v>
+        <v>0.532561</v>
       </c>
       <c r="C60" t="n">
-        <v>0.399071</v>
+        <v>0.399308</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452007</v>
+        <v>0.452025</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.54296</v>
+        <v>0.54378</v>
       </c>
       <c r="C61" t="n">
-        <v>0.405529</v>
+        <v>0.406009</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460648</v>
+        <v>0.460873</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.558877</v>
+        <v>0.5566719999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.412434</v>
+        <v>0.41283</v>
       </c>
       <c r="D62" t="n">
-        <v>0.469275</v>
+        <v>0.469701</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.567049</v>
+        <v>0.5681659999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.419739</v>
+        <v>0.419947</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478793</v>
+        <v>0.479076</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.58014</v>
+        <v>0.5815709999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.333714</v>
+        <v>0.335345</v>
       </c>
       <c r="D64" t="n">
-        <v>0.36751</v>
+        <v>0.368227</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.461904</v>
+        <v>0.46496</v>
       </c>
       <c r="C65" t="n">
-        <v>0.342897</v>
+        <v>0.343923</v>
       </c>
       <c r="D65" t="n">
-        <v>0.380102</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.476452</v>
+        <v>0.479572</v>
       </c>
       <c r="C66" t="n">
-        <v>0.353214</v>
+        <v>0.35387</v>
       </c>
       <c r="D66" t="n">
-        <v>0.392684</v>
+        <v>0.393834</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.488381</v>
+        <v>0.494561</v>
       </c>
       <c r="C67" t="n">
-        <v>0.363881</v>
+        <v>0.364264</v>
       </c>
       <c r="D67" t="n">
-        <v>0.405678</v>
+        <v>0.40597</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.507949</v>
+        <v>0.514042</v>
       </c>
       <c r="C68" t="n">
-        <v>0.374995</v>
+        <v>0.376247</v>
       </c>
       <c r="D68" t="n">
-        <v>0.420591</v>
+        <v>0.421386</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.533543</v>
+        <v>0.536043</v>
       </c>
       <c r="C69" t="n">
-        <v>0.387748</v>
+        <v>0.388955</v>
       </c>
       <c r="D69" t="n">
-        <v>0.436859</v>
+        <v>0.438572</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.554848</v>
+        <v>0.550833</v>
       </c>
       <c r="C70" t="n">
-        <v>0.399281</v>
+        <v>0.402216</v>
       </c>
       <c r="D70" t="n">
-        <v>0.454736</v>
+        <v>0.456194</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.570211</v>
+        <v>0.580212</v>
       </c>
       <c r="C71" t="n">
-        <v>0.410906</v>
+        <v>0.415718</v>
       </c>
       <c r="D71" t="n">
-        <v>0.46906</v>
+        <v>0.473102</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.599293</v>
+        <v>0.60232</v>
       </c>
       <c r="C72" t="n">
-        <v>0.427439</v>
+        <v>0.428337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.487322</v>
+        <v>0.488863</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627676</v>
+        <v>0.628565</v>
       </c>
       <c r="C73" t="n">
-        <v>0.441533</v>
+        <v>0.442103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.506325</v>
+        <v>0.506815</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.663289</v>
+        <v>0.657957</v>
       </c>
       <c r="C74" t="n">
-        <v>0.460415</v>
+        <v>0.459323</v>
       </c>
       <c r="D74" t="n">
-        <v>0.528795</v>
+        <v>0.527691</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.702759</v>
+        <v>0.692576</v>
       </c>
       <c r="C75" t="n">
-        <v>0.481061</v>
+        <v>0.477575</v>
       </c>
       <c r="D75" t="n">
-        <v>0.553185</v>
+        <v>0.549671</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.740066</v>
+        <v>0.730109</v>
       </c>
       <c r="C76" t="n">
-        <v>0.501782</v>
+        <v>0.499022</v>
       </c>
       <c r="D76" t="n">
-        <v>0.580149</v>
+        <v>0.576742</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.783899</v>
+        <v>0.777991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526489</v>
+        <v>0.525029</v>
       </c>
       <c r="D77" t="n">
-        <v>0.609757</v>
+        <v>0.604559</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.828496</v>
+        <v>0.826924</v>
       </c>
       <c r="C78" t="n">
-        <v>0.465897</v>
+        <v>0.4583</v>
       </c>
       <c r="D78" t="n">
-        <v>0.518948</v>
+        <v>0.51416</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.813167</v>
+        <v>0.8096410000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.491472</v>
+        <v>0.483183</v>
       </c>
       <c r="D79" t="n">
-        <v>0.553973</v>
+        <v>0.548585</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.858526</v>
+        <v>0.853264</v>
       </c>
       <c r="C80" t="n">
-        <v>0.521963</v>
+        <v>0.512921</v>
       </c>
       <c r="D80" t="n">
-        <v>0.582554</v>
+        <v>0.580929</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.906006</v>
+        <v>0.899802</v>
       </c>
       <c r="C81" t="n">
-        <v>0.550252</v>
+        <v>0.543679</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613421</v>
+        <v>0.609755</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.952196</v>
+        <v>0.94856</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5792350000000001</v>
+        <v>0.576545</v>
       </c>
       <c r="D82" t="n">
-        <v>0.645417</v>
+        <v>0.642323</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00467</v>
+        <v>1.00077</v>
       </c>
       <c r="C83" t="n">
-        <v>0.611804</v>
+        <v>0.609878</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6814789999999999</v>
+        <v>0.680007</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05681</v>
+        <v>1.05282</v>
       </c>
       <c r="C84" t="n">
-        <v>0.646199</v>
+        <v>0.644882</v>
       </c>
       <c r="D84" t="n">
-        <v>0.725832</v>
+        <v>0.723618</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.11457</v>
+        <v>1.10782</v>
       </c>
       <c r="C85" t="n">
-        <v>0.682773</v>
+        <v>0.677907</v>
       </c>
       <c r="D85" t="n">
-        <v>0.765039</v>
+        <v>0.762588</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.17236</v>
+        <v>1.16272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.71953</v>
+        <v>0.714719</v>
       </c>
       <c r="D86" t="n">
-        <v>0.808573</v>
+        <v>0.803662</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.22922</v>
+        <v>1.2211</v>
       </c>
       <c r="C87" t="n">
-        <v>0.756711</v>
+        <v>0.752815</v>
       </c>
       <c r="D87" t="n">
-        <v>0.844866</v>
+        <v>0.840187</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.29028</v>
+        <v>1.28076</v>
       </c>
       <c r="C88" t="n">
-        <v>0.79526</v>
+        <v>0.7914</v>
       </c>
       <c r="D88" t="n">
-        <v>0.885439</v>
+        <v>0.881688</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.35248</v>
+        <v>1.34045</v>
       </c>
       <c r="C89" t="n">
-        <v>0.835792</v>
+        <v>0.829973</v>
       </c>
       <c r="D89" t="n">
-        <v>0.928849</v>
+        <v>0.923663</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.41897</v>
+        <v>1.40491</v>
       </c>
       <c r="C90" t="n">
-        <v>0.87751</v>
+        <v>0.870726</v>
       </c>
       <c r="D90" t="n">
-        <v>0.973584</v>
+        <v>0.967291</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.4865</v>
+        <v>1.47127</v>
       </c>
       <c r="C91" t="n">
-        <v>0.920527</v>
+        <v>0.913288</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01988</v>
+        <v>1.01218</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.55555</v>
+        <v>1.54095</v>
       </c>
       <c r="C92" t="n">
-        <v>0.796867</v>
+        <v>0.792928</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9070780000000001</v>
+        <v>0.904323</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.36631</v>
+        <v>1.35464</v>
       </c>
       <c r="C93" t="n">
-        <v>0.825014</v>
+        <v>0.8205789999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.951981</v>
+        <v>0.94808</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.40705</v>
+        <v>1.39266</v>
       </c>
       <c r="C94" t="n">
-        <v>0.853725</v>
+        <v>0.849866</v>
       </c>
       <c r="D94" t="n">
-        <v>0.98424</v>
+        <v>0.979392</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.44702</v>
+        <v>1.43305</v>
       </c>
       <c r="C95" t="n">
-        <v>0.884943</v>
+        <v>0.880009</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0101</v>
+        <v>1.00589</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.49048</v>
+        <v>1.47416</v>
       </c>
       <c r="C96" t="n">
-        <v>0.916793</v>
+        <v>0.911723</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04284</v>
+        <v>1.03871</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.53363</v>
+        <v>1.51705</v>
       </c>
       <c r="C97" t="n">
-        <v>0.950095</v>
+        <v>0.944481</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10447</v>
+        <v>1.0989</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.57994</v>
+        <v>1.56288</v>
       </c>
       <c r="C98" t="n">
-        <v>0.983568</v>
+        <v>0.9779679999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>1.13334</v>
+        <v>1.12772</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.62805</v>
+        <v>1.61061</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01805</v>
+        <v>1.01159</v>
       </c>
       <c r="D99" t="n">
-        <v>1.1774</v>
+        <v>1.17055</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.677</v>
+        <v>1.65969</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05338</v>
+        <v>1.04681</v>
       </c>
       <c r="D100" t="n">
-        <v>1.22671</v>
+        <v>1.21681</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72748</v>
+        <v>1.70917</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08922</v>
+        <v>1.08291</v>
       </c>
       <c r="D101" t="n">
-        <v>1.27121</v>
+        <v>1.26174</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.78252</v>
+        <v>1.76318</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12712</v>
+        <v>1.12054</v>
       </c>
       <c r="D102" t="n">
-        <v>1.31485</v>
+        <v>1.306</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.83861</v>
+        <v>1.81908</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16556</v>
+        <v>1.15809</v>
       </c>
       <c r="D103" t="n">
-        <v>1.36296</v>
+        <v>1.35342</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.89617</v>
+        <v>1.87892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.20502</v>
+        <v>1.19869</v>
       </c>
       <c r="D104" t="n">
-        <v>1.41256</v>
+        <v>1.40248</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.9616</v>
+        <v>1.94149</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2467</v>
+        <v>1.23933</v>
       </c>
       <c r="D105" t="n">
-        <v>1.46451</v>
+        <v>1.45306</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.02813</v>
+        <v>2.00875</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29059</v>
+        <v>1.28323</v>
       </c>
       <c r="D106" t="n">
-        <v>1.51769</v>
+        <v>1.50453</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.66958</v>
+        <v>1.64299</v>
       </c>
       <c r="C107" t="n">
-        <v>1.05162</v>
+        <v>1.04343</v>
       </c>
       <c r="D107" t="n">
-        <v>1.27861</v>
+        <v>1.26534</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.69959</v>
+        <v>1.67721</v>
       </c>
       <c r="C108" t="n">
-        <v>1.07729</v>
+        <v>1.06907</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31293</v>
+        <v>1.29827</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.73665</v>
+        <v>1.71335</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10714</v>
+        <v>1.09693</v>
       </c>
       <c r="D109" t="n">
-        <v>1.36193</v>
+        <v>1.34548</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.77537</v>
+        <v>1.74837</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13597</v>
+        <v>1.12551</v>
       </c>
       <c r="D110" t="n">
-        <v>1.40303</v>
+        <v>1.38258</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.81118</v>
+        <v>1.78721</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16394</v>
+        <v>1.15622</v>
       </c>
       <c r="D111" t="n">
-        <v>1.42879</v>
+        <v>1.41117</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.85194</v>
+        <v>1.83122</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19797</v>
+        <v>1.18567</v>
       </c>
       <c r="D112" t="n">
-        <v>1.47594</v>
+        <v>1.45567</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.894</v>
+        <v>1.87163</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22868</v>
+        <v>1.21811</v>
       </c>
       <c r="D113" t="n">
-        <v>1.51847</v>
+        <v>1.49722</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.943</v>
+        <v>1.91944</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26043</v>
+        <v>1.24975</v>
       </c>
       <c r="D114" t="n">
-        <v>1.55205</v>
+        <v>1.53256</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.98914</v>
+        <v>1.96641</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29683</v>
+        <v>1.28743</v>
       </c>
       <c r="D115" t="n">
-        <v>1.60501</v>
+        <v>1.5875</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.04096</v>
+        <v>2.01601</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33041</v>
+        <v>1.32188</v>
       </c>
       <c r="D116" t="n">
-        <v>1.65073</v>
+        <v>1.63195</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.09557</v>
+        <v>2.07073</v>
       </c>
       <c r="C117" t="n">
-        <v>1.36512</v>
+        <v>1.35699</v>
       </c>
       <c r="D117" t="n">
-        <v>1.69651</v>
+        <v>1.67816</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.1513</v>
+        <v>2.12667</v>
       </c>
       <c r="C118" t="n">
-        <v>1.40727</v>
+        <v>1.39703</v>
       </c>
       <c r="D118" t="n">
-        <v>1.74235</v>
+        <v>1.72111</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.20822</v>
+        <v>2.18291</v>
       </c>
       <c r="C119" t="n">
-        <v>1.44178</v>
+        <v>1.43591</v>
       </c>
       <c r="D119" t="n">
-        <v>1.79088</v>
+        <v>1.76914</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.288123</v>
+        <v>0.284686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21329</v>
+        <v>0.212944</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182743</v>
+        <v>0.182242</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295033</v>
+        <v>0.293742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21911</v>
+        <v>0.217011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.184652</v>
+        <v>0.18475</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.301868</v>
+        <v>0.304003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223918</v>
+        <v>0.225416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.187</v>
+        <v>0.186743</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.312217</v>
+        <v>0.311266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231919</v>
+        <v>0.229941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.191283</v>
+        <v>0.190234</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.324578</v>
+        <v>0.322019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239775</v>
+        <v>0.23705</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193535</v>
+        <v>0.191785</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.336332</v>
+        <v>0.335873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200079</v>
+        <v>0.197566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.179628</v>
+        <v>0.17663</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.259115</v>
+        <v>0.254156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204029</v>
+        <v>0.200742</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181098</v>
+        <v>0.177985</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261907</v>
+        <v>0.257884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215448</v>
+        <v>0.20809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.186899</v>
+        <v>0.182488</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.273584</v>
+        <v>0.268747</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220737</v>
+        <v>0.212805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189134</v>
+        <v>0.184512</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.279042</v>
+        <v>0.275761</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222853</v>
+        <v>0.218599</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191603</v>
+        <v>0.187055</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286605</v>
+        <v>0.284411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227768</v>
+        <v>0.225019</v>
       </c>
       <c r="D12" t="n">
-        <v>0.195316</v>
+        <v>0.189811</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.284264</v>
+        <v>0.293868</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235837</v>
+        <v>0.232969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198881</v>
+        <v>0.192948</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.303406</v>
+        <v>0.302581</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2412</v>
+        <v>0.240961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.199497</v>
+        <v>0.196247</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.307934</v>
+        <v>0.310295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245632</v>
+        <v>0.247414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.204344</v>
+        <v>0.201635</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.317064</v>
+        <v>0.320902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.254168</v>
+        <v>0.25755</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206562</v>
+        <v>0.205779</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.329002</v>
+        <v>0.332901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.260194</v>
+        <v>0.264123</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210748</v>
+        <v>0.208846</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338626</v>
+        <v>0.343232</v>
       </c>
       <c r="C18" t="n">
-        <v>0.269541</v>
+        <v>0.27272</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207391</v>
+        <v>0.213122</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.349079</v>
+        <v>0.353248</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278166</v>
+        <v>0.281839</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219003</v>
+        <v>0.218593</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.364507</v>
+        <v>0.368003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.290533</v>
+        <v>0.293474</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222366</v>
+        <v>0.223499</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378034</v>
+        <v>0.381121</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237655</v>
+        <v>0.239096</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204597</v>
+        <v>0.206337</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294274</v>
+        <v>0.295815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.243449</v>
+        <v>0.245268</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206623</v>
+        <v>0.208592</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301586</v>
+        <v>0.302739</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249991</v>
+        <v>0.250829</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210601</v>
+        <v>0.212216</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309144</v>
+        <v>0.310282</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254742</v>
+        <v>0.256042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214041</v>
+        <v>0.215336</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.316672</v>
+        <v>0.317739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.261817</v>
+        <v>0.262597</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217422</v>
+        <v>0.218509</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325131</v>
+        <v>0.326651</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268778</v>
+        <v>0.269394</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221274</v>
+        <v>0.222887</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327846</v>
+        <v>0.333309</v>
       </c>
       <c r="C27" t="n">
-        <v>0.273572</v>
+        <v>0.274134</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224273</v>
+        <v>0.22609</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.341229</v>
+        <v>0.342637</v>
       </c>
       <c r="C28" t="n">
-        <v>0.280165</v>
+        <v>0.281229</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228416</v>
+        <v>0.229511</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.351258</v>
+        <v>0.352968</v>
       </c>
       <c r="C29" t="n">
-        <v>0.287107</v>
+        <v>0.287916</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232318</v>
+        <v>0.233577</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.359966</v>
+        <v>0.362501</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294881</v>
+        <v>0.296253</v>
       </c>
       <c r="D30" t="n">
-        <v>0.235999</v>
+        <v>0.23751</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.370413</v>
+        <v>0.37305</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301197</v>
+        <v>0.302789</v>
       </c>
       <c r="D31" t="n">
-        <v>0.239843</v>
+        <v>0.241859</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.380083</v>
+        <v>0.382973</v>
       </c>
       <c r="C32" t="n">
-        <v>0.310973</v>
+        <v>0.312494</v>
       </c>
       <c r="D32" t="n">
-        <v>0.244866</v>
+        <v>0.24675</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.393309</v>
+        <v>0.396509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.319339</v>
+        <v>0.32086</v>
       </c>
       <c r="D33" t="n">
-        <v>0.248049</v>
+        <v>0.252076</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.406173</v>
+        <v>0.408732</v>
       </c>
       <c r="C34" t="n">
-        <v>0.329599</v>
+        <v>0.331518</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253898</v>
+        <v>0.257516</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418673</v>
+        <v>0.421324</v>
       </c>
       <c r="C35" t="n">
-        <v>0.255788</v>
+        <v>0.25657</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22681</v>
+        <v>0.227379</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315082</v>
+        <v>0.316332</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262819</v>
+        <v>0.2636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230234</v>
+        <v>0.230982</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321759</v>
+        <v>0.32267</v>
       </c>
       <c r="C37" t="n">
-        <v>0.267738</v>
+        <v>0.26849</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233202</v>
+        <v>0.233806</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330035</v>
+        <v>0.331034</v>
       </c>
       <c r="C38" t="n">
-        <v>0.274998</v>
+        <v>0.275542</v>
       </c>
       <c r="D38" t="n">
-        <v>0.236699</v>
+        <v>0.237284</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335736</v>
+        <v>0.336706</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280518</v>
+        <v>0.281101</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240441</v>
+        <v>0.240758</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345212</v>
+        <v>0.346601</v>
       </c>
       <c r="C40" t="n">
-        <v>0.286597</v>
+        <v>0.287614</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244509</v>
+        <v>0.245089</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.352888</v>
+        <v>0.353837</v>
       </c>
       <c r="C41" t="n">
-        <v>0.293025</v>
+        <v>0.293996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247338</v>
+        <v>0.24796</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.360799</v>
+        <v>0.361711</v>
       </c>
       <c r="C42" t="n">
-        <v>0.298284</v>
+        <v>0.299171</v>
       </c>
       <c r="D42" t="n">
-        <v>0.250673</v>
+        <v>0.251276</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.369736</v>
+        <v>0.370848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.305764</v>
+        <v>0.306641</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254353</v>
+        <v>0.254976</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.37961</v>
+        <v>0.380705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313605</v>
+        <v>0.314558</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259048</v>
+        <v>0.259279</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391389</v>
+        <v>0.392356</v>
       </c>
       <c r="C45" t="n">
-        <v>0.321857</v>
+        <v>0.322683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.262287</v>
+        <v>0.264567</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.401768</v>
+        <v>0.402903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.330305</v>
+        <v>0.3313</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266825</v>
+        <v>0.267797</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.411984</v>
+        <v>0.413095</v>
       </c>
       <c r="C47" t="n">
-        <v>0.338098</v>
+        <v>0.339055</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273342</v>
+        <v>0.273794</v>
       </c>
     </row>
     <row r="48">
@@ -10016,10 +10016,10 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.423789</v>
+        <v>0.424909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.347304</v>
+        <v>0.348186</v>
       </c>
       <c r="D48" t="n">
         <v>0.278796</v>
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.434378</v>
+        <v>0.435143</v>
       </c>
       <c r="C49" t="n">
-        <v>0.357081</v>
+        <v>0.357688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.283081</v>
+        <v>0.283902</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449039</v>
+        <v>0.449772</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270569</v>
+        <v>0.270956</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23129</v>
+        <v>0.231768</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333283</v>
+        <v>0.334199</v>
       </c>
       <c r="C51" t="n">
-        <v>0.276421</v>
+        <v>0.27687</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234346</v>
+        <v>0.234649</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340275</v>
+        <v>0.341204</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282164</v>
+        <v>0.282717</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237777</v>
+        <v>0.238174</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346851</v>
+        <v>0.347782</v>
       </c>
       <c r="C53" t="n">
-        <v>0.288939</v>
+        <v>0.289726</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241805</v>
+        <v>0.242315</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.355334</v>
+        <v>0.356147</v>
       </c>
       <c r="C54" t="n">
-        <v>0.295066</v>
+        <v>0.295735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245303</v>
+        <v>0.245732</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.363826</v>
+        <v>0.364725</v>
       </c>
       <c r="C55" t="n">
-        <v>0.302259</v>
+        <v>0.303195</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249783</v>
+        <v>0.250341</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3736</v>
+        <v>0.374112</v>
       </c>
       <c r="C56" t="n">
-        <v>0.307571</v>
+        <v>0.308473</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253441</v>
+        <v>0.254095</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.382324</v>
+        <v>0.383493</v>
       </c>
       <c r="C57" t="n">
-        <v>0.315351</v>
+        <v>0.316366</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257423</v>
+        <v>0.25833</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.392062</v>
+        <v>0.39331</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323271</v>
+        <v>0.324358</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263366</v>
+        <v>0.264034</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403854</v>
+        <v>0.405062</v>
       </c>
       <c r="C59" t="n">
-        <v>0.329578</v>
+        <v>0.330805</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266513</v>
+        <v>0.267106</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.413077</v>
+        <v>0.414249</v>
       </c>
       <c r="C60" t="n">
-        <v>0.337715</v>
+        <v>0.338593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270722</v>
+        <v>0.271512</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424098</v>
+        <v>0.425361</v>
       </c>
       <c r="C61" t="n">
-        <v>0.347219</v>
+        <v>0.348454</v>
       </c>
       <c r="D61" t="n">
-        <v>0.276121</v>
+        <v>0.27656</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.434728</v>
+        <v>0.43604</v>
       </c>
       <c r="C62" t="n">
-        <v>0.355667</v>
+        <v>0.356745</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280834</v>
+        <v>0.281431</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.446782</v>
+        <v>0.447754</v>
       </c>
       <c r="C63" t="n">
-        <v>0.365854</v>
+        <v>0.366806</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287205</v>
+        <v>0.287822</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.460876</v>
+        <v>0.460521</v>
       </c>
       <c r="C64" t="n">
-        <v>0.288185</v>
+        <v>0.292112</v>
       </c>
       <c r="D64" t="n">
-        <v>0.246414</v>
+        <v>0.248175</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.356945</v>
+        <v>0.366147</v>
       </c>
       <c r="C65" t="n">
-        <v>0.296724</v>
+        <v>0.29887</v>
       </c>
       <c r="D65" t="n">
-        <v>0.248034</v>
+        <v>0.249272</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.371254</v>
+        <v>0.378611</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307797</v>
+        <v>0.309193</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254483</v>
+        <v>0.255318</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388055</v>
+        <v>0.391272</v>
       </c>
       <c r="C67" t="n">
-        <v>0.317336</v>
+        <v>0.319467</v>
       </c>
       <c r="D67" t="n">
-        <v>0.259832</v>
+        <v>0.261065</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399639</v>
+        <v>0.407303</v>
       </c>
       <c r="C68" t="n">
-        <v>0.32804</v>
+        <v>0.328914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266773</v>
+        <v>0.267358</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.413588</v>
+        <v>0.420912</v>
       </c>
       <c r="C69" t="n">
-        <v>0.340641</v>
+        <v>0.34413</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270828</v>
+        <v>0.272032</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.434997</v>
+        <v>0.437075</v>
       </c>
       <c r="C70" t="n">
-        <v>0.354063</v>
+        <v>0.355685</v>
       </c>
       <c r="D70" t="n">
-        <v>0.278221</v>
+        <v>0.277601</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453216</v>
+        <v>0.457603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366445</v>
+        <v>0.368086</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284499</v>
+        <v>0.28658</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.472505</v>
+        <v>0.479037</v>
       </c>
       <c r="C72" t="n">
-        <v>0.38137</v>
+        <v>0.384931</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291433</v>
+        <v>0.293244</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5001</v>
+        <v>0.507467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.401612</v>
+        <v>0.405289</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300601</v>
+        <v>0.30119</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.526027</v>
+        <v>0.531821</v>
       </c>
       <c r="C74" t="n">
-        <v>0.422273</v>
+        <v>0.423469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.310435</v>
+        <v>0.311891</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.558796</v>
+        <v>0.562258</v>
       </c>
       <c r="C75" t="n">
-        <v>0.447234</v>
+        <v>0.446659</v>
       </c>
       <c r="D75" t="n">
-        <v>0.319801</v>
+        <v>0.321785</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.599898</v>
+        <v>0.596561</v>
       </c>
       <c r="C76" t="n">
-        <v>0.480111</v>
+        <v>0.475356</v>
       </c>
       <c r="D76" t="n">
-        <v>0.335951</v>
+        <v>0.333856</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.645018</v>
+        <v>0.6366810000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.510908</v>
+        <v>0.504404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.351369</v>
+        <v>0.345909</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.690962</v>
+        <v>0.684458</v>
       </c>
       <c r="C78" t="n">
-        <v>0.464188</v>
+        <v>0.452635</v>
       </c>
       <c r="D78" t="n">
-        <v>0.319437</v>
+        <v>0.313207</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.632232</v>
+        <v>0.6268550000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.489618</v>
+        <v>0.479938</v>
       </c>
       <c r="D79" t="n">
-        <v>0.333473</v>
+        <v>0.325881</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.672435</v>
+        <v>0.665543</v>
       </c>
       <c r="C80" t="n">
-        <v>0.515857</v>
+        <v>0.507966</v>
       </c>
       <c r="D80" t="n">
-        <v>0.346877</v>
+        <v>0.338402</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.714792</v>
+        <v>0.708485</v>
       </c>
       <c r="C81" t="n">
-        <v>0.55343</v>
+        <v>0.547997</v>
       </c>
       <c r="D81" t="n">
-        <v>0.360631</v>
+        <v>0.355594</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.760852</v>
+        <v>0.759257</v>
       </c>
       <c r="C82" t="n">
-        <v>0.588331</v>
+        <v>0.583321</v>
       </c>
       <c r="D82" t="n">
-        <v>0.378564</v>
+        <v>0.37458</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.813961</v>
+        <v>0.810455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6261060000000001</v>
+        <v>0.623352</v>
       </c>
       <c r="D83" t="n">
-        <v>0.397073</v>
+        <v>0.390532</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.870189</v>
+        <v>0.868944</v>
       </c>
       <c r="C84" t="n">
-        <v>0.667666</v>
+        <v>0.6664369999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41749</v>
+        <v>0.412572</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.927935</v>
+        <v>0.923688</v>
       </c>
       <c r="C85" t="n">
-        <v>0.709857</v>
+        <v>0.7085090000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.442504</v>
+        <v>0.436788</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.986161</v>
+        <v>0.984618</v>
       </c>
       <c r="C86" t="n">
-        <v>0.756232</v>
+        <v>0.753952</v>
       </c>
       <c r="D86" t="n">
-        <v>0.469384</v>
+        <v>0.465225</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05027</v>
+        <v>1.04787</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8103089999999999</v>
+        <v>0.807882</v>
       </c>
       <c r="D87" t="n">
-        <v>0.493068</v>
+        <v>0.490296</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11991</v>
+        <v>1.11501</v>
       </c>
       <c r="C88" t="n">
-        <v>0.861129</v>
+        <v>0.859286</v>
       </c>
       <c r="D88" t="n">
-        <v>0.518443</v>
+        <v>0.517151</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18906</v>
+        <v>1.18835</v>
       </c>
       <c r="C89" t="n">
-        <v>0.916299</v>
+        <v>0.915611</v>
       </c>
       <c r="D89" t="n">
-        <v>0.549917</v>
+        <v>0.548613</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.26484</v>
+        <v>1.26248</v>
       </c>
       <c r="C90" t="n">
-        <v>0.969168</v>
+        <v>0.9688099999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.580039</v>
+        <v>0.577943</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.34377</v>
+        <v>1.33766</v>
       </c>
       <c r="C91" t="n">
-        <v>1.03122</v>
+        <v>1.02998</v>
       </c>
       <c r="D91" t="n">
-        <v>0.619669</v>
+        <v>0.616954</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42454</v>
+        <v>1.42388</v>
       </c>
       <c r="C92" t="n">
-        <v>0.877209</v>
+        <v>0.878319</v>
       </c>
       <c r="D92" t="n">
-        <v>0.619495</v>
+        <v>0.62107</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.1498</v>
+        <v>1.14898</v>
       </c>
       <c r="C93" t="n">
-        <v>0.91021</v>
+        <v>0.911771</v>
       </c>
       <c r="D93" t="n">
-        <v>0.642892</v>
+        <v>0.643282</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.19518</v>
+        <v>1.19388</v>
       </c>
       <c r="C94" t="n">
-        <v>0.948691</v>
+        <v>0.950175</v>
       </c>
       <c r="D94" t="n">
-        <v>0.665075</v>
+        <v>0.6663520000000001</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24158</v>
+        <v>1.24007</v>
       </c>
       <c r="C95" t="n">
-        <v>0.984503</v>
+        <v>0.985338</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6919380000000001</v>
+        <v>0.692568</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.29784</v>
+        <v>1.29575</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0251</v>
+        <v>1.02681</v>
       </c>
       <c r="D96" t="n">
-        <v>0.722015</v>
+        <v>0.721773</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34923</v>
+        <v>1.34412</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0639</v>
+        <v>1.06585</v>
       </c>
       <c r="D97" t="n">
-        <v>0.741601</v>
+        <v>0.743262</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.39916</v>
+        <v>1.40826</v>
       </c>
       <c r="C98" t="n">
-        <v>1.10655</v>
+        <v>1.1088</v>
       </c>
       <c r="D98" t="n">
-        <v>0.771613</v>
+        <v>0.772359</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.46141</v>
+        <v>1.46061</v>
       </c>
       <c r="C99" t="n">
-        <v>1.15217</v>
+        <v>1.15562</v>
       </c>
       <c r="D99" t="n">
-        <v>0.800444</v>
+        <v>0.801215</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.50022</v>
+        <v>1.50907</v>
       </c>
       <c r="C100" t="n">
-        <v>1.19976</v>
+        <v>1.20222</v>
       </c>
       <c r="D100" t="n">
-        <v>0.825048</v>
+        <v>0.82701</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.57621</v>
+        <v>1.53883</v>
       </c>
       <c r="C101" t="n">
-        <v>1.24856</v>
+        <v>1.25102</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8526589999999999</v>
+        <v>0.8539060000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.60811</v>
+        <v>1.59991</v>
       </c>
       <c r="C102" t="n">
-        <v>1.29882</v>
+        <v>1.29968</v>
       </c>
       <c r="D102" t="n">
-        <v>0.88531</v>
+        <v>0.884339</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.6808</v>
+        <v>1.68275</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35318</v>
+        <v>1.35678</v>
       </c>
       <c r="D103" t="n">
-        <v>0.919086</v>
+        <v>0.919407</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.73965</v>
+        <v>1.74155</v>
       </c>
       <c r="C104" t="n">
-        <v>1.39496</v>
+        <v>1.41034</v>
       </c>
       <c r="D104" t="n">
-        <v>0.947634</v>
+        <v>0.951259</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.80366</v>
+        <v>1.80783</v>
       </c>
       <c r="C105" t="n">
-        <v>1.45981</v>
+        <v>1.46071</v>
       </c>
       <c r="D105" t="n">
-        <v>0.98629</v>
+        <v>0.9864889999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.88181</v>
+        <v>1.88389</v>
       </c>
       <c r="C106" t="n">
-        <v>1.50126</v>
+        <v>1.52213</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01614</v>
+        <v>1.01723</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.3807</v>
+        <v>1.38003</v>
       </c>
       <c r="C107" t="n">
-        <v>1.16634</v>
+        <v>1.15439</v>
       </c>
       <c r="D107" t="n">
-        <v>0.941137</v>
+        <v>0.939542</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42328</v>
+        <v>1.41954</v>
       </c>
       <c r="C108" t="n">
-        <v>1.2102</v>
+        <v>1.20504</v>
       </c>
       <c r="D108" t="n">
-        <v>0.964435</v>
+        <v>0.960612</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.46843</v>
+        <v>1.46524</v>
       </c>
       <c r="C109" t="n">
-        <v>1.23737</v>
+        <v>1.20504</v>
       </c>
       <c r="D109" t="n">
-        <v>0.983258</v>
+        <v>0.981584</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.51822</v>
+        <v>1.51577</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24815</v>
+        <v>1.2545</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00405</v>
+        <v>1.00072</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.56884</v>
+        <v>1.5643</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31107</v>
+        <v>1.27684</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03484</v>
+        <v>1.02865</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.60994</v>
+        <v>1.6164</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3272</v>
+        <v>1.31173</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06081</v>
+        <v>1.05696</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67517</v>
+        <v>1.67459</v>
       </c>
       <c r="C113" t="n">
-        <v>1.35454</v>
+        <v>1.36484</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08548</v>
+        <v>1.08233</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.73337</v>
+        <v>1.73224</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39607</v>
+        <v>1.3929</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11125</v>
+        <v>1.11078</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.7927</v>
+        <v>1.79147</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44151</v>
+        <v>1.43898</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14419</v>
+        <v>1.13904</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.85854</v>
+        <v>1.85561</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48809</v>
+        <v>1.48533</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17427</v>
+        <v>1.17174</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.92515</v>
+        <v>1.92308</v>
       </c>
       <c r="C117" t="n">
-        <v>1.53895</v>
+        <v>1.53672</v>
       </c>
       <c r="D117" t="n">
-        <v>1.20095</v>
+        <v>1.19573</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.99465</v>
+        <v>1.99319</v>
       </c>
       <c r="C118" t="n">
-        <v>1.59335</v>
+        <v>1.59248</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23562</v>
+        <v>1.23326</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.06727</v>
+        <v>2.06624</v>
       </c>
       <c r="C119" t="n">
-        <v>1.64756</v>
+        <v>1.64522</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26959</v>
+        <v>1.267</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.643915</v>
+        <v>0.648343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.450265</v>
+        <v>0.455756</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312848</v>
+        <v>0.30966</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.669272</v>
+        <v>0.664648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.474484</v>
+        <v>0.477568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32521</v>
+        <v>0.322089</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.70684</v>
+        <v>0.701221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.509462</v>
+        <v>0.497037</v>
       </c>
       <c r="D4" t="n">
-        <v>0.334882</v>
+        <v>0.3316</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72948</v>
+        <v>0.72521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.52449</v>
+        <v>0.515489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345432</v>
+        <v>0.342875</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.757141</v>
+        <v>0.749714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.530661</v>
+        <v>0.537861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.356</v>
+        <v>0.352859</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.786057</v>
+        <v>0.7838850000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.562438</v>
+        <v>0.558691</v>
       </c>
       <c r="D7" t="n">
-        <v>0.362152</v>
+        <v>0.361945</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.812929</v>
+        <v>0.81755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.592995</v>
+        <v>0.581411</v>
       </c>
       <c r="D8" t="n">
-        <v>0.37044</v>
+        <v>0.370625</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.856525</v>
+        <v>0.849254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.611143</v>
+        <v>0.602618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388156</v>
+        <v>0.381347</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.892384</v>
+        <v>0.890246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6560510000000001</v>
+        <v>0.639126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.402293</v>
+        <v>0.398451</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.924437</v>
+        <v>0.926427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.442676</v>
+        <v>0.438686</v>
       </c>
       <c r="D11" t="n">
-        <v>0.291755</v>
+        <v>0.292097</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.603582</v>
+        <v>0.6098519999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.463161</v>
+        <v>0.461046</v>
       </c>
       <c r="D12" t="n">
-        <v>0.304</v>
+        <v>0.301962</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617425</v>
+        <v>0.632234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.478643</v>
+        <v>0.48557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.311345</v>
+        <v>0.314143</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.647605</v>
+        <v>0.664756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.499003</v>
+        <v>0.509315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.321008</v>
+        <v>0.32499</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.673718</v>
+        <v>0.690398</v>
       </c>
       <c r="C15" t="n">
-        <v>0.522607</v>
+        <v>0.5401820000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.336675</v>
+        <v>0.340135</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.709529</v>
+        <v>0.729059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.546793</v>
+        <v>0.566944</v>
       </c>
       <c r="D16" t="n">
-        <v>0.350029</v>
+        <v>0.35415</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.744027</v>
+        <v>0.762157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.578265</v>
+        <v>0.598378</v>
       </c>
       <c r="D17" t="n">
-        <v>0.364129</v>
+        <v>0.366095</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.787005</v>
+        <v>0.804585</v>
       </c>
       <c r="C18" t="n">
-        <v>0.61329</v>
+        <v>0.627556</v>
       </c>
       <c r="D18" t="n">
-        <v>0.374853</v>
+        <v>0.381577</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.828897</v>
+        <v>0.842877</v>
       </c>
       <c r="C19" t="n">
-        <v>0.64569</v>
+        <v>0.657769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391016</v>
+        <v>0.393959</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.867895</v>
+        <v>0.879952</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6773670000000001</v>
+        <v>0.6884439999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.406861</v>
+        <v>0.408621</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9109120000000001</v>
+        <v>0.917714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7133659999999999</v>
+        <v>0.720835</v>
       </c>
       <c r="D21" t="n">
-        <v>0.417977</v>
+        <v>0.421782</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.950252</v>
+        <v>0.959352</v>
       </c>
       <c r="C22" t="n">
-        <v>0.744185</v>
+        <v>0.750345</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4355</v>
+        <v>0.436676</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.996474</v>
+        <v>1.00172</v>
       </c>
       <c r="C23" t="n">
-        <v>0.785899</v>
+        <v>0.789097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447094</v>
+        <v>0.446805</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.04182</v>
+        <v>1.04255</v>
       </c>
       <c r="C24" t="n">
-        <v>0.821726</v>
+        <v>0.822793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.463911</v>
+        <v>0.463766</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08988</v>
+        <v>1.08752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.86149</v>
+        <v>0.856279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.488389</v>
+        <v>0.485039</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.13691</v>
+        <v>1.13018</v>
       </c>
       <c r="C26" t="n">
-        <v>0.560794</v>
+        <v>0.561949</v>
       </c>
       <c r="D26" t="n">
-        <v>0.349697</v>
+        <v>0.344111</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.736474</v>
+        <v>0.736773</v>
       </c>
       <c r="C27" t="n">
-        <v>0.588681</v>
+        <v>0.584723</v>
       </c>
       <c r="D27" t="n">
-        <v>0.35999</v>
+        <v>0.356241</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7726189999999999</v>
+        <v>0.772354</v>
       </c>
       <c r="C28" t="n">
-        <v>0.62132</v>
+        <v>0.617219</v>
       </c>
       <c r="D28" t="n">
-        <v>0.376949</v>
+        <v>0.371906</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.810152</v>
+        <v>0.8073979999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.648834</v>
+        <v>0.647266</v>
       </c>
       <c r="D29" t="n">
-        <v>0.390556</v>
+        <v>0.384835</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.845189</v>
+        <v>0.843626</v>
       </c>
       <c r="C30" t="n">
-        <v>0.680075</v>
+        <v>0.678739</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401465</v>
+        <v>0.400844</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.878712</v>
+        <v>0.8808280000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7099259999999999</v>
+        <v>0.709839</v>
       </c>
       <c r="D31" t="n">
-        <v>0.416751</v>
+        <v>0.412927</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.913062</v>
+        <v>0.919291</v>
       </c>
       <c r="C32" t="n">
-        <v>0.742507</v>
+        <v>0.741547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426267</v>
+        <v>0.428383</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.957156</v>
+        <v>0.963986</v>
       </c>
       <c r="C33" t="n">
-        <v>0.774819</v>
+        <v>0.776257</v>
       </c>
       <c r="D33" t="n">
-        <v>0.439652</v>
+        <v>0.442728</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.99516</v>
+        <v>1.00228</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802107</v>
+        <v>0.807178</v>
       </c>
       <c r="D34" t="n">
-        <v>0.450866</v>
+        <v>0.455016</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.04433</v>
+        <v>1.05207</v>
       </c>
       <c r="C35" t="n">
-        <v>0.837456</v>
+        <v>0.843444</v>
       </c>
       <c r="D35" t="n">
-        <v>0.457465</v>
+        <v>0.468981</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08448</v>
+        <v>1.09419</v>
       </c>
       <c r="C36" t="n">
-        <v>0.872792</v>
+        <v>0.877038</v>
       </c>
       <c r="D36" t="n">
-        <v>0.481892</v>
+        <v>0.485973</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12479</v>
+        <v>1.13802</v>
       </c>
       <c r="C37" t="n">
-        <v>0.90566</v>
+        <v>0.90981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.499294</v>
+        <v>0.501053</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.174</v>
+        <v>1.18566</v>
       </c>
       <c r="C38" t="n">
-        <v>0.944196</v>
+        <v>0.952877</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515014</v>
+        <v>0.520035</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.22317</v>
+        <v>1.23422</v>
       </c>
       <c r="C39" t="n">
-        <v>0.976507</v>
+        <v>0.985316</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524491</v>
+        <v>0.535592</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.27011</v>
+        <v>1.28227</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6173149999999999</v>
+        <v>0.623178</v>
       </c>
       <c r="D40" t="n">
-        <v>0.396621</v>
+        <v>0.398067</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.802658</v>
+        <v>0.8077839999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.642828</v>
+        <v>0.646056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410577</v>
+        <v>0.410959</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.838251</v>
+        <v>0.84246</v>
       </c>
       <c r="C42" t="n">
-        <v>0.669509</v>
+        <v>0.673608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424123</v>
+        <v>0.424584</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.871625</v>
+        <v>0.8757740000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.700581</v>
+        <v>0.704233</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438463</v>
+        <v>0.438276</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.914196</v>
+        <v>0.917752</v>
       </c>
       <c r="C44" t="n">
-        <v>0.73171</v>
+        <v>0.735033</v>
       </c>
       <c r="D44" t="n">
-        <v>0.442277</v>
+        <v>0.452603</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.945102</v>
+        <v>0.953107</v>
       </c>
       <c r="C45" t="n">
-        <v>0.765614</v>
+        <v>0.766641</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469794</v>
+        <v>0.469747</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.98739</v>
+        <v>0.996433</v>
       </c>
       <c r="C46" t="n">
-        <v>0.797875</v>
+        <v>0.799922</v>
       </c>
       <c r="D46" t="n">
-        <v>0.488864</v>
+        <v>0.487529</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03798</v>
+        <v>1.04048</v>
       </c>
       <c r="C47" t="n">
-        <v>0.828026</v>
+        <v>0.8312929999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.489787</v>
+        <v>0.5004729999999999</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08195</v>
+        <v>1.08448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.865407</v>
+        <v>0.867617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516783</v>
+        <v>0.516494</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12375</v>
+        <v>1.12642</v>
       </c>
       <c r="C49" t="n">
-        <v>0.902568</v>
+        <v>0.905135</v>
       </c>
       <c r="D49" t="n">
-        <v>0.530604</v>
+        <v>0.531238</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17293</v>
+        <v>1.17463</v>
       </c>
       <c r="C50" t="n">
-        <v>0.94015</v>
+        <v>0.943277</v>
       </c>
       <c r="D50" t="n">
-        <v>0.545223</v>
+        <v>0.546737</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.21174</v>
+        <v>1.22075</v>
       </c>
       <c r="C51" t="n">
-        <v>0.972742</v>
+        <v>0.976058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5697489999999999</v>
+        <v>0.56715</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26465</v>
+        <v>1.26705</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01434</v>
+        <v>1.01373</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5718839999999999</v>
+        <v>0.58288</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.31128</v>
+        <v>1.31435</v>
       </c>
       <c r="C53" t="n">
-        <v>1.04866</v>
+        <v>1.05238</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5989449999999999</v>
+        <v>0.599504</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.3562</v>
+        <v>1.36123</v>
       </c>
       <c r="C54" t="n">
-        <v>0.652719</v>
+        <v>0.653535</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428836</v>
+        <v>0.429297</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.83995</v>
+        <v>0.84201</v>
       </c>
       <c r="C55" t="n">
-        <v>0.675683</v>
+        <v>0.677528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445347</v>
+        <v>0.445616</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8723649999999999</v>
+        <v>0.873784</v>
       </c>
       <c r="C56" t="n">
-        <v>0.704561</v>
+        <v>0.705756</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457475</v>
+        <v>0.457776</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9096379999999999</v>
+        <v>0.91164</v>
       </c>
       <c r="C57" t="n">
-        <v>0.731823</v>
+        <v>0.733461</v>
       </c>
       <c r="D57" t="n">
-        <v>0.471038</v>
+        <v>0.47128</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.945015</v>
+        <v>0.946632</v>
       </c>
       <c r="C58" t="n">
-        <v>0.763607</v>
+        <v>0.763113</v>
       </c>
       <c r="D58" t="n">
-        <v>0.488042</v>
+        <v>0.487865</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.984484</v>
+        <v>0.985415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.79792</v>
+        <v>0.797971</v>
       </c>
       <c r="D59" t="n">
-        <v>0.503348</v>
+        <v>0.504057</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02503</v>
+        <v>1.02618</v>
       </c>
       <c r="C60" t="n">
-        <v>0.829844</v>
+        <v>0.830874</v>
       </c>
       <c r="D60" t="n">
-        <v>0.519668</v>
+        <v>0.519911</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06521</v>
+        <v>1.06791</v>
       </c>
       <c r="C61" t="n">
-        <v>0.863955</v>
+        <v>0.865961</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535484</v>
+        <v>0.535371</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10885</v>
+        <v>1.11017</v>
       </c>
       <c r="C62" t="n">
-        <v>0.901989</v>
+        <v>0.904381</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5507030000000001</v>
+        <v>0.551778</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15438</v>
+        <v>1.15646</v>
       </c>
       <c r="C63" t="n">
-        <v>0.935523</v>
+        <v>0.936487</v>
       </c>
       <c r="D63" t="n">
-        <v>0.566944</v>
+        <v>0.569905</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.2023</v>
+        <v>1.20442</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9747670000000001</v>
+        <v>0.972124</v>
       </c>
       <c r="D64" t="n">
-        <v>0.575986</v>
+        <v>0.583971</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24855</v>
+        <v>1.24959</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00882</v>
+        <v>1.00906</v>
       </c>
       <c r="D65" t="n">
-        <v>0.59982</v>
+        <v>0.599834</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29353</v>
+        <v>1.29502</v>
       </c>
       <c r="C66" t="n">
-        <v>1.04844</v>
+        <v>1.0493</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618082</v>
+        <v>0.618474</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.3413</v>
+        <v>1.34361</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08874</v>
+        <v>1.08834</v>
       </c>
       <c r="D67" t="n">
-        <v>0.63385</v>
+        <v>0.634255</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.40625</v>
+        <v>1.39241</v>
       </c>
       <c r="C68" t="n">
-        <v>0.670561</v>
+        <v>0.674736</v>
       </c>
       <c r="D68" t="n">
-        <v>0.452583</v>
+        <v>0.457188</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.876977</v>
+        <v>0.890018</v>
       </c>
       <c r="C69" t="n">
-        <v>0.703406</v>
+        <v>0.712844</v>
       </c>
       <c r="D69" t="n">
-        <v>0.465227</v>
+        <v>0.469536</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.92439</v>
+        <v>0.940313</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7459750000000001</v>
+        <v>0.755777</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486081</v>
+        <v>0.491604</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.980027</v>
+        <v>0.997027</v>
       </c>
       <c r="C71" t="n">
-        <v>0.787906</v>
+        <v>0.798965</v>
       </c>
       <c r="D71" t="n">
-        <v>0.50752</v>
+        <v>0.512576</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0385</v>
+        <v>1.04986</v>
       </c>
       <c r="C72" t="n">
-        <v>0.836721</v>
+        <v>0.845228</v>
       </c>
       <c r="D72" t="n">
-        <v>0.530012</v>
+        <v>0.534451</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10453</v>
+        <v>1.12029</v>
       </c>
       <c r="C73" t="n">
-        <v>0.888579</v>
+        <v>0.901515</v>
       </c>
       <c r="D73" t="n">
-        <v>0.550744</v>
+        <v>0.554451</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16683</v>
+        <v>1.20083</v>
       </c>
       <c r="C74" t="n">
-        <v>0.941492</v>
+        <v>0.965103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.569829</v>
+        <v>0.57494</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.24473</v>
+        <v>1.29115</v>
       </c>
       <c r="C75" t="n">
-        <v>1.00819</v>
+        <v>1.03681</v>
       </c>
       <c r="D75" t="n">
-        <v>0.596938</v>
+        <v>0.606568</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.33752</v>
+        <v>1.38093</v>
       </c>
       <c r="C76" t="n">
-        <v>1.07491</v>
+        <v>1.10804</v>
       </c>
       <c r="D76" t="n">
-        <v>0.621584</v>
+        <v>0.6325809999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.44544</v>
+        <v>1.47921</v>
       </c>
       <c r="C77" t="n">
-        <v>1.1542</v>
+        <v>1.18221</v>
       </c>
       <c r="D77" t="n">
-        <v>0.654969</v>
+        <v>0.6645450000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.55415</v>
+        <v>1.59926</v>
       </c>
       <c r="C78" t="n">
-        <v>1.24541</v>
+        <v>1.27617</v>
       </c>
       <c r="D78" t="n">
-        <v>0.676588</v>
+        <v>0.688945</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.69618</v>
+        <v>1.72248</v>
       </c>
       <c r="C79" t="n">
-        <v>1.36086</v>
+        <v>1.37734</v>
       </c>
       <c r="D79" t="n">
-        <v>0.716603</v>
+        <v>0.720762</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.85544</v>
+        <v>1.89329</v>
       </c>
       <c r="C80" t="n">
-        <v>1.48779</v>
+        <v>1.51551</v>
       </c>
       <c r="D80" t="n">
-        <v>0.755569</v>
+        <v>0.7627119999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.0235</v>
+        <v>2.07369</v>
       </c>
       <c r="C81" t="n">
-        <v>1.62752</v>
+        <v>1.66971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.789218</v>
+        <v>0.802088</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23571</v>
+        <v>2.28054</v>
       </c>
       <c r="C82" t="n">
-        <v>1.80866</v>
+        <v>1.83725</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8715309999999999</v>
+        <v>0.882691</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.46238</v>
+        <v>2.50107</v>
       </c>
       <c r="C83" t="n">
-        <v>1.187</v>
+        <v>1.20567</v>
       </c>
       <c r="D83" t="n">
-        <v>0.628054</v>
+        <v>0.63139</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.6501</v>
+        <v>1.67504</v>
       </c>
       <c r="C84" t="n">
-        <v>1.31837</v>
+        <v>1.33024</v>
       </c>
       <c r="D84" t="n">
-        <v>0.665077</v>
+        <v>0.672975</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83015</v>
+        <v>1.83276</v>
       </c>
       <c r="C85" t="n">
-        <v>1.45635</v>
+        <v>1.46303</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7160609999999999</v>
+        <v>0.7203580000000001</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.02484</v>
+        <v>2.03482</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62003</v>
+        <v>1.62189</v>
       </c>
       <c r="D86" t="n">
-        <v>0.77236</v>
+        <v>0.776239</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2389</v>
+        <v>2.25673</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78944</v>
+        <v>1.79946</v>
       </c>
       <c r="D87" t="n">
-        <v>0.83474</v>
+        <v>0.84223</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48077</v>
+        <v>2.48863</v>
       </c>
       <c r="C88" t="n">
-        <v>1.98227</v>
+        <v>1.98794</v>
       </c>
       <c r="D88" t="n">
-        <v>0.920297</v>
+        <v>0.922926</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.72609</v>
+        <v>2.73291</v>
       </c>
       <c r="C89" t="n">
-        <v>2.19155</v>
+        <v>2.18974</v>
       </c>
       <c r="D89" t="n">
-        <v>0.999101</v>
+        <v>1.0018</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.99025</v>
+        <v>3.00198</v>
       </c>
       <c r="C90" t="n">
-        <v>2.39544</v>
+        <v>2.39611</v>
       </c>
       <c r="D90" t="n">
-        <v>1.07941</v>
+        <v>1.07741</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.27086</v>
+        <v>3.28009</v>
       </c>
       <c r="C91" t="n">
-        <v>2.62111</v>
+        <v>2.63183</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16969</v>
+        <v>1.17402</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.5734</v>
+        <v>3.5746</v>
       </c>
       <c r="C92" t="n">
-        <v>2.87231</v>
+        <v>2.87021</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26745</v>
+        <v>1.26616</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.88641</v>
+        <v>3.89176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.1204</v>
+        <v>3.12587</v>
       </c>
       <c r="D93" t="n">
-        <v>1.35732</v>
+        <v>1.35665</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.21262</v>
+        <v>4.22251</v>
       </c>
       <c r="C94" t="n">
-        <v>3.38475</v>
+        <v>3.39155</v>
       </c>
       <c r="D94" t="n">
-        <v>1.45025</v>
+        <v>1.4509</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.54894</v>
+        <v>4.56295</v>
       </c>
       <c r="C95" t="n">
-        <v>3.67166</v>
+        <v>3.68131</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56935</v>
+        <v>1.57354</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.90746</v>
+        <v>4.91906</v>
       </c>
       <c r="C96" t="n">
-        <v>3.96958</v>
+        <v>3.97749</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69791</v>
+        <v>1.70168</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.27614</v>
+        <v>5.29748</v>
       </c>
       <c r="C97" t="n">
-        <v>2.38518</v>
+        <v>2.38561</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18424</v>
+        <v>1.18609</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.24944</v>
+        <v>3.24818</v>
       </c>
       <c r="C98" t="n">
-        <v>2.55643</v>
+        <v>2.54937</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25437</v>
+        <v>1.25284</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.46203</v>
+        <v>3.46777</v>
       </c>
       <c r="C99" t="n">
-        <v>2.72838</v>
+        <v>2.72524</v>
       </c>
       <c r="D99" t="n">
-        <v>1.35004</v>
+        <v>1.34931</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.69384</v>
+        <v>3.64879</v>
       </c>
       <c r="C100" t="n">
-        <v>2.90365</v>
+        <v>2.89752</v>
       </c>
       <c r="D100" t="n">
-        <v>1.43258</v>
+        <v>1.43171</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.89467</v>
+        <v>3.87234</v>
       </c>
       <c r="C101" t="n">
-        <v>3.09146</v>
+        <v>3.10254</v>
       </c>
       <c r="D101" t="n">
-        <v>1.49117</v>
+        <v>1.48687</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.05883</v>
+        <v>4.08405</v>
       </c>
       <c r="C102" t="n">
-        <v>3.27229</v>
+        <v>3.26527</v>
       </c>
       <c r="D102" t="n">
-        <v>1.59275</v>
+        <v>1.59347</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.32113</v>
+        <v>4.32591</v>
       </c>
       <c r="C103" t="n">
-        <v>3.46184</v>
+        <v>3.43837</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67309</v>
+        <v>1.67245</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.58759</v>
+        <v>4.60347</v>
       </c>
       <c r="C104" t="n">
-        <v>3.64271</v>
+        <v>3.62826</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7759</v>
+        <v>1.77423</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.87555</v>
+        <v>4.89102</v>
       </c>
       <c r="C105" t="n">
-        <v>3.85841</v>
+        <v>3.8532</v>
       </c>
       <c r="D105" t="n">
-        <v>1.8479</v>
+        <v>1.84697</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.17618</v>
+        <v>5.18866</v>
       </c>
       <c r="C106" t="n">
-        <v>4.09262</v>
+        <v>4.08223</v>
       </c>
       <c r="D106" t="n">
-        <v>1.96902</v>
+        <v>1.96826</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.49481</v>
+        <v>5.50706</v>
       </c>
       <c r="C107" t="n">
-        <v>4.33677</v>
+        <v>4.33687</v>
       </c>
       <c r="D107" t="n">
-        <v>2.0665</v>
+        <v>2.06184</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.81723</v>
+        <v>5.8334</v>
       </c>
       <c r="C108" t="n">
-        <v>4.59704</v>
+        <v>4.5922</v>
       </c>
       <c r="D108" t="n">
-        <v>2.1724</v>
+        <v>2.1636</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.16588</v>
+        <v>6.189</v>
       </c>
       <c r="C109" t="n">
-        <v>4.89226</v>
+        <v>4.89431</v>
       </c>
       <c r="D109" t="n">
-        <v>2.28625</v>
+        <v>2.27704</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.51297</v>
+        <v>6.53794</v>
       </c>
       <c r="C110" t="n">
-        <v>5.18612</v>
+        <v>5.18533</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39778</v>
+        <v>2.39346</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.88219</v>
+        <v>6.90922</v>
       </c>
       <c r="C111" t="n">
-        <v>2.99007</v>
+        <v>2.98951</v>
       </c>
       <c r="D111" t="n">
-        <v>1.67106</v>
+        <v>1.67014</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.06137</v>
+        <v>4.07846</v>
       </c>
       <c r="C112" t="n">
-        <v>3.15795</v>
+        <v>3.15695</v>
       </c>
       <c r="D112" t="n">
-        <v>1.7294</v>
+        <v>1.72811</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.28437</v>
+        <v>4.31241</v>
       </c>
       <c r="C113" t="n">
-        <v>3.32875</v>
+        <v>3.33061</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81717</v>
+        <v>1.81318</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.51017</v>
+        <v>4.52368</v>
       </c>
       <c r="C114" t="n">
-        <v>3.51897</v>
+        <v>3.5178</v>
       </c>
       <c r="D114" t="n">
-        <v>1.90552</v>
+        <v>1.90076</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.75023</v>
+        <v>4.76302</v>
       </c>
       <c r="C115" t="n">
-        <v>3.6956</v>
+        <v>3.701</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97599</v>
+        <v>1.97357</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.00469</v>
+        <v>5.01907</v>
       </c>
       <c r="C116" t="n">
-        <v>3.90606</v>
+        <v>3.91905</v>
       </c>
       <c r="D116" t="n">
-        <v>2.06275</v>
+        <v>2.06161</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.27309</v>
+        <v>5.28563</v>
       </c>
       <c r="C117" t="n">
-        <v>4.12507</v>
+        <v>4.1238</v>
       </c>
       <c r="D117" t="n">
-        <v>2.1848</v>
+        <v>2.1783</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.56037</v>
+        <v>5.57286</v>
       </c>
       <c r="C118" t="n">
-        <v>4.34452</v>
+        <v>4.3463</v>
       </c>
       <c r="D118" t="n">
-        <v>2.28938</v>
+        <v>2.27831</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.85496</v>
+        <v>5.87055</v>
       </c>
       <c r="C119" t="n">
-        <v>4.58118</v>
+        <v>4.59742</v>
       </c>
       <c r="D119" t="n">
-        <v>2.37691</v>
+        <v>2.36376</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.405354</v>
+        <v>0.319758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3009</v>
+        <v>0.215626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.320699</v>
+        <v>0.229182</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.416632</v>
+        <v>0.333362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306492</v>
+        <v>0.221203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327259</v>
+        <v>0.235698</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.427656</v>
+        <v>0.345173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313303</v>
+        <v>0.227713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332797</v>
+        <v>0.246378</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.438031</v>
+        <v>0.353555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.318102</v>
+        <v>0.233553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339311</v>
+        <v>0.253408</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.451506</v>
+        <v>0.365493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324263</v>
+        <v>0.240918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.345122</v>
+        <v>0.260416</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.462418</v>
+        <v>0.378887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.264411</v>
+        <v>0.185706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.288178</v>
+        <v>0.210893</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.34797</v>
+        <v>0.268406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.273506</v>
+        <v>0.193007</v>
       </c>
       <c r="D8" t="n">
-        <v>0.298199</v>
+        <v>0.219277</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.361845</v>
+        <v>0.280031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.279548</v>
+        <v>0.199765</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304194</v>
+        <v>0.225787</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.373405</v>
+        <v>0.290766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290263</v>
+        <v>0.208899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315612</v>
+        <v>0.235568</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.386586</v>
+        <v>0.300537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.297336</v>
+        <v>0.21569</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324993</v>
+        <v>0.243445</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.396969</v>
+        <v>0.313107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.308951</v>
+        <v>0.223913</v>
       </c>
       <c r="D12" t="n">
-        <v>0.334462</v>
+        <v>0.252344</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.410206</v>
+        <v>0.324777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.317219</v>
+        <v>0.23299</v>
       </c>
       <c r="D13" t="n">
-        <v>0.344429</v>
+        <v>0.26302</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.422327</v>
+        <v>0.335442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.325287</v>
+        <v>0.240275</v>
       </c>
       <c r="D14" t="n">
-        <v>0.353569</v>
+        <v>0.270862</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.434433</v>
+        <v>0.345746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.330517</v>
+        <v>0.245834</v>
       </c>
       <c r="D15" t="n">
-        <v>0.361634</v>
+        <v>0.278174</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446306</v>
+        <v>0.358536</v>
       </c>
       <c r="C16" t="n">
-        <v>0.338337</v>
+        <v>0.253048</v>
       </c>
       <c r="D16" t="n">
-        <v>0.372803</v>
+        <v>0.287705</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.457956</v>
+        <v>0.370237</v>
       </c>
       <c r="C17" t="n">
-        <v>0.343983</v>
+        <v>0.258058</v>
       </c>
       <c r="D17" t="n">
-        <v>0.379934</v>
+        <v>0.295532</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.470264</v>
+        <v>0.383229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.350258</v>
+        <v>0.264468</v>
       </c>
       <c r="D18" t="n">
-        <v>0.387701</v>
+        <v>0.302391</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.483526</v>
+        <v>0.395338</v>
       </c>
       <c r="C19" t="n">
-        <v>0.357068</v>
+        <v>0.269159</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3961</v>
+        <v>0.309605</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.494493</v>
+        <v>0.405923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.365051</v>
+        <v>0.275236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405184</v>
+        <v>0.318504</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5078859999999999</v>
+        <v>0.421617</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29166</v>
+        <v>0.215798</v>
       </c>
       <c r="D21" t="n">
-        <v>0.317249</v>
+        <v>0.249874</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.39344</v>
+        <v>0.305823</v>
       </c>
       <c r="C22" t="n">
-        <v>0.299233</v>
+        <v>0.222235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.326217</v>
+        <v>0.25838</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.405729</v>
+        <v>0.315986</v>
       </c>
       <c r="C23" t="n">
-        <v>0.307161</v>
+        <v>0.228937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.335804</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.414816</v>
+        <v>0.326495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.315501</v>
+        <v>0.235814</v>
       </c>
       <c r="D24" t="n">
-        <v>0.344995</v>
+        <v>0.273297</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.426567</v>
+        <v>0.336916</v>
       </c>
       <c r="C25" t="n">
-        <v>0.324498</v>
+        <v>0.243283</v>
       </c>
       <c r="D25" t="n">
-        <v>0.355665</v>
+        <v>0.281528</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.437408</v>
+        <v>0.347695</v>
       </c>
       <c r="C26" t="n">
-        <v>0.333203</v>
+        <v>0.250078</v>
       </c>
       <c r="D26" t="n">
-        <v>0.366582</v>
+        <v>0.29009</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.451725</v>
+        <v>0.360004</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340606</v>
+        <v>0.256734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377683</v>
+        <v>0.298312</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.462723</v>
+        <v>0.370812</v>
       </c>
       <c r="C28" t="n">
-        <v>0.348462</v>
+        <v>0.262901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.387272</v>
+        <v>0.306189</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.474815</v>
+        <v>0.383501</v>
       </c>
       <c r="C29" t="n">
-        <v>0.356397</v>
+        <v>0.26927</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398465</v>
+        <v>0.315699</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.486357</v>
+        <v>0.394509</v>
       </c>
       <c r="C30" t="n">
-        <v>0.363214</v>
+        <v>0.273959</v>
       </c>
       <c r="D30" t="n">
-        <v>0.407517</v>
+        <v>0.322802</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495973</v>
+        <v>0.405032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.369361</v>
+        <v>0.278917</v>
       </c>
       <c r="D31" t="n">
-        <v>0.418067</v>
+        <v>0.33087</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507924</v>
+        <v>0.41647</v>
       </c>
       <c r="C32" t="n">
-        <v>0.377503</v>
+        <v>0.285173</v>
       </c>
       <c r="D32" t="n">
-        <v>0.426531</v>
+        <v>0.339294</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.519064</v>
+        <v>0.429465</v>
       </c>
       <c r="C33" t="n">
-        <v>0.384548</v>
+        <v>0.289719</v>
       </c>
       <c r="D33" t="n">
-        <v>0.435279</v>
+        <v>0.346678</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530915</v>
+        <v>0.440177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.392019</v>
+        <v>0.295347</v>
       </c>
       <c r="D34" t="n">
-        <v>0.444727</v>
+        <v>0.354925</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542466</v>
+        <v>0.452367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.306078</v>
+        <v>0.227334</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338957</v>
+        <v>0.26879</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.412365</v>
+        <v>0.317369</v>
       </c>
       <c r="C36" t="n">
-        <v>0.314531</v>
+        <v>0.234246</v>
       </c>
       <c r="D36" t="n">
-        <v>0.349243</v>
+        <v>0.278043</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.423711</v>
+        <v>0.327008</v>
       </c>
       <c r="C37" t="n">
-        <v>0.322043</v>
+        <v>0.240924</v>
       </c>
       <c r="D37" t="n">
-        <v>0.358664</v>
+        <v>0.284779</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.43414</v>
+        <v>0.337656</v>
       </c>
       <c r="C38" t="n">
-        <v>0.330913</v>
+        <v>0.247749</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369609</v>
+        <v>0.293422</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.445231</v>
+        <v>0.348827</v>
       </c>
       <c r="C39" t="n">
-        <v>0.339383</v>
+        <v>0.254099</v>
       </c>
       <c r="D39" t="n">
-        <v>0.38009</v>
+        <v>0.301929</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.456834</v>
+        <v>0.359593</v>
       </c>
       <c r="C40" t="n">
-        <v>0.347807</v>
+        <v>0.260264</v>
       </c>
       <c r="D40" t="n">
-        <v>0.390737</v>
+        <v>0.309876</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.471229</v>
+        <v>0.371466</v>
       </c>
       <c r="C41" t="n">
-        <v>0.35719</v>
+        <v>0.266957</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401644</v>
+        <v>0.317983</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.480449</v>
+        <v>0.384359</v>
       </c>
       <c r="C42" t="n">
-        <v>0.364587</v>
+        <v>0.272854</v>
       </c>
       <c r="D42" t="n">
-        <v>0.411237</v>
+        <v>0.325207</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.492065</v>
+        <v>0.395795</v>
       </c>
       <c r="C43" t="n">
-        <v>0.372001</v>
+        <v>0.278212</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421866</v>
+        <v>0.333247</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.503362</v>
+        <v>0.406957</v>
       </c>
       <c r="C44" t="n">
-        <v>0.379243</v>
+        <v>0.283627</v>
       </c>
       <c r="D44" t="n">
-        <v>0.431446</v>
+        <v>0.342084</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.514742</v>
+        <v>0.419411</v>
       </c>
       <c r="C45" t="n">
-        <v>0.386079</v>
+        <v>0.288742</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440869</v>
+        <v>0.350012</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.524941</v>
+        <v>0.430484</v>
       </c>
       <c r="C46" t="n">
-        <v>0.392227</v>
+        <v>0.293446</v>
       </c>
       <c r="D46" t="n">
-        <v>0.449652</v>
+        <v>0.357176</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.536959</v>
+        <v>0.443584</v>
       </c>
       <c r="C47" t="n">
-        <v>0.39862</v>
+        <v>0.297941</v>
       </c>
       <c r="D47" t="n">
-        <v>0.458423</v>
+        <v>0.364395</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.551096</v>
+        <v>0.455768</v>
       </c>
       <c r="C48" t="n">
-        <v>0.405751</v>
+        <v>0.303166</v>
       </c>
       <c r="D48" t="n">
-        <v>0.467614</v>
+        <v>0.372656</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.562548</v>
+        <v>0.468227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.412574</v>
+        <v>0.308416</v>
       </c>
       <c r="D49" t="n">
-        <v>0.476168</v>
+        <v>0.380325</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.573806</v>
+        <v>0.479954</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321809</v>
+        <v>0.238998</v>
       </c>
       <c r="D50" t="n">
-        <v>0.348369</v>
+        <v>0.272993</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430805</v>
+        <v>0.332018</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329301</v>
+        <v>0.245653</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359025</v>
+        <v>0.281424</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.441889</v>
+        <v>0.3433</v>
       </c>
       <c r="C52" t="n">
-        <v>0.338206</v>
+        <v>0.252585</v>
       </c>
       <c r="D52" t="n">
-        <v>0.370387</v>
+        <v>0.289412</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.453393</v>
+        <v>0.3547</v>
       </c>
       <c r="C53" t="n">
-        <v>0.34682</v>
+        <v>0.259437</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381687</v>
+        <v>0.296891</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.465033</v>
+        <v>0.366581</v>
       </c>
       <c r="C54" t="n">
-        <v>0.355283</v>
+        <v>0.266159</v>
       </c>
       <c r="D54" t="n">
-        <v>0.392362</v>
+        <v>0.306207</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479186</v>
+        <v>0.378502</v>
       </c>
       <c r="C55" t="n">
-        <v>0.363937</v>
+        <v>0.272411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404096</v>
+        <v>0.311966</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489014</v>
+        <v>0.390742</v>
       </c>
       <c r="C56" t="n">
-        <v>0.37245</v>
+        <v>0.278457</v>
       </c>
       <c r="D56" t="n">
-        <v>0.415302</v>
+        <v>0.32191</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499987</v>
+        <v>0.402614</v>
       </c>
       <c r="C57" t="n">
-        <v>0.379573</v>
+        <v>0.283362</v>
       </c>
       <c r="D57" t="n">
-        <v>0.424699</v>
+        <v>0.329449</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.510989</v>
+        <v>0.413852</v>
       </c>
       <c r="C58" t="n">
-        <v>0.386198</v>
+        <v>0.287784</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433442</v>
+        <v>0.336155</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.521527</v>
+        <v>0.424841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.392984</v>
+        <v>0.292561</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442576</v>
+        <v>0.345587</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532561</v>
+        <v>0.437412</v>
       </c>
       <c r="C60" t="n">
-        <v>0.399308</v>
+        <v>0.297252</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452025</v>
+        <v>0.35279</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.54378</v>
+        <v>0.449539</v>
       </c>
       <c r="C61" t="n">
-        <v>0.406009</v>
+        <v>0.302394</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460873</v>
+        <v>0.362173</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5566719999999999</v>
+        <v>0.462186</v>
       </c>
       <c r="C62" t="n">
-        <v>0.41283</v>
+        <v>0.307153</v>
       </c>
       <c r="D62" t="n">
-        <v>0.469701</v>
+        <v>0.369189</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5681659999999999</v>
+        <v>0.47411</v>
       </c>
       <c r="C63" t="n">
-        <v>0.419947</v>
+        <v>0.312853</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479076</v>
+        <v>0.379831</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5815709999999999</v>
+        <v>0.487607</v>
       </c>
       <c r="C64" t="n">
-        <v>0.335345</v>
+        <v>0.250606</v>
       </c>
       <c r="D64" t="n">
-        <v>0.368227</v>
+        <v>0.291485</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.46496</v>
+        <v>0.353148</v>
       </c>
       <c r="C65" t="n">
-        <v>0.343923</v>
+        <v>0.257766</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3815</v>
+        <v>0.303208</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.479572</v>
+        <v>0.366354</v>
       </c>
       <c r="C66" t="n">
-        <v>0.35387</v>
+        <v>0.266031</v>
       </c>
       <c r="D66" t="n">
-        <v>0.393834</v>
+        <v>0.313011</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.494561</v>
+        <v>0.38484</v>
       </c>
       <c r="C67" t="n">
-        <v>0.364264</v>
+        <v>0.27458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.40597</v>
+        <v>0.322983</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514042</v>
+        <v>0.40359</v>
       </c>
       <c r="C68" t="n">
-        <v>0.376247</v>
+        <v>0.283352</v>
       </c>
       <c r="D68" t="n">
-        <v>0.421386</v>
+        <v>0.33784</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.536043</v>
+        <v>0.42525</v>
       </c>
       <c r="C69" t="n">
-        <v>0.388955</v>
+        <v>0.292589</v>
       </c>
       <c r="D69" t="n">
-        <v>0.438572</v>
+        <v>0.347944</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.550833</v>
+        <v>0.44901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.402216</v>
+        <v>0.302289</v>
       </c>
       <c r="D70" t="n">
-        <v>0.456194</v>
+        <v>0.361938</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.580212</v>
+        <v>0.464436</v>
       </c>
       <c r="C71" t="n">
-        <v>0.415718</v>
+        <v>0.312403</v>
       </c>
       <c r="D71" t="n">
-        <v>0.473102</v>
+        <v>0.379343</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.60232</v>
+        <v>0.486362</v>
       </c>
       <c r="C72" t="n">
-        <v>0.428337</v>
+        <v>0.321788</v>
       </c>
       <c r="D72" t="n">
-        <v>0.488863</v>
+        <v>0.392355</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.628565</v>
+        <v>0.517712</v>
       </c>
       <c r="C73" t="n">
-        <v>0.442103</v>
+        <v>0.336132</v>
       </c>
       <c r="D73" t="n">
-        <v>0.506815</v>
+        <v>0.409301</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.657957</v>
+        <v>0.545646</v>
       </c>
       <c r="C74" t="n">
-        <v>0.459323</v>
+        <v>0.350652</v>
       </c>
       <c r="D74" t="n">
-        <v>0.527691</v>
+        <v>0.431256</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692576</v>
+        <v>0.578186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.477575</v>
+        <v>0.36652</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549671</v>
+        <v>0.453785</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.730109</v>
+        <v>0.615865</v>
       </c>
       <c r="C76" t="n">
-        <v>0.499022</v>
+        <v>0.38607</v>
       </c>
       <c r="D76" t="n">
-        <v>0.576742</v>
+        <v>0.482352</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.777991</v>
+        <v>0.65632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.525029</v>
+        <v>0.406487</v>
       </c>
       <c r="D77" t="n">
-        <v>0.604559</v>
+        <v>0.512085</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.826924</v>
+        <v>0.700452</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4583</v>
+        <v>0.374019</v>
       </c>
       <c r="D78" t="n">
-        <v>0.51416</v>
+        <v>0.45556</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8096410000000001</v>
+        <v>0.6892239999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.483183</v>
+        <v>0.395975</v>
       </c>
       <c r="D79" t="n">
-        <v>0.548585</v>
+        <v>0.489767</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.853264</v>
+        <v>0.730995</v>
       </c>
       <c r="C80" t="n">
-        <v>0.512921</v>
+        <v>0.419962</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580929</v>
+        <v>0.523575</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.899802</v>
+        <v>0.775926</v>
       </c>
       <c r="C81" t="n">
-        <v>0.543679</v>
+        <v>0.444736</v>
       </c>
       <c r="D81" t="n">
-        <v>0.609755</v>
+        <v>0.550441</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.94856</v>
+        <v>0.820258</v>
       </c>
       <c r="C82" t="n">
-        <v>0.576545</v>
+        <v>0.470429</v>
       </c>
       <c r="D82" t="n">
-        <v>0.642323</v>
+        <v>0.581004</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00077</v>
+        <v>0.869355</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609878</v>
+        <v>0.496646</v>
       </c>
       <c r="D83" t="n">
-        <v>0.680007</v>
+        <v>0.616093</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05282</v>
+        <v>0.922202</v>
       </c>
       <c r="C84" t="n">
-        <v>0.644882</v>
+        <v>0.52166</v>
       </c>
       <c r="D84" t="n">
-        <v>0.723618</v>
+        <v>0.6590510000000001</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10782</v>
+        <v>0.972136</v>
       </c>
       <c r="C85" t="n">
-        <v>0.677907</v>
+        <v>0.551493</v>
       </c>
       <c r="D85" t="n">
-        <v>0.762588</v>
+        <v>0.699481</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.16272</v>
+        <v>1.02724</v>
       </c>
       <c r="C86" t="n">
-        <v>0.714719</v>
+        <v>0.582392</v>
       </c>
       <c r="D86" t="n">
-        <v>0.803662</v>
+        <v>0.742025</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.2211</v>
+        <v>1.08453</v>
       </c>
       <c r="C87" t="n">
-        <v>0.752815</v>
+        <v>0.613128</v>
       </c>
       <c r="D87" t="n">
-        <v>0.840187</v>
+        <v>0.7820780000000001</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.28076</v>
+        <v>1.14409</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7914</v>
+        <v>0.643561</v>
       </c>
       <c r="D88" t="n">
-        <v>0.881688</v>
+        <v>0.826184</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.34045</v>
+        <v>1.20404</v>
       </c>
       <c r="C89" t="n">
-        <v>0.829973</v>
+        <v>0.6762320000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.923663</v>
+        <v>0.869713</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40491</v>
+        <v>1.26471</v>
       </c>
       <c r="C90" t="n">
-        <v>0.870726</v>
+        <v>0.71069</v>
       </c>
       <c r="D90" t="n">
-        <v>0.967291</v>
+        <v>0.917017</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.47127</v>
+        <v>1.32893</v>
       </c>
       <c r="C91" t="n">
-        <v>0.913288</v>
+        <v>0.746012</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01218</v>
+        <v>0.965546</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54095</v>
+        <v>1.39404</v>
       </c>
       <c r="C92" t="n">
-        <v>0.792928</v>
+        <v>0.646138</v>
       </c>
       <c r="D92" t="n">
-        <v>0.904323</v>
+        <v>0.858033</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35464</v>
+        <v>1.17893</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8205789999999999</v>
+        <v>0.668214</v>
       </c>
       <c r="D93" t="n">
-        <v>0.94808</v>
+        <v>0.900302</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39266</v>
+        <v>1.21761</v>
       </c>
       <c r="C94" t="n">
-        <v>0.849866</v>
+        <v>0.689725</v>
       </c>
       <c r="D94" t="n">
-        <v>0.979392</v>
+        <v>0.931038</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.43305</v>
+        <v>1.25882</v>
       </c>
       <c r="C95" t="n">
-        <v>0.880009</v>
+        <v>0.713706</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00589</v>
+        <v>0.962183</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.47416</v>
+        <v>1.30177</v>
       </c>
       <c r="C96" t="n">
-        <v>0.911723</v>
+        <v>0.737196</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03871</v>
+        <v>0.997866</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51705</v>
+        <v>1.34658</v>
       </c>
       <c r="C97" t="n">
-        <v>0.944481</v>
+        <v>0.762859</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0989</v>
+        <v>1.05182</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.56288</v>
+        <v>1.39249</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9779679999999999</v>
+        <v>0.78911</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12772</v>
+        <v>1.086</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.61061</v>
+        <v>1.44016</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01159</v>
+        <v>0.814953</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17055</v>
+        <v>1.13138</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.65969</v>
+        <v>1.4911</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04681</v>
+        <v>0.842832</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21681</v>
+        <v>1.17571</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.70917</v>
+        <v>1.54082</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08291</v>
+        <v>0.871234</v>
       </c>
       <c r="D101" t="n">
-        <v>1.26174</v>
+        <v>1.22106</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76318</v>
+        <v>1.59486</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12054</v>
+        <v>0.901074</v>
       </c>
       <c r="D102" t="n">
-        <v>1.306</v>
+        <v>1.27828</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.81908</v>
+        <v>1.64868</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15809</v>
+        <v>0.931968</v>
       </c>
       <c r="D103" t="n">
-        <v>1.35342</v>
+        <v>1.32214</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.87892</v>
+        <v>1.70777</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19869</v>
+        <v>0.965048</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40248</v>
+        <v>1.37396</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.94149</v>
+        <v>1.76601</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23933</v>
+        <v>0.998572</v>
       </c>
       <c r="D105" t="n">
-        <v>1.45306</v>
+        <v>1.42688</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.00875</v>
+        <v>1.82799</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28323</v>
+        <v>1.03485</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50453</v>
+        <v>1.48189</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.64299</v>
+        <v>1.43711</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04343</v>
+        <v>0.83469</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26534</v>
+        <v>1.21354</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.67721</v>
+        <v>1.47096</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06907</v>
+        <v>0.854901</v>
       </c>
       <c r="D108" t="n">
-        <v>1.29827</v>
+        <v>1.24985</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.71335</v>
+        <v>1.51194</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09693</v>
+        <v>0.876281</v>
       </c>
       <c r="D109" t="n">
-        <v>1.34548</v>
+        <v>1.2951</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.74837</v>
+        <v>1.54898</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12551</v>
+        <v>0.899411</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38258</v>
+        <v>1.33721</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.78721</v>
+        <v>1.59345</v>
       </c>
       <c r="C111" t="n">
-        <v>1.15622</v>
+        <v>0.922735</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41117</v>
+        <v>1.37406</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.83122</v>
+        <v>1.63756</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18567</v>
+        <v>0.946738</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45567</v>
+        <v>1.42048</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.87163</v>
+        <v>1.68203</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21811</v>
+        <v>0.971614</v>
       </c>
       <c r="D113" t="n">
-        <v>1.49722</v>
+        <v>1.47064</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.91944</v>
+        <v>1.72935</v>
       </c>
       <c r="C114" t="n">
-        <v>1.24975</v>
+        <v>0.997951</v>
       </c>
       <c r="D114" t="n">
-        <v>1.53256</v>
+        <v>1.51384</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.96641</v>
+        <v>1.77806</v>
       </c>
       <c r="C115" t="n">
-        <v>1.28743</v>
+        <v>1.02373</v>
       </c>
       <c r="D115" t="n">
-        <v>1.5875</v>
+        <v>1.57481</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.01601</v>
+        <v>1.83086</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32188</v>
+        <v>1.05287</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63195</v>
+        <v>1.62213</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.07073</v>
+        <v>1.88567</v>
       </c>
       <c r="C117" t="n">
-        <v>1.35699</v>
+        <v>1.08261</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67816</v>
+        <v>1.67581</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.12667</v>
+        <v>1.94122</v>
       </c>
       <c r="C118" t="n">
-        <v>1.39703</v>
+        <v>1.11325</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72111</v>
+        <v>1.72617</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.18291</v>
+        <v>1.99482</v>
       </c>
       <c r="C119" t="n">
-        <v>1.43591</v>
+        <v>1.14587</v>
       </c>
       <c r="D119" t="n">
-        <v>1.76914</v>
+        <v>1.78073</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.284686</v>
+        <v>0.215068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212944</v>
+        <v>0.148531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182242</v>
+        <v>0.129945</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293742</v>
+        <v>0.224002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217011</v>
+        <v>0.152191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18475</v>
+        <v>0.133294</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.304003</v>
+        <v>0.231897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225416</v>
+        <v>0.15944</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186743</v>
+        <v>0.134567</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.311266</v>
+        <v>0.240335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229941</v>
+        <v>0.166428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.190234</v>
+        <v>0.136113</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.322019</v>
+        <v>0.252607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23705</v>
+        <v>0.174479</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191785</v>
+        <v>0.139906</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.335873</v>
+        <v>0.263118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197566</v>
+        <v>0.136623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17663</v>
+        <v>0.129947</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.254156</v>
+        <v>0.180878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200742</v>
+        <v>0.138835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.177985</v>
+        <v>0.131998</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257884</v>
+        <v>0.186499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.20809</v>
+        <v>0.147997</v>
       </c>
       <c r="D9" t="n">
-        <v>0.182488</v>
+        <v>0.134024</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.268747</v>
+        <v>0.194346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212805</v>
+        <v>0.151913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.184512</v>
+        <v>0.136674</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.275761</v>
+        <v>0.202724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218599</v>
+        <v>0.155753</v>
       </c>
       <c r="D11" t="n">
-        <v>0.187055</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.284411</v>
+        <v>0.209958</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225019</v>
+        <v>0.16268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.189811</v>
+        <v>0.141555</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.293868</v>
+        <v>0.218059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232969</v>
+        <v>0.169104</v>
       </c>
       <c r="D13" t="n">
-        <v>0.192948</v>
+        <v>0.143505</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.302581</v>
+        <v>0.228047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240961</v>
+        <v>0.177102</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196247</v>
+        <v>0.145094</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310295</v>
+        <v>0.235877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247414</v>
+        <v>0.183758</v>
       </c>
       <c r="D15" t="n">
-        <v>0.201635</v>
+        <v>0.149607</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.320902</v>
+        <v>0.24702</v>
       </c>
       <c r="C16" t="n">
-        <v>0.25755</v>
+        <v>0.193599</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205779</v>
+        <v>0.153146</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.332901</v>
+        <v>0.259736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.264123</v>
+        <v>0.202326</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208846</v>
+        <v>0.156369</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.343232</v>
+        <v>0.268616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27272</v>
+        <v>0.210516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213122</v>
+        <v>0.161491</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.353248</v>
+        <v>0.280459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.281839</v>
+        <v>0.218592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218593</v>
+        <v>0.164824</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.368003</v>
+        <v>0.294212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.293474</v>
+        <v>0.229918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223499</v>
+        <v>0.169027</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.381121</v>
+        <v>0.306947</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239096</v>
+        <v>0.175547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206337</v>
+        <v>0.155624</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295815</v>
+        <v>0.219387</v>
       </c>
       <c r="C22" t="n">
-        <v>0.245268</v>
+        <v>0.183548</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208592</v>
+        <v>0.158416</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302739</v>
+        <v>0.226901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.250829</v>
+        <v>0.190131</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212216</v>
+        <v>0.161432</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310282</v>
+        <v>0.234582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.256042</v>
+        <v>0.194187</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215336</v>
+        <v>0.16441</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317739</v>
+        <v>0.241783</v>
       </c>
       <c r="C25" t="n">
-        <v>0.262597</v>
+        <v>0.200983</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218509</v>
+        <v>0.167368</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326651</v>
+        <v>0.250352</v>
       </c>
       <c r="C26" t="n">
-        <v>0.269394</v>
+        <v>0.208253</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222887</v>
+        <v>0.171396</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.333309</v>
+        <v>0.25798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.274134</v>
+        <v>0.212827</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22609</v>
+        <v>0.174054</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342637</v>
+        <v>0.266904</v>
       </c>
       <c r="C28" t="n">
-        <v>0.281229</v>
+        <v>0.219039</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229511</v>
+        <v>0.177693</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.352968</v>
+        <v>0.276848</v>
       </c>
       <c r="C29" t="n">
-        <v>0.287916</v>
+        <v>0.225879</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233577</v>
+        <v>0.181472</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.362501</v>
+        <v>0.285658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.296253</v>
+        <v>0.233303</v>
       </c>
       <c r="D30" t="n">
-        <v>0.23751</v>
+        <v>0.184874</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.37305</v>
+        <v>0.296812</v>
       </c>
       <c r="C31" t="n">
-        <v>0.302789</v>
+        <v>0.238735</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241859</v>
+        <v>0.188517</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382973</v>
+        <v>0.305919</v>
       </c>
       <c r="C32" t="n">
-        <v>0.312494</v>
+        <v>0.248185</v>
       </c>
       <c r="D32" t="n">
-        <v>0.24675</v>
+        <v>0.19294</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.396509</v>
+        <v>0.318583</v>
       </c>
       <c r="C33" t="n">
-        <v>0.32086</v>
+        <v>0.254369</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252076</v>
+        <v>0.197978</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408732</v>
+        <v>0.330128</v>
       </c>
       <c r="C34" t="n">
-        <v>0.331518</v>
+        <v>0.264424</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257516</v>
+        <v>0.201972</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421324</v>
+        <v>0.341916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25657</v>
+        <v>0.19438</v>
       </c>
       <c r="D35" t="n">
-        <v>0.227379</v>
+        <v>0.174314</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316332</v>
+        <v>0.238178</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2636</v>
+        <v>0.200649</v>
       </c>
       <c r="D36" t="n">
-        <v>0.230982</v>
+        <v>0.177615</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.32267</v>
+        <v>0.243954</v>
       </c>
       <c r="C37" t="n">
-        <v>0.26849</v>
+        <v>0.205455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233806</v>
+        <v>0.180177</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331034</v>
+        <v>0.252023</v>
       </c>
       <c r="C38" t="n">
-        <v>0.275542</v>
+        <v>0.211006</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237284</v>
+        <v>0.182982</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336706</v>
+        <v>0.257959</v>
       </c>
       <c r="C39" t="n">
-        <v>0.281101</v>
+        <v>0.216746</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240758</v>
+        <v>0.186456</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346601</v>
+        <v>0.266991</v>
       </c>
       <c r="C40" t="n">
-        <v>0.287614</v>
+        <v>0.223056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.245089</v>
+        <v>0.18993</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353837</v>
+        <v>0.274631</v>
       </c>
       <c r="C41" t="n">
-        <v>0.293996</v>
+        <v>0.228664</v>
       </c>
       <c r="D41" t="n">
-        <v>0.24796</v>
+        <v>0.192371</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.361711</v>
+        <v>0.282548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.299171</v>
+        <v>0.232832</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251276</v>
+        <v>0.195499</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.370848</v>
+        <v>0.290768</v>
       </c>
       <c r="C43" t="n">
-        <v>0.306641</v>
+        <v>0.239432</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254976</v>
+        <v>0.198923</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.380705</v>
+        <v>0.300351</v>
       </c>
       <c r="C44" t="n">
-        <v>0.314558</v>
+        <v>0.24658</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259279</v>
+        <v>0.202707</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.392356</v>
+        <v>0.310952</v>
       </c>
       <c r="C45" t="n">
-        <v>0.322683</v>
+        <v>0.254009</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264567</v>
+        <v>0.207464</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402903</v>
+        <v>0.322043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3313</v>
+        <v>0.261269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267797</v>
+        <v>0.210191</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413095</v>
+        <v>0.331882</v>
       </c>
       <c r="C47" t="n">
-        <v>0.339055</v>
+        <v>0.268699</v>
       </c>
       <c r="D47" t="n">
-        <v>0.273794</v>
+        <v>0.215062</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.424909</v>
+        <v>0.342179</v>
       </c>
       <c r="C48" t="n">
-        <v>0.348186</v>
+        <v>0.277063</v>
       </c>
       <c r="D48" t="n">
-        <v>0.278796</v>
+        <v>0.219455</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435143</v>
+        <v>0.352812</v>
       </c>
       <c r="C49" t="n">
-        <v>0.357688</v>
+        <v>0.285259</v>
       </c>
       <c r="D49" t="n">
-        <v>0.283902</v>
+        <v>0.224566</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.449772</v>
+        <v>0.366988</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270956</v>
+        <v>0.207292</v>
       </c>
       <c r="D50" t="n">
-        <v>0.231768</v>
+        <v>0.179428</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.334199</v>
+        <v>0.252848</v>
       </c>
       <c r="C51" t="n">
-        <v>0.27687</v>
+        <v>0.212243</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234649</v>
+        <v>0.182016</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.341204</v>
+        <v>0.260397</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282717</v>
+        <v>0.217346</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238174</v>
+        <v>0.185116</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347782</v>
+        <v>0.266138</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289726</v>
+        <v>0.223522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.242315</v>
+        <v>0.188814</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.356147</v>
+        <v>0.274831</v>
       </c>
       <c r="C54" t="n">
-        <v>0.295735</v>
+        <v>0.229299</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245732</v>
+        <v>0.191831</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.364725</v>
+        <v>0.283294</v>
       </c>
       <c r="C55" t="n">
-        <v>0.303195</v>
+        <v>0.235951</v>
       </c>
       <c r="D55" t="n">
-        <v>0.250341</v>
+        <v>0.195635</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.374112</v>
+        <v>0.290985</v>
       </c>
       <c r="C56" t="n">
-        <v>0.308473</v>
+        <v>0.240655</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254095</v>
+        <v>0.198489</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.383493</v>
+        <v>0.30111</v>
       </c>
       <c r="C57" t="n">
-        <v>0.316366</v>
+        <v>0.247679</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25833</v>
+        <v>0.201759</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39331</v>
+        <v>0.31023</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324358</v>
+        <v>0.255061</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264034</v>
+        <v>0.205839</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.405062</v>
+        <v>0.322417</v>
       </c>
       <c r="C59" t="n">
-        <v>0.330805</v>
+        <v>0.261084</v>
       </c>
       <c r="D59" t="n">
-        <v>0.267106</v>
+        <v>0.20956</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.414249</v>
+        <v>0.331246</v>
       </c>
       <c r="C60" t="n">
-        <v>0.338593</v>
+        <v>0.267286</v>
       </c>
       <c r="D60" t="n">
-        <v>0.271512</v>
+        <v>0.212958</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425361</v>
+        <v>0.342104</v>
       </c>
       <c r="C61" t="n">
-        <v>0.348454</v>
+        <v>0.276684</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27656</v>
+        <v>0.217326</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.43604</v>
+        <v>0.352529</v>
       </c>
       <c r="C62" t="n">
-        <v>0.356745</v>
+        <v>0.284587</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281431</v>
+        <v>0.220689</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.447754</v>
+        <v>0.36409</v>
       </c>
       <c r="C63" t="n">
-        <v>0.366806</v>
+        <v>0.293128</v>
       </c>
       <c r="D63" t="n">
-        <v>0.287822</v>
+        <v>0.226434</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.460521</v>
+        <v>0.376484</v>
       </c>
       <c r="C64" t="n">
-        <v>0.292112</v>
+        <v>0.227206</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248175</v>
+        <v>0.194342</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.366147</v>
+        <v>0.279103</v>
       </c>
       <c r="C65" t="n">
-        <v>0.29887</v>
+        <v>0.232892</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249272</v>
+        <v>0.195563</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.378611</v>
+        <v>0.289407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.309193</v>
+        <v>0.241343</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255318</v>
+        <v>0.200436</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.391272</v>
+        <v>0.301391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.319467</v>
+        <v>0.249938</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261065</v>
+        <v>0.20457</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.407303</v>
+        <v>0.313449</v>
       </c>
       <c r="C68" t="n">
-        <v>0.328914</v>
+        <v>0.259747</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267358</v>
+        <v>0.210232</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.420912</v>
+        <v>0.335019</v>
       </c>
       <c r="C69" t="n">
-        <v>0.34413</v>
+        <v>0.269709</v>
       </c>
       <c r="D69" t="n">
-        <v>0.272032</v>
+        <v>0.214342</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.437075</v>
+        <v>0.34947</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355685</v>
+        <v>0.279855</v>
       </c>
       <c r="D70" t="n">
-        <v>0.277601</v>
+        <v>0.219902</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.457603</v>
+        <v>0.365967</v>
       </c>
       <c r="C71" t="n">
-        <v>0.368086</v>
+        <v>0.295407</v>
       </c>
       <c r="D71" t="n">
-        <v>0.28658</v>
+        <v>0.227277</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.479037</v>
+        <v>0.383022</v>
       </c>
       <c r="C72" t="n">
-        <v>0.384931</v>
+        <v>0.30838</v>
       </c>
       <c r="D72" t="n">
-        <v>0.293244</v>
+        <v>0.232534</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.507467</v>
+        <v>0.406594</v>
       </c>
       <c r="C73" t="n">
-        <v>0.405289</v>
+        <v>0.325676</v>
       </c>
       <c r="D73" t="n">
-        <v>0.30119</v>
+        <v>0.239323</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.531821</v>
+        <v>0.434015</v>
       </c>
       <c r="C74" t="n">
-        <v>0.423469</v>
+        <v>0.346606</v>
       </c>
       <c r="D74" t="n">
-        <v>0.311891</v>
+        <v>0.247992</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.562258</v>
+        <v>0.475357</v>
       </c>
       <c r="C75" t="n">
-        <v>0.446659</v>
+        <v>0.37655</v>
       </c>
       <c r="D75" t="n">
-        <v>0.321785</v>
+        <v>0.259784</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.596561</v>
+        <v>0.511794</v>
       </c>
       <c r="C76" t="n">
-        <v>0.475356</v>
+        <v>0.401459</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333856</v>
+        <v>0.270036</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6366810000000001</v>
+        <v>0.55188</v>
       </c>
       <c r="C77" t="n">
-        <v>0.504404</v>
+        <v>0.431158</v>
       </c>
       <c r="D77" t="n">
-        <v>0.345909</v>
+        <v>0.283226</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.684458</v>
+        <v>0.606189</v>
       </c>
       <c r="C78" t="n">
-        <v>0.452635</v>
+        <v>0.387163</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313207</v>
+        <v>0.253849</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6268550000000001</v>
+        <v>0.547965</v>
       </c>
       <c r="C79" t="n">
-        <v>0.479938</v>
+        <v>0.417777</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325881</v>
+        <v>0.26923</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665543</v>
+        <v>0.592932</v>
       </c>
       <c r="C80" t="n">
-        <v>0.507966</v>
+        <v>0.448519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.338402</v>
+        <v>0.282731</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.708485</v>
+        <v>0.638006</v>
       </c>
       <c r="C81" t="n">
-        <v>0.547997</v>
+        <v>0.487234</v>
       </c>
       <c r="D81" t="n">
-        <v>0.355594</v>
+        <v>0.300284</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.759257</v>
+        <v>0.691145</v>
       </c>
       <c r="C82" t="n">
-        <v>0.583321</v>
+        <v>0.523933</v>
       </c>
       <c r="D82" t="n">
-        <v>0.37458</v>
+        <v>0.320371</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.810455</v>
+        <v>0.745291</v>
       </c>
       <c r="C83" t="n">
-        <v>0.623352</v>
+        <v>0.564334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.390532</v>
+        <v>0.338859</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.868944</v>
+        <v>0.805387</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6664369999999999</v>
+        <v>0.60965</v>
       </c>
       <c r="D84" t="n">
-        <v>0.412572</v>
+        <v>0.361534</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.923688</v>
+        <v>0.866165</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7085090000000001</v>
+        <v>0.65377</v>
       </c>
       <c r="D85" t="n">
-        <v>0.436788</v>
+        <v>0.389266</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.984618</v>
+        <v>0.928671</v>
       </c>
       <c r="C86" t="n">
-        <v>0.753952</v>
+        <v>0.700098</v>
       </c>
       <c r="D86" t="n">
-        <v>0.465225</v>
+        <v>0.417747</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04787</v>
+        <v>0.994198</v>
       </c>
       <c r="C87" t="n">
-        <v>0.807882</v>
+        <v>0.753103</v>
       </c>
       <c r="D87" t="n">
-        <v>0.490296</v>
+        <v>0.44418</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11501</v>
+        <v>1.06719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.859286</v>
+        <v>0.805762</v>
       </c>
       <c r="D88" t="n">
-        <v>0.517151</v>
+        <v>0.472464</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18835</v>
+        <v>1.14088</v>
       </c>
       <c r="C89" t="n">
-        <v>0.915611</v>
+        <v>0.862856</v>
       </c>
       <c r="D89" t="n">
-        <v>0.548613</v>
+        <v>0.506475</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.26248</v>
+        <v>1.21704</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9688099999999999</v>
+        <v>0.914199</v>
       </c>
       <c r="D90" t="n">
-        <v>0.577943</v>
+        <v>0.5384</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.33766</v>
+        <v>1.29982</v>
       </c>
       <c r="C91" t="n">
-        <v>1.02998</v>
+        <v>0.990546</v>
       </c>
       <c r="D91" t="n">
-        <v>0.616954</v>
+        <v>0.578135</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42388</v>
+        <v>1.38621</v>
       </c>
       <c r="C92" t="n">
-        <v>0.878319</v>
+        <v>0.816674</v>
       </c>
       <c r="D92" t="n">
-        <v>0.62107</v>
+        <v>0.57177</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14898</v>
+        <v>1.07338</v>
       </c>
       <c r="C93" t="n">
-        <v>0.911771</v>
+        <v>0.850148</v>
       </c>
       <c r="D93" t="n">
-        <v>0.643282</v>
+        <v>0.594475</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.19388</v>
+        <v>1.12069</v>
       </c>
       <c r="C94" t="n">
-        <v>0.950175</v>
+        <v>0.887092</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6663520000000001</v>
+        <v>0.619065</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24007</v>
+        <v>1.16296</v>
       </c>
       <c r="C95" t="n">
-        <v>0.985338</v>
+        <v>0.920827</v>
       </c>
       <c r="D95" t="n">
-        <v>0.692568</v>
+        <v>0.643734</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.29575</v>
+        <v>1.2172</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02681</v>
+        <v>0.961013</v>
       </c>
       <c r="D96" t="n">
-        <v>0.721773</v>
+        <v>0.672355</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34412</v>
+        <v>1.27718</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06585</v>
+        <v>0.999186</v>
       </c>
       <c r="D97" t="n">
-        <v>0.743262</v>
+        <v>0.694174</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.40826</v>
+        <v>1.33229</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1088</v>
+        <v>1.04181</v>
       </c>
       <c r="D98" t="n">
-        <v>0.772359</v>
+        <v>0.7249679999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.46061</v>
+        <v>1.37644</v>
       </c>
       <c r="C99" t="n">
-        <v>1.15562</v>
+        <v>1.0832</v>
       </c>
       <c r="D99" t="n">
-        <v>0.801215</v>
+        <v>0.752501</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.50907</v>
+        <v>1.42283</v>
       </c>
       <c r="C100" t="n">
-        <v>1.20222</v>
+        <v>1.12985</v>
       </c>
       <c r="D100" t="n">
-        <v>0.82701</v>
+        <v>0.780054</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.53883</v>
+        <v>1.47509</v>
       </c>
       <c r="C101" t="n">
-        <v>1.25102</v>
+        <v>1.17343</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8539060000000001</v>
+        <v>0.807856</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59991</v>
+        <v>1.54165</v>
       </c>
       <c r="C102" t="n">
-        <v>1.29968</v>
+        <v>1.22043</v>
       </c>
       <c r="D102" t="n">
-        <v>0.884339</v>
+        <v>0.839453</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.68275</v>
+        <v>1.61091</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35678</v>
+        <v>1.27459</v>
       </c>
       <c r="D103" t="n">
-        <v>0.919407</v>
+        <v>0.8721640000000001</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.74155</v>
+        <v>1.68465</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41034</v>
+        <v>1.30939</v>
       </c>
       <c r="D104" t="n">
-        <v>0.951259</v>
+        <v>0.903656</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.80783</v>
+        <v>1.7591</v>
       </c>
       <c r="C105" t="n">
-        <v>1.46071</v>
+        <v>1.35768</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9864889999999999</v>
+        <v>0.941133</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.88389</v>
+        <v>1.8436</v>
       </c>
       <c r="C106" t="n">
-        <v>1.52213</v>
+        <v>1.41328</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01723</v>
+        <v>0.9728560000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38003</v>
+        <v>1.28545</v>
       </c>
       <c r="C107" t="n">
-        <v>1.15439</v>
+        <v>1.05947</v>
       </c>
       <c r="D107" t="n">
-        <v>0.939542</v>
+        <v>0.853615</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41954</v>
+        <v>1.33007</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20504</v>
+        <v>1.1026</v>
       </c>
       <c r="D108" t="n">
-        <v>0.960612</v>
+        <v>0.876393</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.46524</v>
+        <v>1.37641</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20504</v>
+        <v>1.1247</v>
       </c>
       <c r="D109" t="n">
-        <v>0.981584</v>
+        <v>0.89769</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.51577</v>
+        <v>1.43022</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2545</v>
+        <v>1.14668</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00072</v>
+        <v>0.919471</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.5643</v>
+        <v>1.47997</v>
       </c>
       <c r="C111" t="n">
-        <v>1.27684</v>
+        <v>1.18611</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02865</v>
+        <v>0.944832</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.6164</v>
+        <v>1.5358</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31173</v>
+        <v>1.22075</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05696</v>
+        <v>0.972952</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67459</v>
+        <v>1.59565</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36484</v>
+        <v>1.26225</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08233</v>
+        <v>0.997664</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.73224</v>
+        <v>1.65572</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3929</v>
+        <v>1.30616</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11078</v>
+        <v>1.02689</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.79147</v>
+        <v>1.71867</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43898</v>
+        <v>1.34496</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13904</v>
+        <v>1.05818</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.85561</v>
+        <v>1.78653</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48533</v>
+        <v>1.39605</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17174</v>
+        <v>1.08719</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.92308</v>
+        <v>1.85832</v>
       </c>
       <c r="C117" t="n">
-        <v>1.53672</v>
+        <v>1.43869</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19573</v>
+        <v>1.11768</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.99319</v>
+        <v>1.93122</v>
       </c>
       <c r="C118" t="n">
-        <v>1.59248</v>
+        <v>1.49108</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23326</v>
+        <v>1.15053</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.06624</v>
+        <v>2.00944</v>
       </c>
       <c r="C119" t="n">
-        <v>1.64522</v>
+        <v>1.54197</v>
       </c>
       <c r="D119" t="n">
-        <v>1.267</v>
+        <v>1.1845</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.648343</v>
+        <v>0.57806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455756</v>
+        <v>0.397321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.30966</v>
+        <v>0.232994</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.664648</v>
+        <v>0.605432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.477568</v>
+        <v>0.418519</v>
       </c>
       <c r="D3" t="n">
-        <v>0.322089</v>
+        <v>0.247473</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.701221</v>
+        <v>0.62934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.497037</v>
+        <v>0.438539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3316</v>
+        <v>0.257324</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72521</v>
+        <v>0.660898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.515489</v>
+        <v>0.463825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342875</v>
+        <v>0.269656</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.749714</v>
+        <v>0.685654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.537861</v>
+        <v>0.480877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352859</v>
+        <v>0.278032</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7838850000000001</v>
+        <v>0.716819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.558691</v>
+        <v>0.5039940000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.361945</v>
+        <v>0.282596</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.81755</v>
+        <v>0.746873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.581411</v>
+        <v>0.517808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370625</v>
+        <v>0.290915</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.849254</v>
+        <v>0.776934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.602618</v>
+        <v>0.543021</v>
       </c>
       <c r="D9" t="n">
-        <v>0.381347</v>
+        <v>0.300862</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.890246</v>
+        <v>0.818179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.639126</v>
+        <v>0.571313</v>
       </c>
       <c r="D10" t="n">
-        <v>0.398451</v>
+        <v>0.313149</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.926427</v>
+        <v>0.84444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.438686</v>
+        <v>0.370749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.292097</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6098519999999999</v>
+        <v>0.5248969999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461046</v>
+        <v>0.390872</v>
       </c>
       <c r="D12" t="n">
-        <v>0.301962</v>
+        <v>0.235234</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.632234</v>
+        <v>0.544291</v>
       </c>
       <c r="C13" t="n">
-        <v>0.48557</v>
+        <v>0.413077</v>
       </c>
       <c r="D13" t="n">
-        <v>0.314143</v>
+        <v>0.242356</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.664756</v>
+        <v>0.572085</v>
       </c>
       <c r="C14" t="n">
-        <v>0.509315</v>
+        <v>0.436626</v>
       </c>
       <c r="D14" t="n">
-        <v>0.32499</v>
+        <v>0.249973</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.690398</v>
+        <v>0.601584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5401820000000001</v>
+        <v>0.464909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.340135</v>
+        <v>0.260878</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.729059</v>
+        <v>0.641173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.566944</v>
+        <v>0.493042</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35415</v>
+        <v>0.273501</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.762157</v>
+        <v>0.674504</v>
       </c>
       <c r="C17" t="n">
-        <v>0.598378</v>
+        <v>0.525928</v>
       </c>
       <c r="D17" t="n">
-        <v>0.366095</v>
+        <v>0.284114</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.804585</v>
+        <v>0.714998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.627556</v>
+        <v>0.562297</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381577</v>
+        <v>0.295899</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.842877</v>
+        <v>0.756114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.657769</v>
+        <v>0.591252</v>
       </c>
       <c r="D19" t="n">
-        <v>0.393959</v>
+        <v>0.307805</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.879952</v>
+        <v>0.793351</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6884439999999999</v>
+        <v>0.625956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.408621</v>
+        <v>0.319809</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.917714</v>
+        <v>0.835182</v>
       </c>
       <c r="C21" t="n">
-        <v>0.720835</v>
+        <v>0.659883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.421782</v>
+        <v>0.329739</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.959352</v>
+        <v>0.874657</v>
       </c>
       <c r="C22" t="n">
-        <v>0.750345</v>
+        <v>0.696616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.436676</v>
+        <v>0.344501</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.00172</v>
+        <v>0.919453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.789097</v>
+        <v>0.732209</v>
       </c>
       <c r="D23" t="n">
-        <v>0.446805</v>
+        <v>0.355677</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.04255</v>
+        <v>0.966215</v>
       </c>
       <c r="C24" t="n">
-        <v>0.822793</v>
+        <v>0.765779</v>
       </c>
       <c r="D24" t="n">
-        <v>0.463766</v>
+        <v>0.372471</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08752</v>
+        <v>1.01093</v>
       </c>
       <c r="C25" t="n">
-        <v>0.856279</v>
+        <v>0.801932</v>
       </c>
       <c r="D25" t="n">
-        <v>0.485039</v>
+        <v>0.387172</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.13018</v>
+        <v>1.05156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.561949</v>
+        <v>0.502552</v>
       </c>
       <c r="D26" t="n">
-        <v>0.344111</v>
+        <v>0.271909</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.736773</v>
+        <v>0.657969</v>
       </c>
       <c r="C27" t="n">
-        <v>0.584723</v>
+        <v>0.522172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.356241</v>
+        <v>0.277606</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.772354</v>
+        <v>0.694065</v>
       </c>
       <c r="C28" t="n">
-        <v>0.617219</v>
+        <v>0.5568380000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.371906</v>
+        <v>0.293476</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8073979999999999</v>
+        <v>0.731021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.647266</v>
+        <v>0.5902500000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.384835</v>
+        <v>0.302961</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.843626</v>
+        <v>0.766213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.678739</v>
+        <v>0.622379</v>
       </c>
       <c r="D30" t="n">
-        <v>0.400844</v>
+        <v>0.314038</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8808280000000001</v>
+        <v>0.801809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.709839</v>
+        <v>0.654759</v>
       </c>
       <c r="D31" t="n">
-        <v>0.412927</v>
+        <v>0.321671</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.919291</v>
+        <v>0.835615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.741547</v>
+        <v>0.688683</v>
       </c>
       <c r="D32" t="n">
-        <v>0.428383</v>
+        <v>0.335799</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.963986</v>
+        <v>0.881105</v>
       </c>
       <c r="C33" t="n">
-        <v>0.776257</v>
+        <v>0.723742</v>
       </c>
       <c r="D33" t="n">
-        <v>0.442728</v>
+        <v>0.346851</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00228</v>
+        <v>0.917696</v>
       </c>
       <c r="C34" t="n">
-        <v>0.807178</v>
+        <v>0.760575</v>
       </c>
       <c r="D34" t="n">
-        <v>0.455016</v>
+        <v>0.357873</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.05207</v>
+        <v>0.968916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.843444</v>
+        <v>0.796536</v>
       </c>
       <c r="D35" t="n">
-        <v>0.468981</v>
+        <v>0.371229</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.09419</v>
+        <v>1.00715</v>
       </c>
       <c r="C36" t="n">
-        <v>0.877038</v>
+        <v>0.829708</v>
       </c>
       <c r="D36" t="n">
-        <v>0.485973</v>
+        <v>0.384085</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.13802</v>
+        <v>1.0535</v>
       </c>
       <c r="C37" t="n">
-        <v>0.90981</v>
+        <v>0.8672840000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.501053</v>
+        <v>0.403411</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.18566</v>
+        <v>1.10237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.952877</v>
+        <v>0.911938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.520035</v>
+        <v>0.41643</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23422</v>
+        <v>1.15471</v>
       </c>
       <c r="C39" t="n">
-        <v>0.985316</v>
+        <v>0.94837</v>
       </c>
       <c r="D39" t="n">
-        <v>0.535592</v>
+        <v>0.434658</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.28227</v>
+        <v>1.20185</v>
       </c>
       <c r="C40" t="n">
-        <v>0.623178</v>
+        <v>0.560821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398067</v>
+        <v>0.32165</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8077839999999999</v>
+        <v>0.724912</v>
       </c>
       <c r="C41" t="n">
-        <v>0.646056</v>
+        <v>0.58164</v>
       </c>
       <c r="D41" t="n">
-        <v>0.410959</v>
+        <v>0.333413</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84246</v>
+        <v>0.7593839999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.673608</v>
+        <v>0.613676</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424584</v>
+        <v>0.345806</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8757740000000001</v>
+        <v>0.791435</v>
       </c>
       <c r="C43" t="n">
-        <v>0.704233</v>
+        <v>0.644729</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438276</v>
+        <v>0.359715</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.917752</v>
+        <v>0.832836</v>
       </c>
       <c r="C44" t="n">
-        <v>0.735033</v>
+        <v>0.676901</v>
       </c>
       <c r="D44" t="n">
-        <v>0.452603</v>
+        <v>0.371859</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.953107</v>
+        <v>0.867127</v>
       </c>
       <c r="C45" t="n">
-        <v>0.766641</v>
+        <v>0.709417</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469747</v>
+        <v>0.380484</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.996433</v>
+        <v>0.910618</v>
       </c>
       <c r="C46" t="n">
-        <v>0.799922</v>
+        <v>0.748128</v>
       </c>
       <c r="D46" t="n">
-        <v>0.487529</v>
+        <v>0.398363</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.04048</v>
+        <v>0.952391</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8312929999999999</v>
+        <v>0.78494</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5004729999999999</v>
+        <v>0.411841</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08448</v>
+        <v>0.993523</v>
       </c>
       <c r="C48" t="n">
-        <v>0.867617</v>
+        <v>0.821227</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516494</v>
+        <v>0.429144</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12642</v>
+        <v>1.03887</v>
       </c>
       <c r="C49" t="n">
-        <v>0.905135</v>
+        <v>0.8597399999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.531238</v>
+        <v>0.435909</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.17463</v>
+        <v>1.08103</v>
       </c>
       <c r="C50" t="n">
-        <v>0.943277</v>
+        <v>0.901572</v>
       </c>
       <c r="D50" t="n">
-        <v>0.546737</v>
+        <v>0.455032</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.22075</v>
+        <v>1.13238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.976058</v>
+        <v>0.9360039999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.56715</v>
+        <v>0.470079</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.26705</v>
+        <v>1.17647</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01373</v>
+        <v>0.978666</v>
       </c>
       <c r="D52" t="n">
-        <v>0.58288</v>
+        <v>0.487444</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.31435</v>
+        <v>1.22855</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05238</v>
+        <v>1.0121</v>
       </c>
       <c r="D53" t="n">
-        <v>0.599504</v>
+        <v>0.504908</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.36123</v>
+        <v>1.27462</v>
       </c>
       <c r="C54" t="n">
-        <v>0.653535</v>
+        <v>0.584044</v>
       </c>
       <c r="D54" t="n">
-        <v>0.429297</v>
+        <v>0.349083</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.84201</v>
+        <v>0.75403</v>
       </c>
       <c r="C55" t="n">
-        <v>0.677528</v>
+        <v>0.613966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445616</v>
+        <v>0.367245</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.873784</v>
+        <v>0.784658</v>
       </c>
       <c r="C56" t="n">
-        <v>0.705756</v>
+        <v>0.642272</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457776</v>
+        <v>0.379637</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.91164</v>
+        <v>0.823194</v>
       </c>
       <c r="C57" t="n">
-        <v>0.733461</v>
+        <v>0.672035</v>
       </c>
       <c r="D57" t="n">
-        <v>0.47128</v>
+        <v>0.390224</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.946632</v>
+        <v>0.857397</v>
       </c>
       <c r="C58" t="n">
-        <v>0.763113</v>
+        <v>0.708793</v>
       </c>
       <c r="D58" t="n">
-        <v>0.487865</v>
+        <v>0.406417</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.985415</v>
+        <v>0.8968120000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.797971</v>
+        <v>0.743682</v>
       </c>
       <c r="D59" t="n">
-        <v>0.504057</v>
+        <v>0.420885</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02618</v>
+        <v>0.936302</v>
       </c>
       <c r="C60" t="n">
-        <v>0.830874</v>
+        <v>0.778536</v>
       </c>
       <c r="D60" t="n">
-        <v>0.519911</v>
+        <v>0.433921</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06791</v>
+        <v>0.975095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.865961</v>
+        <v>0.816859</v>
       </c>
       <c r="D61" t="n">
-        <v>0.535371</v>
+        <v>0.450324</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.11017</v>
+        <v>1.0183</v>
       </c>
       <c r="C62" t="n">
-        <v>0.904381</v>
+        <v>0.855844</v>
       </c>
       <c r="D62" t="n">
-        <v>0.551778</v>
+        <v>0.461861</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.15646</v>
+        <v>1.06641</v>
       </c>
       <c r="C63" t="n">
-        <v>0.936487</v>
+        <v>0.893683</v>
       </c>
       <c r="D63" t="n">
-        <v>0.569905</v>
+        <v>0.479377</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.20442</v>
+        <v>1.115</v>
       </c>
       <c r="C64" t="n">
-        <v>0.972124</v>
+        <v>0.9336449999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.583971</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24959</v>
+        <v>1.16191</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00906</v>
+        <v>0.974272</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599834</v>
+        <v>0.508165</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.29502</v>
+        <v>1.20621</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0493</v>
+        <v>1.01387</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618474</v>
+        <v>0.5253910000000001</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.34361</v>
+        <v>1.25916</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08834</v>
+        <v>1.05282</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634255</v>
+        <v>0.539659</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39241</v>
+        <v>1.29987</v>
       </c>
       <c r="C68" t="n">
-        <v>0.674736</v>
+        <v>0.607043</v>
       </c>
       <c r="D68" t="n">
-        <v>0.457188</v>
+        <v>0.38147</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.890018</v>
+        <v>0.799216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.712844</v>
+        <v>0.650258</v>
       </c>
       <c r="D69" t="n">
-        <v>0.469536</v>
+        <v>0.394724</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.940313</v>
+        <v>0.848828</v>
       </c>
       <c r="C70" t="n">
-        <v>0.755777</v>
+        <v>0.69506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491604</v>
+        <v>0.415446</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.997027</v>
+        <v>0.903089</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798965</v>
+        <v>0.746595</v>
       </c>
       <c r="D71" t="n">
-        <v>0.512576</v>
+        <v>0.433541</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04986</v>
+        <v>0.958547</v>
       </c>
       <c r="C72" t="n">
-        <v>0.845228</v>
+        <v>0.789768</v>
       </c>
       <c r="D72" t="n">
-        <v>0.534451</v>
+        <v>0.452388</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12029</v>
+        <v>1.02323</v>
       </c>
       <c r="C73" t="n">
-        <v>0.901515</v>
+        <v>0.84839</v>
       </c>
       <c r="D73" t="n">
-        <v>0.554451</v>
+        <v>0.472349</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20083</v>
+        <v>1.09417</v>
       </c>
       <c r="C74" t="n">
-        <v>0.965103</v>
+        <v>0.909986</v>
       </c>
       <c r="D74" t="n">
-        <v>0.57494</v>
+        <v>0.493017</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.29115</v>
+        <v>1.16934</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03681</v>
+        <v>0.97794</v>
       </c>
       <c r="D75" t="n">
-        <v>0.606568</v>
+        <v>0.516705</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38093</v>
+        <v>1.26805</v>
       </c>
       <c r="C76" t="n">
-        <v>1.10804</v>
+        <v>1.06788</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6325809999999999</v>
+        <v>0.540849</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.47921</v>
+        <v>1.38356</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18221</v>
+        <v>1.16383</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6645450000000001</v>
+        <v>0.575899</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.59926</v>
+        <v>1.50071</v>
       </c>
       <c r="C78" t="n">
-        <v>1.27617</v>
+        <v>1.26937</v>
       </c>
       <c r="D78" t="n">
-        <v>0.688945</v>
+        <v>0.5985780000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.72248</v>
+        <v>1.61995</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37734</v>
+        <v>1.3743</v>
       </c>
       <c r="D79" t="n">
-        <v>0.720762</v>
+        <v>0.6310210000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.89329</v>
+        <v>1.75787</v>
       </c>
       <c r="C80" t="n">
-        <v>1.51551</v>
+        <v>1.49214</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7627119999999999</v>
+        <v>0.663658</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.07369</v>
+        <v>1.95354</v>
       </c>
       <c r="C81" t="n">
-        <v>1.66971</v>
+        <v>1.66526</v>
       </c>
       <c r="D81" t="n">
-        <v>0.802088</v>
+        <v>0.701531</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.28054</v>
+        <v>2.18927</v>
       </c>
       <c r="C82" t="n">
-        <v>1.83725</v>
+        <v>1.87612</v>
       </c>
       <c r="D82" t="n">
-        <v>0.882691</v>
+        <v>0.78463</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.50107</v>
+        <v>2.42738</v>
       </c>
       <c r="C83" t="n">
-        <v>1.20567</v>
+        <v>1.15479</v>
       </c>
       <c r="D83" t="n">
-        <v>0.63139</v>
+        <v>0.538212</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.67504</v>
+        <v>1.59716</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33024</v>
+        <v>1.30024</v>
       </c>
       <c r="D84" t="n">
-        <v>0.672975</v>
+        <v>0.5835939999999999</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83276</v>
+        <v>1.78148</v>
       </c>
       <c r="C85" t="n">
-        <v>1.46303</v>
+        <v>1.45686</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7203580000000001</v>
+        <v>0.630985</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03482</v>
+        <v>2.006</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62189</v>
+        <v>1.64804</v>
       </c>
       <c r="D86" t="n">
-        <v>0.776239</v>
+        <v>0.697453</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.25673</v>
+        <v>2.23876</v>
       </c>
       <c r="C87" t="n">
-        <v>1.79946</v>
+        <v>1.85166</v>
       </c>
       <c r="D87" t="n">
-        <v>0.84223</v>
+        <v>0.764607</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48863</v>
+        <v>2.49342</v>
       </c>
       <c r="C88" t="n">
-        <v>1.98794</v>
+        <v>2.07448</v>
       </c>
       <c r="D88" t="n">
-        <v>0.922926</v>
+        <v>0.850516</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.73291</v>
+        <v>2.77306</v>
       </c>
       <c r="C89" t="n">
-        <v>2.18974</v>
+        <v>2.31668</v>
       </c>
       <c r="D89" t="n">
-        <v>1.0018</v>
+        <v>0.927285</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.00198</v>
+        <v>3.05198</v>
       </c>
       <c r="C90" t="n">
-        <v>2.39611</v>
+        <v>2.57034</v>
       </c>
       <c r="D90" t="n">
-        <v>1.07741</v>
+        <v>1.01661</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.28009</v>
+        <v>3.36758</v>
       </c>
       <c r="C91" t="n">
-        <v>2.63183</v>
+        <v>2.8378</v>
       </c>
       <c r="D91" t="n">
-        <v>1.17402</v>
+        <v>1.11286</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.5746</v>
+        <v>3.68505</v>
       </c>
       <c r="C92" t="n">
-        <v>2.87021</v>
+        <v>3.12473</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26616</v>
+        <v>1.21257</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.89176</v>
+        <v>4.03381</v>
       </c>
       <c r="C93" t="n">
-        <v>3.12587</v>
+        <v>3.42761</v>
       </c>
       <c r="D93" t="n">
-        <v>1.35665</v>
+        <v>1.3173</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.22251</v>
+        <v>4.39713</v>
       </c>
       <c r="C94" t="n">
-        <v>3.39155</v>
+        <v>3.73559</v>
       </c>
       <c r="D94" t="n">
-        <v>1.4509</v>
+        <v>1.42658</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.56295</v>
+        <v>4.76804</v>
       </c>
       <c r="C95" t="n">
-        <v>3.68131</v>
+        <v>4.06151</v>
       </c>
       <c r="D95" t="n">
-        <v>1.57354</v>
+        <v>1.56088</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.91906</v>
+        <v>5.16276</v>
       </c>
       <c r="C96" t="n">
-        <v>3.97749</v>
+        <v>4.39212</v>
       </c>
       <c r="D96" t="n">
-        <v>1.70168</v>
+        <v>1.69572</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.29748</v>
+        <v>5.55754</v>
       </c>
       <c r="C97" t="n">
-        <v>2.38561</v>
+        <v>2.49791</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18609</v>
+        <v>1.16841</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.24818</v>
+        <v>3.28182</v>
       </c>
       <c r="C98" t="n">
-        <v>2.54937</v>
+        <v>2.67247</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25284</v>
+        <v>1.23815</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.46777</v>
+        <v>3.4979</v>
       </c>
       <c r="C99" t="n">
-        <v>2.72524</v>
+        <v>2.87017</v>
       </c>
       <c r="D99" t="n">
-        <v>1.34931</v>
+        <v>1.33838</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.64879</v>
+        <v>3.71503</v>
       </c>
       <c r="C100" t="n">
-        <v>2.89752</v>
+        <v>3.05228</v>
       </c>
       <c r="D100" t="n">
-        <v>1.43171</v>
+        <v>1.42318</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.87234</v>
+        <v>3.9696</v>
       </c>
       <c r="C101" t="n">
-        <v>3.10254</v>
+        <v>3.27852</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48687</v>
+        <v>1.48927</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.08405</v>
+        <v>4.2428</v>
       </c>
       <c r="C102" t="n">
-        <v>3.26527</v>
+        <v>3.52162</v>
       </c>
       <c r="D102" t="n">
-        <v>1.59347</v>
+        <v>1.59689</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.32591</v>
+        <v>4.53459</v>
       </c>
       <c r="C103" t="n">
-        <v>3.43837</v>
+        <v>3.78932</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67245</v>
+        <v>1.68933</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.60347</v>
+        <v>4.85058</v>
       </c>
       <c r="C104" t="n">
-        <v>3.62826</v>
+        <v>4.06087</v>
       </c>
       <c r="D104" t="n">
-        <v>1.77423</v>
+        <v>1.79549</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89102</v>
+        <v>5.1489</v>
       </c>
       <c r="C105" t="n">
-        <v>3.8532</v>
+        <v>4.34876</v>
       </c>
       <c r="D105" t="n">
-        <v>1.84697</v>
+        <v>1.87235</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.18866</v>
+        <v>5.49402</v>
       </c>
       <c r="C106" t="n">
-        <v>4.08223</v>
+        <v>4.65587</v>
       </c>
       <c r="D106" t="n">
-        <v>1.96826</v>
+        <v>2.00207</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.50706</v>
+        <v>5.85712</v>
       </c>
       <c r="C107" t="n">
-        <v>4.33687</v>
+        <v>4.97218</v>
       </c>
       <c r="D107" t="n">
-        <v>2.06184</v>
+        <v>2.11051</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.8334</v>
+        <v>6.22108</v>
       </c>
       <c r="C108" t="n">
-        <v>4.5922</v>
+        <v>5.29657</v>
       </c>
       <c r="D108" t="n">
-        <v>2.1636</v>
+        <v>2.22635</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.189</v>
+        <v>6.6194</v>
       </c>
       <c r="C109" t="n">
-        <v>4.89431</v>
+        <v>5.63773</v>
       </c>
       <c r="D109" t="n">
-        <v>2.27704</v>
+        <v>2.34741</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.53794</v>
+        <v>7.00616</v>
       </c>
       <c r="C110" t="n">
-        <v>5.18533</v>
+        <v>5.99403</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39346</v>
+        <v>2.47155</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.90922</v>
+        <v>7.44232</v>
       </c>
       <c r="C111" t="n">
-        <v>2.98951</v>
+        <v>3.18188</v>
       </c>
       <c r="D111" t="n">
-        <v>1.67014</v>
+        <v>1.6784</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.07846</v>
+        <v>4.21421</v>
       </c>
       <c r="C112" t="n">
-        <v>3.15695</v>
+        <v>3.42344</v>
       </c>
       <c r="D112" t="n">
-        <v>1.72811</v>
+        <v>1.74633</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.31241</v>
+        <v>4.44995</v>
       </c>
       <c r="C113" t="n">
-        <v>3.33061</v>
+        <v>3.60499</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81318</v>
+        <v>1.83198</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.52368</v>
+        <v>4.70166</v>
       </c>
       <c r="C114" t="n">
-        <v>3.5178</v>
+        <v>3.8527</v>
       </c>
       <c r="D114" t="n">
-        <v>1.90076</v>
+        <v>1.92432</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.76302</v>
+        <v>4.96879</v>
       </c>
       <c r="C115" t="n">
-        <v>3.701</v>
+        <v>4.09676</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97357</v>
+        <v>2.00609</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.01907</v>
+        <v>5.26014</v>
       </c>
       <c r="C116" t="n">
-        <v>3.91905</v>
+        <v>4.36793</v>
       </c>
       <c r="D116" t="n">
-        <v>2.06161</v>
+        <v>2.09994</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.28563</v>
+        <v>5.55877</v>
       </c>
       <c r="C117" t="n">
-        <v>4.1238</v>
+        <v>4.64495</v>
       </c>
       <c r="D117" t="n">
-        <v>2.1783</v>
+        <v>2.22045</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.57286</v>
+        <v>5.87917</v>
       </c>
       <c r="C118" t="n">
-        <v>4.3463</v>
+        <v>4.94003</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27831</v>
+        <v>2.33071</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.87055</v>
+        <v>6.2109</v>
       </c>
       <c r="C119" t="n">
-        <v>4.59742</v>
+        <v>5.25896</v>
       </c>
       <c r="D119" t="n">
-        <v>2.36376</v>
+        <v>2.42555</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.319758</v>
+        <v>0.31962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215626</v>
+        <v>0.214505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.229182</v>
+        <v>0.228887</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.333362</v>
+        <v>0.331979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221203</v>
+        <v>0.220719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235698</v>
+        <v>0.235097</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.345173</v>
+        <v>0.341959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227713</v>
+        <v>0.226006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246378</v>
+        <v>0.244949</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.353555</v>
+        <v>0.352273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233553</v>
+        <v>0.232061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253408</v>
+        <v>0.252027</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.365493</v>
+        <v>0.363648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240918</v>
+        <v>0.238831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260416</v>
+        <v>0.258803</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.378887</v>
+        <v>0.377853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.185706</v>
+        <v>0.187059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210893</v>
+        <v>0.211782</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.268406</v>
+        <v>0.272549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.193007</v>
+        <v>0.193194</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219277</v>
+        <v>0.219621</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280031</v>
+        <v>0.283502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199765</v>
+        <v>0.20041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.225787</v>
+        <v>0.22806</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.290766</v>
+        <v>0.294835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208899</v>
+        <v>0.209987</v>
       </c>
       <c r="D10" t="n">
-        <v>0.235568</v>
+        <v>0.237141</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300537</v>
+        <v>0.304969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21569</v>
+        <v>0.217549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243445</v>
+        <v>0.245975</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.313107</v>
+        <v>0.314594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223913</v>
+        <v>0.224995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252344</v>
+        <v>0.255167</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324777</v>
+        <v>0.329193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23299</v>
+        <v>0.236028</v>
       </c>
       <c r="D13" t="n">
-        <v>0.26302</v>
+        <v>0.265908</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.335442</v>
+        <v>0.337918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240275</v>
+        <v>0.242138</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270862</v>
+        <v>0.272754</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.345746</v>
+        <v>0.348743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245834</v>
+        <v>0.247108</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278174</v>
+        <v>0.279856</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.358536</v>
+        <v>0.360471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.253048</v>
+        <v>0.253893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.287705</v>
+        <v>0.288528</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.370237</v>
+        <v>0.372644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.258058</v>
+        <v>0.25882</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295532</v>
+        <v>0.296855</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.383229</v>
+        <v>0.384139</v>
       </c>
       <c r="C18" t="n">
-        <v>0.264468</v>
+        <v>0.264673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.302391</v>
+        <v>0.303595</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.395338</v>
+        <v>0.396023</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269159</v>
+        <v>0.269881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.309605</v>
+        <v>0.310326</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.405923</v>
+        <v>0.407079</v>
       </c>
       <c r="C20" t="n">
-        <v>0.275236</v>
+        <v>0.275532</v>
       </c>
       <c r="D20" t="n">
-        <v>0.318504</v>
+        <v>0.320092</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.421617</v>
+        <v>0.421859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215798</v>
+        <v>0.215433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249874</v>
+        <v>0.249287</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.305823</v>
+        <v>0.306078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222235</v>
+        <v>0.221666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25838</v>
+        <v>0.257831</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.315986</v>
+        <v>0.31625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228937</v>
+        <v>0.228778</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2661</v>
+        <v>0.264978</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.326495</v>
+        <v>0.326629</v>
       </c>
       <c r="C24" t="n">
-        <v>0.235814</v>
+        <v>0.235033</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273297</v>
+        <v>0.272865</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.336916</v>
+        <v>0.336956</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243283</v>
+        <v>0.242599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281528</v>
+        <v>0.281222</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.347695</v>
+        <v>0.348052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250078</v>
+        <v>0.249822</v>
       </c>
       <c r="D26" t="n">
-        <v>0.29009</v>
+        <v>0.28812</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.360004</v>
+        <v>0.360272</v>
       </c>
       <c r="C27" t="n">
-        <v>0.256734</v>
+        <v>0.256912</v>
       </c>
       <c r="D27" t="n">
-        <v>0.298312</v>
+        <v>0.297701</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.370812</v>
+        <v>0.370618</v>
       </c>
       <c r="C28" t="n">
-        <v>0.262901</v>
+        <v>0.262472</v>
       </c>
       <c r="D28" t="n">
-        <v>0.306189</v>
+        <v>0.30402</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383501</v>
+        <v>0.383962</v>
       </c>
       <c r="C29" t="n">
-        <v>0.26927</v>
+        <v>0.268729</v>
       </c>
       <c r="D29" t="n">
-        <v>0.315699</v>
+        <v>0.315301</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.394509</v>
+        <v>0.394527</v>
       </c>
       <c r="C30" t="n">
-        <v>0.273959</v>
+        <v>0.273348</v>
       </c>
       <c r="D30" t="n">
-        <v>0.322802</v>
+        <v>0.322095</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.405032</v>
+        <v>0.405206</v>
       </c>
       <c r="C31" t="n">
-        <v>0.278917</v>
+        <v>0.278508</v>
       </c>
       <c r="D31" t="n">
-        <v>0.33087</v>
+        <v>0.330268</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.41647</v>
+        <v>0.417132</v>
       </c>
       <c r="C32" t="n">
-        <v>0.285173</v>
+        <v>0.284488</v>
       </c>
       <c r="D32" t="n">
-        <v>0.339294</v>
+        <v>0.338565</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429465</v>
+        <v>0.429456</v>
       </c>
       <c r="C33" t="n">
-        <v>0.289719</v>
+        <v>0.289321</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346678</v>
+        <v>0.34538</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.440177</v>
+        <v>0.440675</v>
       </c>
       <c r="C34" t="n">
-        <v>0.295347</v>
+        <v>0.29469</v>
       </c>
       <c r="D34" t="n">
-        <v>0.354925</v>
+        <v>0.353968</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.452367</v>
+        <v>0.452866</v>
       </c>
       <c r="C35" t="n">
-        <v>0.227334</v>
+        <v>0.227049</v>
       </c>
       <c r="D35" t="n">
-        <v>0.26879</v>
+        <v>0.268781</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.317369</v>
+        <v>0.317642</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234246</v>
+        <v>0.234229</v>
       </c>
       <c r="D36" t="n">
-        <v>0.278043</v>
+        <v>0.278074</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.327008</v>
+        <v>0.327311</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240924</v>
+        <v>0.240752</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284779</v>
+        <v>0.284752</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.337656</v>
+        <v>0.338707</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247749</v>
+        <v>0.247656</v>
       </c>
       <c r="D38" t="n">
-        <v>0.293422</v>
+        <v>0.293463</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.348827</v>
+        <v>0.349275</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254099</v>
+        <v>0.254047</v>
       </c>
       <c r="D39" t="n">
-        <v>0.301929</v>
+        <v>0.302152</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.359593</v>
+        <v>0.36065</v>
       </c>
       <c r="C40" t="n">
-        <v>0.260264</v>
+        <v>0.260121</v>
       </c>
       <c r="D40" t="n">
-        <v>0.309876</v>
+        <v>0.309052</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.371466</v>
+        <v>0.371858</v>
       </c>
       <c r="C41" t="n">
-        <v>0.266957</v>
+        <v>0.266896</v>
       </c>
       <c r="D41" t="n">
-        <v>0.317983</v>
+        <v>0.317724</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.384359</v>
+        <v>0.384267</v>
       </c>
       <c r="C42" t="n">
-        <v>0.272854</v>
+        <v>0.272733</v>
       </c>
       <c r="D42" t="n">
-        <v>0.325207</v>
+        <v>0.325009</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.395795</v>
+        <v>0.39619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.278212</v>
+        <v>0.278273</v>
       </c>
       <c r="D43" t="n">
-        <v>0.333247</v>
+        <v>0.333392</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.406957</v>
+        <v>0.408278</v>
       </c>
       <c r="C44" t="n">
-        <v>0.283627</v>
+        <v>0.28362</v>
       </c>
       <c r="D44" t="n">
-        <v>0.342084</v>
+        <v>0.341739</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.419411</v>
+        <v>0.419482</v>
       </c>
       <c r="C45" t="n">
-        <v>0.288742</v>
+        <v>0.288697</v>
       </c>
       <c r="D45" t="n">
-        <v>0.350012</v>
+        <v>0.34969</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.430484</v>
+        <v>0.431366</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293446</v>
+        <v>0.293649</v>
       </c>
       <c r="D46" t="n">
-        <v>0.357176</v>
+        <v>0.357184</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.443584</v>
+        <v>0.443974</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297941</v>
+        <v>0.297713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.364395</v>
+        <v>0.363814</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.455768</v>
+        <v>0.456</v>
       </c>
       <c r="C48" t="n">
-        <v>0.303166</v>
+        <v>0.30314</v>
       </c>
       <c r="D48" t="n">
-        <v>0.372656</v>
+        <v>0.372541</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468227</v>
+        <v>0.46892</v>
       </c>
       <c r="C49" t="n">
-        <v>0.308416</v>
+        <v>0.308406</v>
       </c>
       <c r="D49" t="n">
-        <v>0.380325</v>
+        <v>0.381326</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.479954</v>
+        <v>0.480224</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238998</v>
+        <v>0.238886</v>
       </c>
       <c r="D50" t="n">
-        <v>0.272993</v>
+        <v>0.272773</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.332018</v>
+        <v>0.332017</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245653</v>
+        <v>0.245316</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281424</v>
+        <v>0.280893</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3433</v>
+        <v>0.343625</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252585</v>
+        <v>0.252483</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289412</v>
+        <v>0.289398</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3547</v>
+        <v>0.354943</v>
       </c>
       <c r="C53" t="n">
-        <v>0.259437</v>
+        <v>0.259234</v>
       </c>
       <c r="D53" t="n">
-        <v>0.296891</v>
+        <v>0.296855</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.366581</v>
+        <v>0.366841</v>
       </c>
       <c r="C54" t="n">
-        <v>0.266159</v>
+        <v>0.265978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.306207</v>
+        <v>0.305616</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.378502</v>
+        <v>0.379122</v>
       </c>
       <c r="C55" t="n">
-        <v>0.272411</v>
+        <v>0.272169</v>
       </c>
       <c r="D55" t="n">
-        <v>0.311966</v>
+        <v>0.311374</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.390742</v>
+        <v>0.391021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.278457</v>
+        <v>0.278179</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32191</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.402614</v>
+        <v>0.402838</v>
       </c>
       <c r="C57" t="n">
-        <v>0.283362</v>
+        <v>0.283198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329449</v>
+        <v>0.329581</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.413852</v>
+        <v>0.414412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.287784</v>
+        <v>0.288066</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336155</v>
+        <v>0.336451</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.424841</v>
+        <v>0.426236</v>
       </c>
       <c r="C59" t="n">
-        <v>0.292561</v>
+        <v>0.292875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.345587</v>
+        <v>0.344824</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.437412</v>
+        <v>0.437925</v>
       </c>
       <c r="C60" t="n">
-        <v>0.297252</v>
+        <v>0.297467</v>
       </c>
       <c r="D60" t="n">
-        <v>0.35279</v>
+        <v>0.352935</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.449539</v>
+        <v>0.449933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.302394</v>
+        <v>0.302518</v>
       </c>
       <c r="D61" t="n">
-        <v>0.362173</v>
+        <v>0.361149</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.462186</v>
+        <v>0.462031</v>
       </c>
       <c r="C62" t="n">
-        <v>0.307153</v>
+        <v>0.307323</v>
       </c>
       <c r="D62" t="n">
-        <v>0.369189</v>
+        <v>0.369328</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.47411</v>
+        <v>0.475029</v>
       </c>
       <c r="C63" t="n">
-        <v>0.312853</v>
+        <v>0.313455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.379831</v>
+        <v>0.379683</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.487607</v>
+        <v>0.488473</v>
       </c>
       <c r="C64" t="n">
-        <v>0.250606</v>
+        <v>0.249387</v>
       </c>
       <c r="D64" t="n">
-        <v>0.291485</v>
+        <v>0.290404</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.353148</v>
+        <v>0.356813</v>
       </c>
       <c r="C65" t="n">
-        <v>0.257766</v>
+        <v>0.256804</v>
       </c>
       <c r="D65" t="n">
-        <v>0.303208</v>
+        <v>0.302723</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.366354</v>
+        <v>0.369632</v>
       </c>
       <c r="C66" t="n">
-        <v>0.266031</v>
+        <v>0.264447</v>
       </c>
       <c r="D66" t="n">
-        <v>0.313011</v>
+        <v>0.313147</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38484</v>
+        <v>0.38965</v>
       </c>
       <c r="C67" t="n">
-        <v>0.27458</v>
+        <v>0.272941</v>
       </c>
       <c r="D67" t="n">
-        <v>0.322983</v>
+        <v>0.321899</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.40359</v>
+        <v>0.405941</v>
       </c>
       <c r="C68" t="n">
-        <v>0.283352</v>
+        <v>0.283162</v>
       </c>
       <c r="D68" t="n">
-        <v>0.33784</v>
+        <v>0.338083</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.42525</v>
+        <v>0.421368</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292589</v>
+        <v>0.293237</v>
       </c>
       <c r="D69" t="n">
-        <v>0.347944</v>
+        <v>0.349909</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.44901</v>
+        <v>0.444165</v>
       </c>
       <c r="C70" t="n">
-        <v>0.302289</v>
+        <v>0.303126</v>
       </c>
       <c r="D70" t="n">
-        <v>0.361938</v>
+        <v>0.364007</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.464436</v>
+        <v>0.468009</v>
       </c>
       <c r="C71" t="n">
-        <v>0.312403</v>
+        <v>0.313181</v>
       </c>
       <c r="D71" t="n">
-        <v>0.379343</v>
+        <v>0.378839</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.486362</v>
+        <v>0.491051</v>
       </c>
       <c r="C72" t="n">
-        <v>0.321788</v>
+        <v>0.323431</v>
       </c>
       <c r="D72" t="n">
-        <v>0.392355</v>
+        <v>0.393831</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.517712</v>
+        <v>0.513442</v>
       </c>
       <c r="C73" t="n">
-        <v>0.336132</v>
+        <v>0.333761</v>
       </c>
       <c r="D73" t="n">
-        <v>0.409301</v>
+        <v>0.407754</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.545646</v>
+        <v>0.544662</v>
       </c>
       <c r="C74" t="n">
-        <v>0.350652</v>
+        <v>0.348628</v>
       </c>
       <c r="D74" t="n">
-        <v>0.431256</v>
+        <v>0.42996</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.578186</v>
+        <v>0.571593</v>
       </c>
       <c r="C75" t="n">
-        <v>0.36652</v>
+        <v>0.361879</v>
       </c>
       <c r="D75" t="n">
-        <v>0.453785</v>
+        <v>0.44908</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.615865</v>
+        <v>0.611418</v>
       </c>
       <c r="C76" t="n">
-        <v>0.38607</v>
+        <v>0.382965</v>
       </c>
       <c r="D76" t="n">
-        <v>0.482352</v>
+        <v>0.477507</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.65632</v>
+        <v>0.648161</v>
       </c>
       <c r="C77" t="n">
-        <v>0.406487</v>
+        <v>0.401527</v>
       </c>
       <c r="D77" t="n">
-        <v>0.512085</v>
+        <v>0.504655</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.700452</v>
+        <v>0.68918</v>
       </c>
       <c r="C78" t="n">
-        <v>0.374019</v>
+        <v>0.366853</v>
       </c>
       <c r="D78" t="n">
-        <v>0.45556</v>
+        <v>0.448939</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6892239999999999</v>
+        <v>0.677946</v>
       </c>
       <c r="C79" t="n">
-        <v>0.395975</v>
+        <v>0.389784</v>
       </c>
       <c r="D79" t="n">
-        <v>0.489767</v>
+        <v>0.483547</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.730995</v>
+        <v>0.723244</v>
       </c>
       <c r="C80" t="n">
-        <v>0.419962</v>
+        <v>0.414237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.523575</v>
+        <v>0.516718</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.775926</v>
+        <v>0.773018</v>
       </c>
       <c r="C81" t="n">
-        <v>0.444736</v>
+        <v>0.439545</v>
       </c>
       <c r="D81" t="n">
-        <v>0.550441</v>
+        <v>0.545898</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.820258</v>
+        <v>0.820035</v>
       </c>
       <c r="C82" t="n">
-        <v>0.470429</v>
+        <v>0.466157</v>
       </c>
       <c r="D82" t="n">
-        <v>0.581004</v>
+        <v>0.575888</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.869355</v>
+        <v>0.872088</v>
       </c>
       <c r="C83" t="n">
-        <v>0.496646</v>
+        <v>0.493865</v>
       </c>
       <c r="D83" t="n">
-        <v>0.616093</v>
+        <v>0.613409</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.922202</v>
+        <v>0.925186</v>
       </c>
       <c r="C84" t="n">
-        <v>0.52166</v>
+        <v>0.525085</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6590510000000001</v>
+        <v>0.659296</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.972136</v>
+        <v>0.9797979999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.551493</v>
+        <v>0.552512</v>
       </c>
       <c r="D85" t="n">
-        <v>0.699481</v>
+        <v>0.699931</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02724</v>
+        <v>1.03597</v>
       </c>
       <c r="C86" t="n">
-        <v>0.582392</v>
+        <v>0.58362</v>
       </c>
       <c r="D86" t="n">
-        <v>0.742025</v>
+        <v>0.743457</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08453</v>
+        <v>1.09342</v>
       </c>
       <c r="C87" t="n">
-        <v>0.613128</v>
+        <v>0.614227</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7820780000000001</v>
+        <v>0.783726</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.14409</v>
+        <v>1.15183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.643561</v>
+        <v>0.646049</v>
       </c>
       <c r="D88" t="n">
-        <v>0.826184</v>
+        <v>0.8274629999999999</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.20404</v>
+        <v>1.21393</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6762320000000001</v>
+        <v>0.678972</v>
       </c>
       <c r="D89" t="n">
-        <v>0.869713</v>
+        <v>0.875498</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.26471</v>
+        <v>1.27625</v>
       </c>
       <c r="C90" t="n">
-        <v>0.71069</v>
+        <v>0.714008</v>
       </c>
       <c r="D90" t="n">
-        <v>0.917017</v>
+        <v>0.919436</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32893</v>
+        <v>1.34034</v>
       </c>
       <c r="C91" t="n">
-        <v>0.746012</v>
+        <v>0.750394</v>
       </c>
       <c r="D91" t="n">
-        <v>0.965546</v>
+        <v>0.968552</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39404</v>
+        <v>1.40611</v>
       </c>
       <c r="C92" t="n">
-        <v>0.646138</v>
+        <v>0.649931</v>
       </c>
       <c r="D92" t="n">
-        <v>0.858033</v>
+        <v>0.861456</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.17893</v>
+        <v>1.18945</v>
       </c>
       <c r="C93" t="n">
-        <v>0.668214</v>
+        <v>0.671943</v>
       </c>
       <c r="D93" t="n">
-        <v>0.900302</v>
+        <v>0.904861</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.21761</v>
+        <v>1.22979</v>
       </c>
       <c r="C94" t="n">
-        <v>0.689725</v>
+        <v>0.695093</v>
       </c>
       <c r="D94" t="n">
-        <v>0.931038</v>
+        <v>0.935734</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25882</v>
+        <v>1.27154</v>
       </c>
       <c r="C95" t="n">
-        <v>0.713706</v>
+        <v>0.718552</v>
       </c>
       <c r="D95" t="n">
-        <v>0.962183</v>
+        <v>0.969529</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.30177</v>
+        <v>1.31445</v>
       </c>
       <c r="C96" t="n">
-        <v>0.737196</v>
+        <v>0.744057</v>
       </c>
       <c r="D96" t="n">
-        <v>0.997866</v>
+        <v>1.00507</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34658</v>
+        <v>1.35883</v>
       </c>
       <c r="C97" t="n">
-        <v>0.762859</v>
+        <v>0.768949</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05182</v>
+        <v>1.05884</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.39249</v>
+        <v>1.40633</v>
       </c>
       <c r="C98" t="n">
-        <v>0.78911</v>
+        <v>0.7949000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.086</v>
+        <v>1.0916</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.44016</v>
+        <v>1.45568</v>
       </c>
       <c r="C99" t="n">
-        <v>0.814953</v>
+        <v>0.822125</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13138</v>
+        <v>1.13801</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.4911</v>
+        <v>1.50532</v>
       </c>
       <c r="C100" t="n">
-        <v>0.842832</v>
+        <v>0.850634</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17571</v>
+        <v>1.185</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.54082</v>
+        <v>1.55648</v>
       </c>
       <c r="C101" t="n">
-        <v>0.871234</v>
+        <v>0.878742</v>
       </c>
       <c r="D101" t="n">
-        <v>1.22106</v>
+        <v>1.23265</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.59486</v>
+        <v>1.61048</v>
       </c>
       <c r="C102" t="n">
-        <v>0.901074</v>
+        <v>0.908693</v>
       </c>
       <c r="D102" t="n">
-        <v>1.27828</v>
+        <v>1.28322</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.64868</v>
+        <v>1.66452</v>
       </c>
       <c r="C103" t="n">
-        <v>0.931968</v>
+        <v>0.940316</v>
       </c>
       <c r="D103" t="n">
-        <v>1.32214</v>
+        <v>1.33466</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.70777</v>
+        <v>1.72292</v>
       </c>
       <c r="C104" t="n">
-        <v>0.965048</v>
+        <v>0.973295</v>
       </c>
       <c r="D104" t="n">
-        <v>1.37396</v>
+        <v>1.38758</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.76601</v>
+        <v>1.78255</v>
       </c>
       <c r="C105" t="n">
-        <v>0.998572</v>
+        <v>1.00877</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42688</v>
+        <v>1.44234</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82799</v>
+        <v>1.8449</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03485</v>
+        <v>1.04511</v>
       </c>
       <c r="D106" t="n">
-        <v>1.48189</v>
+        <v>1.49823</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.43711</v>
+        <v>1.4526</v>
       </c>
       <c r="C107" t="n">
-        <v>0.83469</v>
+        <v>0.842589</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21354</v>
+        <v>1.22625</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.47096</v>
+        <v>1.48998</v>
       </c>
       <c r="C108" t="n">
-        <v>0.854901</v>
+        <v>0.862685</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24985</v>
+        <v>1.26436</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.51194</v>
+        <v>1.52551</v>
       </c>
       <c r="C109" t="n">
-        <v>0.876281</v>
+        <v>0.885579</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2951</v>
+        <v>1.31064</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.54898</v>
+        <v>1.56515</v>
       </c>
       <c r="C110" t="n">
-        <v>0.899411</v>
+        <v>0.907983</v>
       </c>
       <c r="D110" t="n">
-        <v>1.33721</v>
+        <v>1.3525</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.59345</v>
+        <v>1.61125</v>
       </c>
       <c r="C111" t="n">
-        <v>0.922735</v>
+        <v>0.931845</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37406</v>
+        <v>1.39131</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.63756</v>
+        <v>1.65593</v>
       </c>
       <c r="C112" t="n">
-        <v>0.946738</v>
+        <v>0.956522</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42048</v>
+        <v>1.439</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.68203</v>
+        <v>1.69988</v>
       </c>
       <c r="C113" t="n">
-        <v>0.971614</v>
+        <v>0.980862</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47064</v>
+        <v>1.48741</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.72935</v>
+        <v>1.74779</v>
       </c>
       <c r="C114" t="n">
-        <v>0.997951</v>
+        <v>1.00681</v>
       </c>
       <c r="D114" t="n">
-        <v>1.51384</v>
+        <v>1.53254</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77806</v>
+        <v>1.79644</v>
       </c>
       <c r="C115" t="n">
-        <v>1.02373</v>
+        <v>1.03284</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57481</v>
+        <v>1.5841</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83086</v>
+        <v>1.84592</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05287</v>
+        <v>1.06163</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62213</v>
+        <v>1.63712</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88567</v>
+        <v>1.90317</v>
       </c>
       <c r="C117" t="n">
-        <v>1.08261</v>
+        <v>1.09223</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67581</v>
+        <v>1.69196</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.94122</v>
+        <v>1.95962</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11325</v>
+        <v>1.1222</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72617</v>
+        <v>1.74332</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.99482</v>
+        <v>2.01405</v>
       </c>
       <c r="C119" t="n">
-        <v>1.14587</v>
+        <v>1.15643</v>
       </c>
       <c r="D119" t="n">
-        <v>1.78073</v>
+        <v>1.79799</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.215068</v>
+        <v>0.210924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.148531</v>
+        <v>0.14538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129945</v>
+        <v>0.127844</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.224002</v>
+        <v>0.2203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.152191</v>
+        <v>0.149336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.133294</v>
+        <v>0.130187</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231897</v>
+        <v>0.228945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15944</v>
+        <v>0.156976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134567</v>
+        <v>0.132585</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240335</v>
+        <v>0.23837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.166428</v>
+        <v>0.164339</v>
       </c>
       <c r="D5" t="n">
-        <v>0.136113</v>
+        <v>0.134816</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.252607</v>
+        <v>0.250734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.174479</v>
+        <v>0.172682</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139906</v>
+        <v>0.136817</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.263118</v>
+        <v>0.262156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.136623</v>
+        <v>0.13951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.129947</v>
+        <v>0.131911</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.180878</v>
+        <v>0.184468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138835</v>
+        <v>0.141967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131998</v>
+        <v>0.132313</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186499</v>
+        <v>0.188687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147997</v>
+        <v>0.149995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.134024</v>
+        <v>0.136149</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.194346</v>
+        <v>0.196374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.151913</v>
+        <v>0.152507</v>
       </c>
       <c r="D10" t="n">
-        <v>0.136674</v>
+        <v>0.138887</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.202724</v>
+        <v>0.203746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.155753</v>
+        <v>0.157547</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1391</v>
+        <v>0.141516</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.209958</v>
+        <v>0.211694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.16268</v>
+        <v>0.164537</v>
       </c>
       <c r="D12" t="n">
-        <v>0.141555</v>
+        <v>0.143126</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218059</v>
+        <v>0.217804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169104</v>
+        <v>0.171084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.143505</v>
+        <v>0.146213</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.228047</v>
+        <v>0.230776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.177102</v>
+        <v>0.17884</v>
       </c>
       <c r="D14" t="n">
-        <v>0.145094</v>
+        <v>0.149609</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.235877</v>
+        <v>0.23786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183758</v>
+        <v>0.185417</v>
       </c>
       <c r="D15" t="n">
-        <v>0.149607</v>
+        <v>0.151421</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.24702</v>
+        <v>0.248205</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193599</v>
+        <v>0.195667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.153146</v>
+        <v>0.153642</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259736</v>
+        <v>0.260383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202326</v>
+        <v>0.203744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.156369</v>
+        <v>0.158077</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268616</v>
+        <v>0.269081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210516</v>
+        <v>0.211765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161491</v>
+        <v>0.160266</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.280459</v>
+        <v>0.280652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.218592</v>
+        <v>0.218874</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164824</v>
+        <v>0.167346</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.294212</v>
+        <v>0.294586</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229918</v>
+        <v>0.230722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169027</v>
+        <v>0.1723</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.306947</v>
+        <v>0.30632</v>
       </c>
       <c r="C21" t="n">
-        <v>0.175547</v>
+        <v>0.177183</v>
       </c>
       <c r="D21" t="n">
-        <v>0.155624</v>
+        <v>0.155661</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.219387</v>
+        <v>0.219292</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183548</v>
+        <v>0.184058</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158416</v>
+        <v>0.158554</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226901</v>
+        <v>0.226937</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190131</v>
+        <v>0.190078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161432</v>
+        <v>0.161303</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234582</v>
+        <v>0.23458</v>
       </c>
       <c r="C24" t="n">
-        <v>0.194187</v>
+        <v>0.194878</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16441</v>
+        <v>0.164298</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.241783</v>
+        <v>0.241763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.200983</v>
+        <v>0.201057</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167368</v>
+        <v>0.167417</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.250352</v>
+        <v>0.250373</v>
       </c>
       <c r="C26" t="n">
-        <v>0.208253</v>
+        <v>0.208291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171396</v>
+        <v>0.171444</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.25798</v>
+        <v>0.257753</v>
       </c>
       <c r="C27" t="n">
-        <v>0.212827</v>
+        <v>0.213334</v>
       </c>
       <c r="D27" t="n">
-        <v>0.174054</v>
+        <v>0.174298</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.266904</v>
+        <v>0.26704</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219039</v>
+        <v>0.219356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177693</v>
+        <v>0.177991</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.276848</v>
+        <v>0.276913</v>
       </c>
       <c r="C29" t="n">
-        <v>0.225879</v>
+        <v>0.225523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181472</v>
+        <v>0.181354</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.285658</v>
+        <v>0.285697</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233303</v>
+        <v>0.233284</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184874</v>
+        <v>0.185234</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296812</v>
+        <v>0.296768</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238735</v>
+        <v>0.23844</v>
       </c>
       <c r="D31" t="n">
-        <v>0.188517</v>
+        <v>0.188441</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.305919</v>
+        <v>0.30574</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248185</v>
+        <v>0.247564</v>
       </c>
       <c r="D32" t="n">
-        <v>0.19294</v>
+        <v>0.192919</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.318583</v>
+        <v>0.318185</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254369</v>
+        <v>0.254914</v>
       </c>
       <c r="D33" t="n">
-        <v>0.197978</v>
+        <v>0.197431</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.330128</v>
+        <v>0.329921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.264424</v>
+        <v>0.264352</v>
       </c>
       <c r="D34" t="n">
-        <v>0.201972</v>
+        <v>0.201466</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.341916</v>
+        <v>0.342038</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19438</v>
+        <v>0.194955</v>
       </c>
       <c r="D35" t="n">
-        <v>0.174314</v>
+        <v>0.174526</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238178</v>
+        <v>0.238348</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200649</v>
+        <v>0.200933</v>
       </c>
       <c r="D36" t="n">
-        <v>0.177615</v>
+        <v>0.177763</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243954</v>
+        <v>0.243963</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205455</v>
+        <v>0.205454</v>
       </c>
       <c r="D37" t="n">
-        <v>0.180177</v>
+        <v>0.180329</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.252023</v>
+        <v>0.252066</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211006</v>
+        <v>0.211173</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182982</v>
+        <v>0.183182</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.257959</v>
+        <v>0.257872</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216746</v>
+        <v>0.216901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186456</v>
+        <v>0.186488</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.266991</v>
+        <v>0.267251</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223056</v>
+        <v>0.222625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.18993</v>
+        <v>0.19028</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.274631</v>
+        <v>0.274818</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228664</v>
+        <v>0.228729</v>
       </c>
       <c r="D41" t="n">
-        <v>0.192371</v>
+        <v>0.192655</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282548</v>
+        <v>0.282</v>
       </c>
       <c r="C42" t="n">
-        <v>0.232832</v>
+        <v>0.233158</v>
       </c>
       <c r="D42" t="n">
-        <v>0.195499</v>
+        <v>0.195469</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.290768</v>
+        <v>0.290791</v>
       </c>
       <c r="C43" t="n">
-        <v>0.239432</v>
+        <v>0.239659</v>
       </c>
       <c r="D43" t="n">
-        <v>0.198923</v>
+        <v>0.198955</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.300351</v>
+        <v>0.300298</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24658</v>
+        <v>0.24664</v>
       </c>
       <c r="D44" t="n">
-        <v>0.202707</v>
+        <v>0.202977</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310952</v>
+        <v>0.311059</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254009</v>
+        <v>0.254024</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207464</v>
+        <v>0.207728</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.322043</v>
+        <v>0.321867</v>
       </c>
       <c r="C46" t="n">
-        <v>0.261269</v>
+        <v>0.261309</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210191</v>
+        <v>0.210212</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.331882</v>
+        <v>0.331639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.268699</v>
+        <v>0.268965</v>
       </c>
       <c r="D47" t="n">
-        <v>0.215062</v>
+        <v>0.215488</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.342179</v>
+        <v>0.341954</v>
       </c>
       <c r="C48" t="n">
-        <v>0.277063</v>
+        <v>0.276983</v>
       </c>
       <c r="D48" t="n">
-        <v>0.219455</v>
+        <v>0.219963</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.352812</v>
+        <v>0.352751</v>
       </c>
       <c r="C49" t="n">
-        <v>0.285259</v>
+        <v>0.285085</v>
       </c>
       <c r="D49" t="n">
-        <v>0.224566</v>
+        <v>0.224584</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.366988</v>
+        <v>0.366595</v>
       </c>
       <c r="C50" t="n">
-        <v>0.207292</v>
+        <v>0.207151</v>
       </c>
       <c r="D50" t="n">
-        <v>0.179428</v>
+        <v>0.179661</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.252848</v>
+        <v>0.252933</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212243</v>
+        <v>0.212244</v>
       </c>
       <c r="D51" t="n">
-        <v>0.182016</v>
+        <v>0.182259</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.260397</v>
+        <v>0.260461</v>
       </c>
       <c r="C52" t="n">
-        <v>0.217346</v>
+        <v>0.217345</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185116</v>
+        <v>0.185222</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.266138</v>
+        <v>0.266196</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223522</v>
+        <v>0.224433</v>
       </c>
       <c r="D53" t="n">
-        <v>0.188814</v>
+        <v>0.188751</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.274831</v>
+        <v>0.27461</v>
       </c>
       <c r="C54" t="n">
-        <v>0.229299</v>
+        <v>0.229525</v>
       </c>
       <c r="D54" t="n">
-        <v>0.191831</v>
+        <v>0.191966</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283294</v>
+        <v>0.28296</v>
       </c>
       <c r="C55" t="n">
-        <v>0.235951</v>
+        <v>0.235841</v>
       </c>
       <c r="D55" t="n">
-        <v>0.195635</v>
+        <v>0.195588</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.290985</v>
+        <v>0.291129</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240655</v>
+        <v>0.240599</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198489</v>
+        <v>0.198554</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.30111</v>
+        <v>0.301021</v>
       </c>
       <c r="C57" t="n">
-        <v>0.247679</v>
+        <v>0.247671</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201759</v>
+        <v>0.201756</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31023</v>
+        <v>0.310502</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255061</v>
+        <v>0.255018</v>
       </c>
       <c r="D58" t="n">
-        <v>0.205839</v>
+        <v>0.205882</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.322417</v>
+        <v>0.322297</v>
       </c>
       <c r="C59" t="n">
-        <v>0.261084</v>
+        <v>0.261187</v>
       </c>
       <c r="D59" t="n">
-        <v>0.20956</v>
+        <v>0.209676</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.331246</v>
+        <v>0.330998</v>
       </c>
       <c r="C60" t="n">
-        <v>0.267286</v>
+        <v>0.26818</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212958</v>
+        <v>0.213033</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.342104</v>
+        <v>0.342281</v>
       </c>
       <c r="C61" t="n">
-        <v>0.276684</v>
+        <v>0.276577</v>
       </c>
       <c r="D61" t="n">
-        <v>0.217326</v>
+        <v>0.217414</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.352529</v>
+        <v>0.353321</v>
       </c>
       <c r="C62" t="n">
-        <v>0.284587</v>
+        <v>0.284937</v>
       </c>
       <c r="D62" t="n">
-        <v>0.220689</v>
+        <v>0.221184</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.36409</v>
+        <v>0.365523</v>
       </c>
       <c r="C63" t="n">
-        <v>0.293128</v>
+        <v>0.294011</v>
       </c>
       <c r="D63" t="n">
-        <v>0.226434</v>
+        <v>0.22639</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.376484</v>
+        <v>0.37896</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227206</v>
+        <v>0.230084</v>
       </c>
       <c r="D64" t="n">
-        <v>0.194342</v>
+        <v>0.195098</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279103</v>
+        <v>0.284189</v>
       </c>
       <c r="C65" t="n">
-        <v>0.232892</v>
+        <v>0.235219</v>
       </c>
       <c r="D65" t="n">
-        <v>0.195563</v>
+        <v>0.195776</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.289407</v>
+        <v>0.29714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241343</v>
+        <v>0.245063</v>
       </c>
       <c r="D66" t="n">
-        <v>0.200436</v>
+        <v>0.201462</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.301391</v>
+        <v>0.311832</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249938</v>
+        <v>0.255554</v>
       </c>
       <c r="D67" t="n">
-        <v>0.20457</v>
+        <v>0.205233</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.313449</v>
+        <v>0.324697</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259747</v>
+        <v>0.265609</v>
       </c>
       <c r="D68" t="n">
-        <v>0.210232</v>
+        <v>0.211058</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335019</v>
+        <v>0.344776</v>
       </c>
       <c r="C69" t="n">
-        <v>0.269709</v>
+        <v>0.279036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.214342</v>
+        <v>0.216345</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.34947</v>
+        <v>0.361369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.279855</v>
+        <v>0.290495</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219902</v>
+        <v>0.222241</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365967</v>
+        <v>0.379291</v>
       </c>
       <c r="C71" t="n">
-        <v>0.295407</v>
+        <v>0.303746</v>
       </c>
       <c r="D71" t="n">
-        <v>0.227277</v>
+        <v>0.229529</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.383022</v>
+        <v>0.399677</v>
       </c>
       <c r="C72" t="n">
-        <v>0.30838</v>
+        <v>0.317274</v>
       </c>
       <c r="D72" t="n">
-        <v>0.232534</v>
+        <v>0.236729</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406594</v>
+        <v>0.425639</v>
       </c>
       <c r="C73" t="n">
-        <v>0.325676</v>
+        <v>0.337453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.239323</v>
+        <v>0.244598</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.434015</v>
+        <v>0.451745</v>
       </c>
       <c r="C74" t="n">
-        <v>0.346606</v>
+        <v>0.357444</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247992</v>
+        <v>0.252932</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.475357</v>
+        <v>0.483298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.37655</v>
+        <v>0.380997</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259784</v>
+        <v>0.263783</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.511794</v>
+        <v>0.518881</v>
       </c>
       <c r="C76" t="n">
-        <v>0.401459</v>
+        <v>0.408444</v>
       </c>
       <c r="D76" t="n">
-        <v>0.270036</v>
+        <v>0.272986</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.55188</v>
+        <v>0.57025</v>
       </c>
       <c r="C77" t="n">
-        <v>0.431158</v>
+        <v>0.443155</v>
       </c>
       <c r="D77" t="n">
-        <v>0.283226</v>
+        <v>0.286601</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.606189</v>
+        <v>0.62207</v>
       </c>
       <c r="C78" t="n">
-        <v>0.387163</v>
+        <v>0.391279</v>
       </c>
       <c r="D78" t="n">
-        <v>0.253849</v>
+        <v>0.259431</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.547965</v>
+        <v>0.555256</v>
       </c>
       <c r="C79" t="n">
-        <v>0.417777</v>
+        <v>0.424245</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26923</v>
+        <v>0.274059</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.592932</v>
+        <v>0.600088</v>
       </c>
       <c r="C80" t="n">
-        <v>0.448519</v>
+        <v>0.453549</v>
       </c>
       <c r="D80" t="n">
-        <v>0.282731</v>
+        <v>0.289114</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.638006</v>
+        <v>0.646275</v>
       </c>
       <c r="C81" t="n">
-        <v>0.487234</v>
+        <v>0.490094</v>
       </c>
       <c r="D81" t="n">
-        <v>0.300284</v>
+        <v>0.304279</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.691145</v>
+        <v>0.6945249999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523933</v>
+        <v>0.528132</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320371</v>
+        <v>0.325033</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.745291</v>
+        <v>0.753102</v>
       </c>
       <c r="C83" t="n">
-        <v>0.564334</v>
+        <v>0.569491</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338859</v>
+        <v>0.341778</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.805387</v>
+        <v>0.810109</v>
       </c>
       <c r="C84" t="n">
-        <v>0.60965</v>
+        <v>0.614098</v>
       </c>
       <c r="D84" t="n">
-        <v>0.361534</v>
+        <v>0.366073</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.866165</v>
+        <v>0.872435</v>
       </c>
       <c r="C85" t="n">
-        <v>0.65377</v>
+        <v>0.660645</v>
       </c>
       <c r="D85" t="n">
-        <v>0.389266</v>
+        <v>0.391353</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.928671</v>
+        <v>0.9365830000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.700098</v>
+        <v>0.70586</v>
       </c>
       <c r="D86" t="n">
-        <v>0.417747</v>
+        <v>0.422322</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.994198</v>
+        <v>1.00029</v>
       </c>
       <c r="C87" t="n">
-        <v>0.753103</v>
+        <v>0.760078</v>
       </c>
       <c r="D87" t="n">
-        <v>0.44418</v>
+        <v>0.448524</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06719</v>
+        <v>1.07524</v>
       </c>
       <c r="C88" t="n">
-        <v>0.805762</v>
+        <v>0.811354</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472464</v>
+        <v>0.477708</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.14088</v>
+        <v>1.14785</v>
       </c>
       <c r="C89" t="n">
-        <v>0.862856</v>
+        <v>0.867135</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506475</v>
+        <v>0.510009</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.21704</v>
+        <v>1.22459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.914199</v>
+        <v>0.921627</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5384</v>
+        <v>0.542203</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.29982</v>
+        <v>1.30757</v>
       </c>
       <c r="C91" t="n">
-        <v>0.990546</v>
+        <v>0.981383</v>
       </c>
       <c r="D91" t="n">
-        <v>0.578135</v>
+        <v>0.582407</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.38621</v>
+        <v>1.39279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.816674</v>
+        <v>0.823277</v>
       </c>
       <c r="D92" t="n">
-        <v>0.57177</v>
+        <v>0.579121</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.07338</v>
+        <v>1.08127</v>
       </c>
       <c r="C93" t="n">
-        <v>0.850148</v>
+        <v>0.85625</v>
       </c>
       <c r="D93" t="n">
-        <v>0.594475</v>
+        <v>0.600877</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.12069</v>
+        <v>1.12653</v>
       </c>
       <c r="C94" t="n">
-        <v>0.887092</v>
+        <v>0.892923</v>
       </c>
       <c r="D94" t="n">
-        <v>0.619065</v>
+        <v>0.625252</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.16296</v>
+        <v>1.172</v>
       </c>
       <c r="C95" t="n">
-        <v>0.920827</v>
+        <v>0.927557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.643734</v>
+        <v>0.6514720000000001</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2172</v>
+        <v>1.23007</v>
       </c>
       <c r="C96" t="n">
-        <v>0.961013</v>
+        <v>0.968035</v>
       </c>
       <c r="D96" t="n">
-        <v>0.672355</v>
+        <v>0.679431</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.27718</v>
+        <v>1.27721</v>
       </c>
       <c r="C97" t="n">
-        <v>0.999186</v>
+        <v>1.00577</v>
       </c>
       <c r="D97" t="n">
-        <v>0.694174</v>
+        <v>0.702421</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.33229</v>
+        <v>1.33012</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04181</v>
+        <v>1.04754</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7249679999999999</v>
+        <v>0.731839</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.37644</v>
+        <v>1.3756</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0832</v>
+        <v>1.09091</v>
       </c>
       <c r="D99" t="n">
-        <v>0.752501</v>
+        <v>0.759287</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.42283</v>
+        <v>1.4295</v>
       </c>
       <c r="C100" t="n">
-        <v>1.12985</v>
+        <v>1.13444</v>
       </c>
       <c r="D100" t="n">
-        <v>0.780054</v>
+        <v>0.785996</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.47509</v>
+        <v>1.49259</v>
       </c>
       <c r="C101" t="n">
-        <v>1.17343</v>
+        <v>1.18368</v>
       </c>
       <c r="D101" t="n">
-        <v>0.807856</v>
+        <v>0.8136640000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.54165</v>
+        <v>1.5565</v>
       </c>
       <c r="C102" t="n">
-        <v>1.22043</v>
+        <v>1.23207</v>
       </c>
       <c r="D102" t="n">
-        <v>0.839453</v>
+        <v>0.844984</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.61091</v>
+        <v>1.62527</v>
       </c>
       <c r="C103" t="n">
-        <v>1.27459</v>
+        <v>1.27877</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8721640000000001</v>
+        <v>0.880647</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.68465</v>
+        <v>1.7037</v>
       </c>
       <c r="C104" t="n">
-        <v>1.30939</v>
+        <v>1.32323</v>
       </c>
       <c r="D104" t="n">
-        <v>0.903656</v>
+        <v>0.913073</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.7591</v>
+        <v>1.78032</v>
       </c>
       <c r="C105" t="n">
-        <v>1.35768</v>
+        <v>1.36815</v>
       </c>
       <c r="D105" t="n">
-        <v>0.941133</v>
+        <v>0.949707</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.8436</v>
+        <v>1.86206</v>
       </c>
       <c r="C106" t="n">
-        <v>1.41328</v>
+        <v>1.42545</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9728560000000001</v>
+        <v>0.980697</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.28545</v>
+        <v>1.29575</v>
       </c>
       <c r="C107" t="n">
-        <v>1.05947</v>
+        <v>1.0772</v>
       </c>
       <c r="D107" t="n">
-        <v>0.853615</v>
+        <v>0.857187</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.33007</v>
+        <v>1.34048</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1026</v>
+        <v>1.11018</v>
       </c>
       <c r="D108" t="n">
-        <v>0.876393</v>
+        <v>0.87993</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37641</v>
+        <v>1.39</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1247</v>
+        <v>1.13087</v>
       </c>
       <c r="D109" t="n">
-        <v>0.89769</v>
+        <v>0.899583</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.43022</v>
+        <v>1.44526</v>
       </c>
       <c r="C110" t="n">
-        <v>1.14668</v>
+        <v>1.15944</v>
       </c>
       <c r="D110" t="n">
-        <v>0.919471</v>
+        <v>0.922345</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.47997</v>
+        <v>1.4949</v>
       </c>
       <c r="C111" t="n">
-        <v>1.18611</v>
+        <v>1.19581</v>
       </c>
       <c r="D111" t="n">
-        <v>0.944832</v>
+        <v>0.949356</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.5358</v>
+        <v>1.55127</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22075</v>
+        <v>1.23625</v>
       </c>
       <c r="D112" t="n">
-        <v>0.972952</v>
+        <v>0.977998</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.59565</v>
+        <v>1.60781</v>
       </c>
       <c r="C113" t="n">
-        <v>1.26225</v>
+        <v>1.27385</v>
       </c>
       <c r="D113" t="n">
-        <v>0.997664</v>
+        <v>1.0033</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.65572</v>
+        <v>1.67041</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30616</v>
+        <v>1.31051</v>
       </c>
       <c r="D114" t="n">
-        <v>1.02689</v>
+        <v>1.02981</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.71867</v>
+        <v>1.73526</v>
       </c>
       <c r="C115" t="n">
-        <v>1.34496</v>
+        <v>1.35571</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05818</v>
+        <v>1.06261</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.78653</v>
+        <v>1.80154</v>
       </c>
       <c r="C116" t="n">
-        <v>1.39605</v>
+        <v>1.40466</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08719</v>
+        <v>1.09161</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.85832</v>
+        <v>1.87443</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43869</v>
+        <v>1.45177</v>
       </c>
       <c r="D117" t="n">
-        <v>1.11768</v>
+        <v>1.1227</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.93122</v>
+        <v>1.94894</v>
       </c>
       <c r="C118" t="n">
-        <v>1.49108</v>
+        <v>1.50356</v>
       </c>
       <c r="D118" t="n">
-        <v>1.15053</v>
+        <v>1.15725</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.00944</v>
+        <v>2.02927</v>
       </c>
       <c r="C119" t="n">
-        <v>1.54197</v>
+        <v>1.55478</v>
       </c>
       <c r="D119" t="n">
-        <v>1.1845</v>
+        <v>1.19248</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.57806</v>
+        <v>0.577258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.397321</v>
+        <v>0.391308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.232994</v>
+        <v>0.23095</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.605432</v>
+        <v>0.598189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.418519</v>
+        <v>0.406675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247473</v>
+        <v>0.246765</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.62934</v>
+        <v>0.624712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.438539</v>
+        <v>0.428643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257324</v>
+        <v>0.254517</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.660898</v>
+        <v>0.651207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.463825</v>
+        <v>0.446541</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269656</v>
+        <v>0.265303</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.685654</v>
+        <v>0.675529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.480877</v>
+        <v>0.468223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.278032</v>
+        <v>0.273525</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.716819</v>
+        <v>0.7125860000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5039940000000001</v>
+        <v>0.486961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.282596</v>
+        <v>0.28007</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.746873</v>
+        <v>0.740195</v>
       </c>
       <c r="C8" t="n">
-        <v>0.517808</v>
+        <v>0.520053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.290915</v>
+        <v>0.288196</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.776934</v>
+        <v>0.7731789999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.543021</v>
+        <v>0.539001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.300862</v>
+        <v>0.30047</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.818179</v>
+        <v>0.812268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.571313</v>
+        <v>0.577468</v>
       </c>
       <c r="D10" t="n">
-        <v>0.313149</v>
+        <v>0.314718</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.84444</v>
+        <v>0.846611</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370749</v>
+        <v>0.375189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2252</v>
+        <v>0.228865</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5248969999999999</v>
+        <v>0.533548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.390872</v>
+        <v>0.399706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.235234</v>
+        <v>0.236274</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.544291</v>
+        <v>0.551199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.413077</v>
+        <v>0.423497</v>
       </c>
       <c r="D13" t="n">
-        <v>0.242356</v>
+        <v>0.244813</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.572085</v>
+        <v>0.584901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.436626</v>
+        <v>0.44469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249973</v>
+        <v>0.253228</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.601584</v>
+        <v>0.607729</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464909</v>
+        <v>0.479134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.260878</v>
+        <v>0.266932</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.641173</v>
+        <v>0.6535840000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.493042</v>
+        <v>0.506736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.273501</v>
+        <v>0.279123</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.674504</v>
+        <v>0.681435</v>
       </c>
       <c r="C17" t="n">
-        <v>0.525928</v>
+        <v>0.535686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284114</v>
+        <v>0.286016</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.714998</v>
+        <v>0.725367</v>
       </c>
       <c r="C18" t="n">
-        <v>0.562297</v>
+        <v>0.5680539999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295899</v>
+        <v>0.300786</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.756114</v>
+        <v>0.762068</v>
       </c>
       <c r="C19" t="n">
-        <v>0.591252</v>
+        <v>0.600108</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307805</v>
+        <v>0.310481</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.793351</v>
+        <v>0.799682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.625956</v>
+        <v>0.628841</v>
       </c>
       <c r="D20" t="n">
-        <v>0.319809</v>
+        <v>0.323211</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.835182</v>
+        <v>0.8409450000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.659883</v>
+        <v>0.666967</v>
       </c>
       <c r="D21" t="n">
-        <v>0.329739</v>
+        <v>0.332722</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.874657</v>
+        <v>0.880153</v>
       </c>
       <c r="C22" t="n">
-        <v>0.696616</v>
+        <v>0.699078</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344501</v>
+        <v>0.347405</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.919453</v>
+        <v>0.923569</v>
       </c>
       <c r="C23" t="n">
-        <v>0.732209</v>
+        <v>0.736531</v>
       </c>
       <c r="D23" t="n">
-        <v>0.355677</v>
+        <v>0.356443</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.966215</v>
+        <v>0.96538</v>
       </c>
       <c r="C24" t="n">
-        <v>0.765779</v>
+        <v>0.767857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.372471</v>
+        <v>0.375344</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.01093</v>
+        <v>1.01295</v>
       </c>
       <c r="C25" t="n">
-        <v>0.801932</v>
+        <v>0.806411</v>
       </c>
       <c r="D25" t="n">
-        <v>0.387172</v>
+        <v>0.391392</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.05156</v>
+        <v>1.05431</v>
       </c>
       <c r="C26" t="n">
-        <v>0.502552</v>
+        <v>0.5025539999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271909</v>
+        <v>0.273042</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657969</v>
+        <v>0.659662</v>
       </c>
       <c r="C27" t="n">
-        <v>0.522172</v>
+        <v>0.523307</v>
       </c>
       <c r="D27" t="n">
-        <v>0.277606</v>
+        <v>0.283251</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.694065</v>
+        <v>0.697353</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5568380000000001</v>
+        <v>0.558483</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293476</v>
+        <v>0.294953</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.731021</v>
+        <v>0.732776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5902500000000001</v>
+        <v>0.591386</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302961</v>
+        <v>0.304586</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.766213</v>
+        <v>0.76571</v>
       </c>
       <c r="C30" t="n">
-        <v>0.622379</v>
+        <v>0.62706</v>
       </c>
       <c r="D30" t="n">
-        <v>0.314038</v>
+        <v>0.318921</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.801809</v>
+        <v>0.8031</v>
       </c>
       <c r="C31" t="n">
-        <v>0.654759</v>
+        <v>0.658149</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321671</v>
+        <v>0.326284</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.835615</v>
+        <v>0.837607</v>
       </c>
       <c r="C32" t="n">
-        <v>0.688683</v>
+        <v>0.6936909999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.335799</v>
+        <v>0.339143</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.881105</v>
+        <v>0.882736</v>
       </c>
       <c r="C33" t="n">
-        <v>0.723742</v>
+        <v>0.728247</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346851</v>
+        <v>0.350977</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.917696</v>
+        <v>0.922067</v>
       </c>
       <c r="C34" t="n">
-        <v>0.760575</v>
+        <v>0.766428</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357873</v>
+        <v>0.362741</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.968916</v>
+        <v>0.97206</v>
       </c>
       <c r="C35" t="n">
-        <v>0.796536</v>
+        <v>0.802069</v>
       </c>
       <c r="D35" t="n">
-        <v>0.371229</v>
+        <v>0.376653</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.00715</v>
+        <v>1.01237</v>
       </c>
       <c r="C36" t="n">
-        <v>0.829708</v>
+        <v>0.83589</v>
       </c>
       <c r="D36" t="n">
-        <v>0.384085</v>
+        <v>0.390428</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0535</v>
+        <v>1.05831</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8672840000000001</v>
+        <v>0.873749</v>
       </c>
       <c r="D37" t="n">
-        <v>0.403411</v>
+        <v>0.405281</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.10237</v>
+        <v>1.10176</v>
       </c>
       <c r="C38" t="n">
-        <v>0.911938</v>
+        <v>0.914323</v>
       </c>
       <c r="D38" t="n">
-        <v>0.41643</v>
+        <v>0.420128</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15471</v>
+        <v>1.15694</v>
       </c>
       <c r="C39" t="n">
-        <v>0.94837</v>
+        <v>0.950389</v>
       </c>
       <c r="D39" t="n">
-        <v>0.434658</v>
+        <v>0.432549</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.20185</v>
+        <v>1.20209</v>
       </c>
       <c r="C40" t="n">
-        <v>0.560821</v>
+        <v>0.560592</v>
       </c>
       <c r="D40" t="n">
-        <v>0.32165</v>
+        <v>0.321947</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.724912</v>
+        <v>0.723688</v>
       </c>
       <c r="C41" t="n">
-        <v>0.58164</v>
+        <v>0.582468</v>
       </c>
       <c r="D41" t="n">
-        <v>0.333413</v>
+        <v>0.334311</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7593839999999999</v>
+        <v>0.758507</v>
       </c>
       <c r="C42" t="n">
-        <v>0.613676</v>
+        <v>0.614228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.345806</v>
+        <v>0.346919</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.791435</v>
+        <v>0.791553</v>
       </c>
       <c r="C43" t="n">
-        <v>0.644729</v>
+        <v>0.645576</v>
       </c>
       <c r="D43" t="n">
-        <v>0.359715</v>
+        <v>0.359228</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.832836</v>
+        <v>0.832463</v>
       </c>
       <c r="C44" t="n">
-        <v>0.676901</v>
+        <v>0.675854</v>
       </c>
       <c r="D44" t="n">
-        <v>0.371859</v>
+        <v>0.370751</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.867127</v>
+        <v>0.868335</v>
       </c>
       <c r="C45" t="n">
-        <v>0.709417</v>
+        <v>0.71238</v>
       </c>
       <c r="D45" t="n">
-        <v>0.380484</v>
+        <v>0.386002</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.910618</v>
+        <v>0.911231</v>
       </c>
       <c r="C46" t="n">
-        <v>0.748128</v>
+        <v>0.7482529999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.398363</v>
+        <v>0.401193</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.952391</v>
+        <v>0.952776</v>
       </c>
       <c r="C47" t="n">
-        <v>0.78494</v>
+        <v>0.785795</v>
       </c>
       <c r="D47" t="n">
-        <v>0.411841</v>
+        <v>0.415249</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.993523</v>
+        <v>0.993893</v>
       </c>
       <c r="C48" t="n">
-        <v>0.821227</v>
+        <v>0.823163</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429144</v>
+        <v>0.429142</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03887</v>
+        <v>1.03954</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8597399999999999</v>
+        <v>0.861328</v>
       </c>
       <c r="D49" t="n">
-        <v>0.435909</v>
+        <v>0.443899</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.08103</v>
+        <v>1.08461</v>
       </c>
       <c r="C50" t="n">
-        <v>0.901572</v>
+        <v>0.90206</v>
       </c>
       <c r="D50" t="n">
-        <v>0.455032</v>
+        <v>0.459196</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.13238</v>
+        <v>1.13255</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9360039999999999</v>
+        <v>0.936257</v>
       </c>
       <c r="D51" t="n">
-        <v>0.470079</v>
+        <v>0.474327</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.17647</v>
+        <v>1.1783</v>
       </c>
       <c r="C52" t="n">
-        <v>0.978666</v>
+        <v>0.978849</v>
       </c>
       <c r="D52" t="n">
-        <v>0.487444</v>
+        <v>0.489784</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.22855</v>
+        <v>1.23026</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0121</v>
+        <v>1.01622</v>
       </c>
       <c r="D53" t="n">
-        <v>0.504908</v>
+        <v>0.506995</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27462</v>
+        <v>1.27451</v>
       </c>
       <c r="C54" t="n">
-        <v>0.584044</v>
+        <v>0.58718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.349083</v>
+        <v>0.351569</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.75403</v>
+        <v>0.752308</v>
       </c>
       <c r="C55" t="n">
-        <v>0.613966</v>
+        <v>0.6137320000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.367245</v>
+        <v>0.367187</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.784658</v>
+        <v>0.785952</v>
       </c>
       <c r="C56" t="n">
-        <v>0.642272</v>
+        <v>0.643662</v>
       </c>
       <c r="D56" t="n">
-        <v>0.379637</v>
+        <v>0.379948</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.823194</v>
+        <v>0.823179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.672035</v>
+        <v>0.671826</v>
       </c>
       <c r="D57" t="n">
-        <v>0.390224</v>
+        <v>0.389834</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.857397</v>
+        <v>0.85766</v>
       </c>
       <c r="C58" t="n">
-        <v>0.708793</v>
+        <v>0.707703</v>
       </c>
       <c r="D58" t="n">
-        <v>0.406417</v>
+        <v>0.406655</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8968120000000001</v>
+        <v>0.89586</v>
       </c>
       <c r="C59" t="n">
-        <v>0.743682</v>
+        <v>0.742974</v>
       </c>
       <c r="D59" t="n">
-        <v>0.420885</v>
+        <v>0.420582</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.936302</v>
+        <v>0.935594</v>
       </c>
       <c r="C60" t="n">
-        <v>0.778536</v>
+        <v>0.778303</v>
       </c>
       <c r="D60" t="n">
-        <v>0.433921</v>
+        <v>0.433493</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.975095</v>
+        <v>0.974842</v>
       </c>
       <c r="C61" t="n">
-        <v>0.816859</v>
+        <v>0.817098</v>
       </c>
       <c r="D61" t="n">
-        <v>0.450324</v>
+        <v>0.448273</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0183</v>
+        <v>1.01888</v>
       </c>
       <c r="C62" t="n">
-        <v>0.855844</v>
+        <v>0.856253</v>
       </c>
       <c r="D62" t="n">
-        <v>0.461861</v>
+        <v>0.461777</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.06641</v>
+        <v>1.06531</v>
       </c>
       <c r="C63" t="n">
-        <v>0.893683</v>
+        <v>0.895193</v>
       </c>
       <c r="D63" t="n">
-        <v>0.479377</v>
+        <v>0.479219</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.115</v>
+        <v>1.11503</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9336449999999999</v>
+        <v>0.9341</v>
       </c>
       <c r="D64" t="n">
-        <v>0.493</v>
+        <v>0.492723</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.16191</v>
+        <v>1.16207</v>
       </c>
       <c r="C65" t="n">
-        <v>0.974272</v>
+        <v>0.974008</v>
       </c>
       <c r="D65" t="n">
-        <v>0.508165</v>
+        <v>0.507656</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.20621</v>
+        <v>1.2059</v>
       </c>
       <c r="C66" t="n">
-        <v>1.01387</v>
+        <v>1.01351</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5253910000000001</v>
+        <v>0.524214</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25916</v>
+        <v>1.2612</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05282</v>
+        <v>1.05464</v>
       </c>
       <c r="D67" t="n">
-        <v>0.539659</v>
+        <v>0.539759</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.29987</v>
+        <v>1.30517</v>
       </c>
       <c r="C68" t="n">
-        <v>0.607043</v>
+        <v>0.6107359999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.38147</v>
+        <v>0.381419</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.799216</v>
+        <v>0.804663</v>
       </c>
       <c r="C69" t="n">
-        <v>0.650258</v>
+        <v>0.653236</v>
       </c>
       <c r="D69" t="n">
-        <v>0.394724</v>
+        <v>0.394219</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.848828</v>
+        <v>0.860215</v>
       </c>
       <c r="C70" t="n">
-        <v>0.69506</v>
+        <v>0.70037</v>
       </c>
       <c r="D70" t="n">
-        <v>0.415446</v>
+        <v>0.41529</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.903089</v>
+        <v>0.919176</v>
       </c>
       <c r="C71" t="n">
-        <v>0.746595</v>
+        <v>0.753687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433541</v>
+        <v>0.433286</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.958547</v>
+        <v>0.97698</v>
       </c>
       <c r="C72" t="n">
-        <v>0.789768</v>
+        <v>0.806429</v>
       </c>
       <c r="D72" t="n">
-        <v>0.452388</v>
+        <v>0.454224</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.02323</v>
+        <v>1.03882</v>
       </c>
       <c r="C73" t="n">
-        <v>0.84839</v>
+        <v>0.860827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.472349</v>
+        <v>0.47269</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.09417</v>
+        <v>1.11598</v>
       </c>
       <c r="C74" t="n">
-        <v>0.909986</v>
+        <v>0.930088</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493017</v>
+        <v>0.493097</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.16934</v>
+        <v>1.20178</v>
       </c>
       <c r="C75" t="n">
-        <v>0.97794</v>
+        <v>1.00305</v>
       </c>
       <c r="D75" t="n">
-        <v>0.516705</v>
+        <v>0.520615</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26805</v>
+        <v>1.30821</v>
       </c>
       <c r="C76" t="n">
-        <v>1.06788</v>
+        <v>1.10855</v>
       </c>
       <c r="D76" t="n">
-        <v>0.540849</v>
+        <v>0.548615</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.38356</v>
+        <v>1.43891</v>
       </c>
       <c r="C77" t="n">
-        <v>1.16383</v>
+        <v>1.21006</v>
       </c>
       <c r="D77" t="n">
-        <v>0.575899</v>
+        <v>0.585333</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.50071</v>
+        <v>1.55437</v>
       </c>
       <c r="C78" t="n">
-        <v>1.26937</v>
+        <v>1.31556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5985780000000001</v>
+        <v>0.607348</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.61995</v>
+        <v>1.7137</v>
       </c>
       <c r="C79" t="n">
-        <v>1.3743</v>
+        <v>1.45523</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6310210000000001</v>
+        <v>0.646106</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.75787</v>
+        <v>1.8727</v>
       </c>
       <c r="C80" t="n">
-        <v>1.49214</v>
+        <v>1.59976</v>
       </c>
       <c r="D80" t="n">
-        <v>0.663658</v>
+        <v>0.691326</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.95354</v>
+        <v>2.04745</v>
       </c>
       <c r="C81" t="n">
-        <v>1.66526</v>
+        <v>1.74669</v>
       </c>
       <c r="D81" t="n">
-        <v>0.701531</v>
+        <v>0.732532</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.18927</v>
+        <v>2.24085</v>
       </c>
       <c r="C82" t="n">
-        <v>1.87612</v>
+        <v>1.91952</v>
       </c>
       <c r="D82" t="n">
-        <v>0.78463</v>
+        <v>0.802889</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.42738</v>
+        <v>2.48781</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15479</v>
+        <v>1.20859</v>
       </c>
       <c r="D83" t="n">
-        <v>0.538212</v>
+        <v>0.549908</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.59716</v>
+        <v>1.65245</v>
       </c>
       <c r="C84" t="n">
-        <v>1.30024</v>
+        <v>1.34514</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5835939999999999</v>
+        <v>0.602299</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.78148</v>
+        <v>1.84504</v>
       </c>
       <c r="C85" t="n">
-        <v>1.45686</v>
+        <v>1.50074</v>
       </c>
       <c r="D85" t="n">
-        <v>0.630985</v>
+        <v>0.651482</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.006</v>
+        <v>2.0508</v>
       </c>
       <c r="C86" t="n">
-        <v>1.64804</v>
+        <v>1.69011</v>
       </c>
       <c r="D86" t="n">
-        <v>0.697453</v>
+        <v>0.709656</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.23876</v>
+        <v>2.28384</v>
       </c>
       <c r="C87" t="n">
-        <v>1.85166</v>
+        <v>1.89452</v>
       </c>
       <c r="D87" t="n">
-        <v>0.764607</v>
+        <v>0.77988</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49342</v>
+        <v>2.54038</v>
       </c>
       <c r="C88" t="n">
-        <v>2.07448</v>
+        <v>2.11433</v>
       </c>
       <c r="D88" t="n">
-        <v>0.850516</v>
+        <v>0.861378</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.77306</v>
+        <v>2.81687</v>
       </c>
       <c r="C89" t="n">
-        <v>2.31668</v>
+        <v>2.35524</v>
       </c>
       <c r="D89" t="n">
-        <v>0.927285</v>
+        <v>0.949543</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.05198</v>
+        <v>3.09119</v>
       </c>
       <c r="C90" t="n">
-        <v>2.57034</v>
+        <v>2.60931</v>
       </c>
       <c r="D90" t="n">
-        <v>1.01661</v>
+        <v>1.03456</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.36758</v>
+        <v>3.40584</v>
       </c>
       <c r="C91" t="n">
-        <v>2.8378</v>
+        <v>2.8741</v>
       </c>
       <c r="D91" t="n">
-        <v>1.11286</v>
+        <v>1.13718</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.68505</v>
+        <v>3.73149</v>
       </c>
       <c r="C92" t="n">
-        <v>3.12473</v>
+        <v>3.16031</v>
       </c>
       <c r="D92" t="n">
-        <v>1.21257</v>
+        <v>1.23073</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.03381</v>
+        <v>4.06506</v>
       </c>
       <c r="C93" t="n">
-        <v>3.42761</v>
+        <v>3.45944</v>
       </c>
       <c r="D93" t="n">
-        <v>1.3173</v>
+        <v>1.32966</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.39713</v>
+        <v>4.44157</v>
       </c>
       <c r="C94" t="n">
-        <v>3.73559</v>
+        <v>3.76639</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42658</v>
+        <v>1.44148</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.76804</v>
+        <v>4.81462</v>
       </c>
       <c r="C95" t="n">
-        <v>4.06151</v>
+        <v>4.09317</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56088</v>
+        <v>1.56963</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>5.16276</v>
+        <v>5.19652</v>
       </c>
       <c r="C96" t="n">
-        <v>4.39212</v>
+        <v>4.4331</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69572</v>
+        <v>1.71024</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.55754</v>
+        <v>5.60258</v>
       </c>
       <c r="C97" t="n">
-        <v>2.49791</v>
+        <v>2.51322</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16841</v>
+        <v>1.17666</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28182</v>
+        <v>3.31033</v>
       </c>
       <c r="C98" t="n">
-        <v>2.67247</v>
+        <v>2.68999</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23815</v>
+        <v>1.24759</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.4979</v>
+        <v>3.52195</v>
       </c>
       <c r="C99" t="n">
-        <v>2.87017</v>
+        <v>2.87169</v>
       </c>
       <c r="D99" t="n">
-        <v>1.33838</v>
+        <v>1.34673</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.71503</v>
+        <v>3.75181</v>
       </c>
       <c r="C100" t="n">
-        <v>3.05228</v>
+        <v>3.08016</v>
       </c>
       <c r="D100" t="n">
-        <v>1.42318</v>
+        <v>1.43506</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.9696</v>
+        <v>4.00815</v>
       </c>
       <c r="C101" t="n">
-        <v>3.27852</v>
+        <v>3.30479</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48927</v>
+        <v>1.49703</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.2428</v>
+        <v>4.28134</v>
       </c>
       <c r="C102" t="n">
-        <v>3.52162</v>
+        <v>3.55813</v>
       </c>
       <c r="D102" t="n">
-        <v>1.59689</v>
+        <v>1.60754</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.53459</v>
+        <v>4.57577</v>
       </c>
       <c r="C103" t="n">
-        <v>3.78932</v>
+        <v>3.81784</v>
       </c>
       <c r="D103" t="n">
-        <v>1.68933</v>
+        <v>1.6965</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.85058</v>
+        <v>4.88054</v>
       </c>
       <c r="C104" t="n">
-        <v>4.06087</v>
+        <v>4.09662</v>
       </c>
       <c r="D104" t="n">
-        <v>1.79549</v>
+        <v>1.80241</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.1489</v>
+        <v>5.21418</v>
       </c>
       <c r="C105" t="n">
-        <v>4.34876</v>
+        <v>4.38839</v>
       </c>
       <c r="D105" t="n">
-        <v>1.87235</v>
+        <v>1.88272</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.49402</v>
+        <v>5.5424</v>
       </c>
       <c r="C106" t="n">
-        <v>4.65587</v>
+        <v>4.69779</v>
       </c>
       <c r="D106" t="n">
-        <v>2.00207</v>
+        <v>2.01185</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.85712</v>
+        <v>5.91287</v>
       </c>
       <c r="C107" t="n">
-        <v>4.97218</v>
+        <v>5.0219</v>
       </c>
       <c r="D107" t="n">
-        <v>2.11051</v>
+        <v>2.12025</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>6.22108</v>
+        <v>6.2787</v>
       </c>
       <c r="C108" t="n">
-        <v>5.29657</v>
+        <v>5.35051</v>
       </c>
       <c r="D108" t="n">
-        <v>2.22635</v>
+        <v>2.2387</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.6194</v>
+        <v>6.6924</v>
       </c>
       <c r="C109" t="n">
-        <v>5.63773</v>
+        <v>5.69688</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34741</v>
+        <v>2.35787</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>7.00616</v>
+        <v>7.08228</v>
       </c>
       <c r="C110" t="n">
-        <v>5.99403</v>
+        <v>6.04847</v>
       </c>
       <c r="D110" t="n">
-        <v>2.47155</v>
+        <v>2.48364</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>7.44232</v>
+        <v>7.52342</v>
       </c>
       <c r="C111" t="n">
-        <v>3.18188</v>
+        <v>3.20848</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6784</v>
+        <v>1.68532</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.21421</v>
+        <v>4.25968</v>
       </c>
       <c r="C112" t="n">
-        <v>3.42344</v>
+        <v>3.41299</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74633</v>
+        <v>1.7543</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.44995</v>
+        <v>4.5</v>
       </c>
       <c r="C113" t="n">
-        <v>3.60499</v>
+        <v>3.63913</v>
       </c>
       <c r="D113" t="n">
-        <v>1.83198</v>
+        <v>1.84098</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.70166</v>
+        <v>4.76117</v>
       </c>
       <c r="C114" t="n">
-        <v>3.8527</v>
+        <v>3.88784</v>
       </c>
       <c r="D114" t="n">
-        <v>1.92432</v>
+        <v>1.93638</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96879</v>
+        <v>5.04349</v>
       </c>
       <c r="C115" t="n">
-        <v>4.09676</v>
+        <v>4.12834</v>
       </c>
       <c r="D115" t="n">
-        <v>2.00609</v>
+        <v>2.01692</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.26014</v>
+        <v>5.31614</v>
       </c>
       <c r="C116" t="n">
-        <v>4.36793</v>
+        <v>4.41548</v>
       </c>
       <c r="D116" t="n">
-        <v>2.09994</v>
+        <v>2.11034</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.55877</v>
+        <v>5.62357</v>
       </c>
       <c r="C117" t="n">
-        <v>4.64495</v>
+        <v>4.69456</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22045</v>
+        <v>2.23373</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.87917</v>
+        <v>5.94986</v>
       </c>
       <c r="C118" t="n">
-        <v>4.94003</v>
+        <v>4.98987</v>
       </c>
       <c r="D118" t="n">
-        <v>2.33071</v>
+        <v>2.34457</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>6.2109</v>
+        <v>6.29182</v>
       </c>
       <c r="C119" t="n">
-        <v>5.25896</v>
+        <v>5.31971</v>
       </c>
       <c r="D119" t="n">
-        <v>2.42555</v>
+        <v>2.44136</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered unsuccessful looukp.xlsx
+++ b/clang_libcpp/scattered unsuccessful looukp.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>30.9925</v>
+        <v>31.3356</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6922</v>
+        <v>21.4902</v>
       </c>
       <c r="D2" t="n">
-        <v>23.3296</v>
+        <v>23.059</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>33.4192</v>
+        <v>32.7872</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6175</v>
+        <v>22.2009</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0744</v>
+        <v>23.7021</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>34.2357</v>
+        <v>33.7855</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1233</v>
+        <v>22.7553</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0004</v>
+        <v>24.5173</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>35.5912</v>
+        <v>35.07</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8478</v>
+        <v>23.3931</v>
       </c>
       <c r="D5" t="n">
-        <v>25.5475</v>
+        <v>25.2531</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>37.0648</v>
+        <v>36.3201</v>
       </c>
       <c r="C6" t="n">
-        <v>24.5998</v>
+        <v>24.1222</v>
       </c>
       <c r="D6" t="n">
-        <v>26.2617</v>
+        <v>25.9537</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>38.4303</v>
+        <v>37.5182</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4541</v>
+        <v>18.3622</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7079</v>
+        <v>20.6948</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5568</v>
+        <v>26.5389</v>
       </c>
       <c r="C8" t="n">
-        <v>19.3436</v>
+        <v>19.3099</v>
       </c>
       <c r="D8" t="n">
-        <v>21.7221</v>
+        <v>21.5651</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8783</v>
+        <v>27.7142</v>
       </c>
       <c r="C9" t="n">
-        <v>19.9729</v>
+        <v>19.941</v>
       </c>
       <c r="D9" t="n">
-        <v>22.4133</v>
+        <v>22.2012</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>28.7639</v>
+        <v>28.7061</v>
       </c>
       <c r="C10" t="n">
-        <v>20.9122</v>
+        <v>20.7637</v>
       </c>
       <c r="D10" t="n">
-        <v>23.3889</v>
+        <v>23.2169</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>29.9163</v>
+        <v>29.8726</v>
       </c>
       <c r="C11" t="n">
-        <v>21.6969</v>
+        <v>21.6554</v>
       </c>
       <c r="D11" t="n">
-        <v>24.2643</v>
+        <v>24.1774</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8451</v>
+        <v>30.8511</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4889</v>
+        <v>22.3251</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0122</v>
+        <v>24.9326</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4267</v>
+        <v>32.3895</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4051</v>
+        <v>23.1615</v>
       </c>
       <c r="D13" t="n">
-        <v>26.0566</v>
+        <v>25.9527</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>33.2426</v>
+        <v>33.0486</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1686</v>
+        <v>23.9317</v>
       </c>
       <c r="D14" t="n">
-        <v>26.941</v>
+        <v>26.737</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>34.3991</v>
+        <v>34.3244</v>
       </c>
       <c r="C15" t="n">
-        <v>24.6867</v>
+        <v>24.5127</v>
       </c>
       <c r="D15" t="n">
-        <v>27.7204</v>
+        <v>27.6548</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5078</v>
+        <v>35.5758</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4116</v>
+        <v>25.2967</v>
       </c>
       <c r="D16" t="n">
-        <v>28.6259</v>
+        <v>28.6045</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>36.7306</v>
+        <v>36.8041</v>
       </c>
       <c r="C17" t="n">
-        <v>25.9234</v>
+        <v>25.8827</v>
       </c>
       <c r="D17" t="n">
-        <v>29.4111</v>
+        <v>29.4161</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>38.0073</v>
+        <v>38.1062</v>
       </c>
       <c r="C18" t="n">
-        <v>26.5138</v>
+        <v>26.44</v>
       </c>
       <c r="D18" t="n">
-        <v>30.0955</v>
+        <v>30.1273</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>39.1235</v>
+        <v>39.2859</v>
       </c>
       <c r="C19" t="n">
-        <v>27.0402</v>
+        <v>27.144</v>
       </c>
       <c r="D19" t="n">
-        <v>30.7945</v>
+        <v>30.9264</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>40.378</v>
+        <v>40.4408</v>
       </c>
       <c r="C20" t="n">
-        <v>27.687</v>
+        <v>27.5921</v>
       </c>
       <c r="D20" t="n">
-        <v>31.9264</v>
+        <v>31.6476</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>41.7067</v>
+        <v>41.6456</v>
       </c>
       <c r="C21" t="n">
-        <v>21.3077</v>
+        <v>21.2113</v>
       </c>
       <c r="D21" t="n">
-        <v>24.2677</v>
+        <v>24.3249</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>30.2172</v>
+        <v>30.2087</v>
       </c>
       <c r="C22" t="n">
-        <v>22.0252</v>
+        <v>21.8677</v>
       </c>
       <c r="D22" t="n">
-        <v>25.0234</v>
+        <v>25.0697</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>31.2511</v>
+        <v>31.2904</v>
       </c>
       <c r="C23" t="n">
-        <v>22.7042</v>
+        <v>22.5725</v>
       </c>
       <c r="D23" t="n">
-        <v>25.843</v>
+        <v>25.9243</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>32.1792</v>
+        <v>32.2666</v>
       </c>
       <c r="C24" t="n">
-        <v>23.3948</v>
+        <v>23.2312</v>
       </c>
       <c r="D24" t="n">
-        <v>26.5442</v>
+        <v>26.6147</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>33.2356</v>
+        <v>33.2714</v>
       </c>
       <c r="C25" t="n">
-        <v>24.09</v>
+        <v>23.9688</v>
       </c>
       <c r="D25" t="n">
-        <v>27.3713</v>
+        <v>27.4124</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>34.3962</v>
+        <v>34.4008</v>
       </c>
       <c r="C26" t="n">
-        <v>24.8447</v>
+        <v>24.7445</v>
       </c>
       <c r="D26" t="n">
-        <v>28.1532</v>
+        <v>28.2292</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>35.4587</v>
+        <v>35.4551</v>
       </c>
       <c r="C27" t="n">
-        <v>25.5299</v>
+        <v>25.4107</v>
       </c>
       <c r="D27" t="n">
-        <v>28.9838</v>
+        <v>29.0365</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>36.5475</v>
+        <v>36.6497</v>
       </c>
       <c r="C28" t="n">
-        <v>26.165</v>
+        <v>26.0764</v>
       </c>
       <c r="D28" t="n">
-        <v>29.7349</v>
+        <v>29.8005</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>37.8657</v>
+        <v>37.7237</v>
       </c>
       <c r="C29" t="n">
-        <v>26.823</v>
+        <v>26.8651</v>
       </c>
       <c r="D29" t="n">
-        <v>30.749</v>
+        <v>30.8138</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>38.8287</v>
+        <v>38.932</v>
       </c>
       <c r="C30" t="n">
-        <v>27.3688</v>
+        <v>27.2412</v>
       </c>
       <c r="D30" t="n">
-        <v>31.4276</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>39.9626</v>
+        <v>39.9217</v>
       </c>
       <c r="C31" t="n">
-        <v>27.9072</v>
+        <v>27.9244</v>
       </c>
       <c r="D31" t="n">
-        <v>32.2487</v>
+        <v>32.3239</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>41.1337</v>
+        <v>41.1155</v>
       </c>
       <c r="C32" t="n">
-        <v>28.5694</v>
+        <v>28.6113</v>
       </c>
       <c r="D32" t="n">
-        <v>33.0965</v>
+        <v>33.1561</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>42.2676</v>
+        <v>42.2925</v>
       </c>
       <c r="C33" t="n">
-        <v>29.0668</v>
+        <v>29.033</v>
       </c>
       <c r="D33" t="n">
-        <v>33.8462</v>
+        <v>33.9213</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>43.2466</v>
+        <v>43.405</v>
       </c>
       <c r="C34" t="n">
-        <v>29.6476</v>
+        <v>29.6465</v>
       </c>
       <c r="D34" t="n">
-        <v>34.7106</v>
+        <v>34.8006</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>44.499</v>
+        <v>44.657</v>
       </c>
       <c r="C35" t="n">
-        <v>22.573</v>
+        <v>22.533</v>
       </c>
       <c r="D35" t="n">
-        <v>26.0638</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>31.4754</v>
+        <v>31.4753</v>
       </c>
       <c r="C36" t="n">
-        <v>23.2096</v>
+        <v>23.1593</v>
       </c>
       <c r="D36" t="n">
-        <v>26.8861</v>
+        <v>26.8895</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>32.4837</v>
+        <v>32.4534</v>
       </c>
       <c r="C37" t="n">
-        <v>23.859</v>
+        <v>23.8014</v>
       </c>
       <c r="D37" t="n">
-        <v>27.569</v>
+        <v>27.5634</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>33.4407</v>
+        <v>33.4313</v>
       </c>
       <c r="C38" t="n">
-        <v>24.5639</v>
+        <v>24.5811</v>
       </c>
       <c r="D38" t="n">
-        <v>28.4117</v>
+        <v>28.4359</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>34.388</v>
+        <v>34.4479</v>
       </c>
       <c r="C39" t="n">
-        <v>25.2357</v>
+        <v>25.2668</v>
       </c>
       <c r="D39" t="n">
-        <v>29.2485</v>
+        <v>29.2787</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>35.5762</v>
+        <v>35.5491</v>
       </c>
       <c r="C40" t="n">
-        <v>25.8748</v>
+        <v>25.9091</v>
       </c>
       <c r="D40" t="n">
-        <v>29.9749</v>
+        <v>30.0095</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>36.5968</v>
+        <v>36.6986</v>
       </c>
       <c r="C41" t="n">
-        <v>26.5949</v>
+        <v>26.6145</v>
       </c>
       <c r="D41" t="n">
-        <v>30.7684</v>
+        <v>30.7718</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>37.8997</v>
+        <v>37.844</v>
       </c>
       <c r="C42" t="n">
-        <v>27.2017</v>
+        <v>27.2152</v>
       </c>
       <c r="D42" t="n">
-        <v>31.5774</v>
+        <v>31.5728</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>39.0739</v>
+        <v>39.0732</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7863</v>
+        <v>27.7935</v>
       </c>
       <c r="D43" t="n">
-        <v>32.386</v>
+        <v>32.3772</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>40.0379</v>
+        <v>40.139</v>
       </c>
       <c r="C44" t="n">
-        <v>28.347</v>
+        <v>28.3645</v>
       </c>
       <c r="D44" t="n">
-        <v>33.2173</v>
+        <v>33.2517</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>41.1338</v>
+        <v>41.269</v>
       </c>
       <c r="C45" t="n">
-        <v>28.9136</v>
+        <v>28.9085</v>
       </c>
       <c r="D45" t="n">
-        <v>33.9972</v>
+        <v>34.0546</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>42.4615</v>
+        <v>42.515</v>
       </c>
       <c r="C46" t="n">
-        <v>29.4366</v>
+        <v>29.4002</v>
       </c>
       <c r="D46" t="n">
-        <v>34.8286</v>
+        <v>34.8566</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>43.5441</v>
+        <v>43.6937</v>
       </c>
       <c r="C47" t="n">
-        <v>29.9291</v>
+        <v>29.8909</v>
       </c>
       <c r="D47" t="n">
-        <v>35.6194</v>
+        <v>35.6701</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>44.8115</v>
+        <v>44.7963</v>
       </c>
       <c r="C48" t="n">
-        <v>30.4712</v>
+        <v>30.4746</v>
       </c>
       <c r="D48" t="n">
-        <v>36.4847</v>
+        <v>36.5887</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>46.2398</v>
+        <v>46.3271</v>
       </c>
       <c r="C49" t="n">
-        <v>30.995</v>
+        <v>30.9911</v>
       </c>
       <c r="D49" t="n">
-        <v>37.4605</v>
+        <v>37.5705</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>47.4887</v>
+        <v>47.4093</v>
       </c>
       <c r="C50" t="n">
-        <v>23.6553</v>
+        <v>23.6683</v>
       </c>
       <c r="D50" t="n">
-        <v>26.7006</v>
+        <v>26.7098</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>33.1655</v>
+        <v>33.0414</v>
       </c>
       <c r="C51" t="n">
-        <v>24.3126</v>
+        <v>24.3292</v>
       </c>
       <c r="D51" t="n">
-        <v>27.493</v>
+        <v>27.5171</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>34.2233</v>
+        <v>34.2129</v>
       </c>
       <c r="C52" t="n">
-        <v>25.0516</v>
+        <v>25.0164</v>
       </c>
       <c r="D52" t="n">
-        <v>28.2538</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>35.2259</v>
+        <v>35.2313</v>
       </c>
       <c r="C53" t="n">
-        <v>25.7108</v>
+        <v>25.7079</v>
       </c>
       <c r="D53" t="n">
-        <v>28.9573</v>
+        <v>28.9649</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>36.376</v>
+        <v>36.4494</v>
       </c>
       <c r="C54" t="n">
-        <v>26.4216</v>
+        <v>26.4154</v>
       </c>
       <c r="D54" t="n">
-        <v>29.7519</v>
+        <v>29.7841</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>37.5602</v>
+        <v>37.5512</v>
       </c>
       <c r="C55" t="n">
-        <v>27.0772</v>
+        <v>27.0774</v>
       </c>
       <c r="D55" t="n">
-        <v>30.5475</v>
+        <v>30.5742</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>38.6011</v>
+        <v>38.6036</v>
       </c>
       <c r="C56" t="n">
-        <v>27.7005</v>
+        <v>27.7274</v>
       </c>
       <c r="D56" t="n">
-        <v>31.2689</v>
+        <v>31.3289</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>39.5326</v>
+        <v>39.7117</v>
       </c>
       <c r="C57" t="n">
-        <v>28.2711</v>
+        <v>28.2759</v>
       </c>
       <c r="D57" t="n">
-        <v>31.9219</v>
+        <v>31.9988</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>40.8389</v>
+        <v>40.9647</v>
       </c>
       <c r="C58" t="n">
-        <v>28.796</v>
+        <v>28.8152</v>
       </c>
       <c r="D58" t="n">
-        <v>32.5675</v>
+        <v>32.638</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>42.0336</v>
+        <v>42.0938</v>
       </c>
       <c r="C59" t="n">
-        <v>29.3173</v>
+        <v>29.3742</v>
       </c>
       <c r="D59" t="n">
-        <v>33.2635</v>
+        <v>33.3064</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>43.2061</v>
+        <v>43.1084</v>
       </c>
       <c r="C60" t="n">
-        <v>29.8307</v>
+        <v>29.8318</v>
       </c>
       <c r="D60" t="n">
-        <v>33.9736</v>
+        <v>34.0101</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>44.4058</v>
+        <v>44.2698</v>
       </c>
       <c r="C61" t="n">
-        <v>30.3724</v>
+        <v>30.3711</v>
       </c>
       <c r="D61" t="n">
-        <v>34.6677</v>
+        <v>34.7095</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>45.5591</v>
+        <v>45.5598</v>
       </c>
       <c r="C62" t="n">
-        <v>30.8726</v>
+        <v>30.8569</v>
       </c>
       <c r="D62" t="n">
-        <v>35.4163</v>
+        <v>35.4982</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>46.7647</v>
+        <v>46.673</v>
       </c>
       <c r="C63" t="n">
-        <v>31.4506</v>
+        <v>31.482</v>
       </c>
       <c r="D63" t="n">
-        <v>36.2316</v>
+        <v>36.3129</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>47.9711</v>
+        <v>47.955</v>
       </c>
       <c r="C64" t="n">
-        <v>24.7224</v>
+        <v>24.696</v>
       </c>
       <c r="D64" t="n">
-        <v>28.1554</v>
+        <v>27.9543</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>35.8207</v>
+        <v>34.9086</v>
       </c>
       <c r="C65" t="n">
-        <v>25.44</v>
+        <v>25.3999</v>
       </c>
       <c r="D65" t="n">
-        <v>29.0631</v>
+        <v>28.9457</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>37.0869</v>
+        <v>36.4019</v>
       </c>
       <c r="C66" t="n">
-        <v>26.2394</v>
+        <v>26.2543</v>
       </c>
       <c r="D66" t="n">
-        <v>29.9768</v>
+        <v>29.9947</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>38.3739</v>
+        <v>37.8382</v>
       </c>
       <c r="C67" t="n">
-        <v>27.1213</v>
+        <v>27.2027</v>
       </c>
       <c r="D67" t="n">
-        <v>30.9865</v>
+        <v>30.8306</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>40.4482</v>
+        <v>39.4102</v>
       </c>
       <c r="C68" t="n">
-        <v>28.0937</v>
+        <v>28.0388</v>
       </c>
       <c r="D68" t="n">
-        <v>31.9345</v>
+        <v>31.852</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>42.9265</v>
+        <v>42.5071</v>
       </c>
       <c r="C69" t="n">
-        <v>29.2038</v>
+        <v>28.8609</v>
       </c>
       <c r="D69" t="n">
-        <v>33.4271</v>
+        <v>32.9878</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>45.5544</v>
+        <v>44.8513</v>
       </c>
       <c r="C70" t="n">
-        <v>30.3474</v>
+        <v>29.9143</v>
       </c>
       <c r="D70" t="n">
-        <v>34.857</v>
+        <v>34.2772</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>47.0623</v>
+        <v>45.7279</v>
       </c>
       <c r="C71" t="n">
-        <v>31.4673</v>
+        <v>31.0928</v>
       </c>
       <c r="D71" t="n">
-        <v>36.358</v>
+        <v>35.5656</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>49.3925</v>
+        <v>47.7328</v>
       </c>
       <c r="C72" t="n">
-        <v>32.5938</v>
+        <v>32.0874</v>
       </c>
       <c r="D72" t="n">
-        <v>37.6973</v>
+        <v>36.8146</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>52.0263</v>
+        <v>50.3263</v>
       </c>
       <c r="C73" t="n">
-        <v>33.8823</v>
+        <v>33.1204</v>
       </c>
       <c r="D73" t="n">
-        <v>39.3107</v>
+        <v>38.2312</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>55.8382</v>
+        <v>53.7032</v>
       </c>
       <c r="C74" t="n">
-        <v>35.6691</v>
+        <v>34.6769</v>
       </c>
       <c r="D74" t="n">
-        <v>41.3493</v>
+        <v>39.9927</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>59.6739</v>
+        <v>57.4402</v>
       </c>
       <c r="C75" t="n">
-        <v>37.4726</v>
+        <v>36.465</v>
       </c>
       <c r="D75" t="n">
-        <v>43.631</v>
+        <v>42.7564</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>63.7645</v>
+        <v>61.4965</v>
       </c>
       <c r="C76" t="n">
-        <v>39.5593</v>
+        <v>38.5836</v>
       </c>
       <c r="D76" t="n">
-        <v>46.378</v>
+        <v>45.1808</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>68.0889</v>
+        <v>65.6831</v>
       </c>
       <c r="C77" t="n">
-        <v>41.7044</v>
+        <v>40.6699</v>
       </c>
       <c r="D77" t="n">
-        <v>49.0943</v>
+        <v>48.0061</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>73.13509999999999</v>
+        <v>70.16379999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>36.6934</v>
+        <v>36.9802</v>
       </c>
       <c r="D78" t="n">
-        <v>42.676</v>
+        <v>42.7807</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>68.24720000000001</v>
+        <v>67.68340000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>38.892</v>
+        <v>39.2059</v>
       </c>
       <c r="D79" t="n">
-        <v>45.5529</v>
+        <v>45.7643</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>72.7394</v>
+        <v>71.9234</v>
       </c>
       <c r="C80" t="n">
-        <v>41.4973</v>
+        <v>41.6942</v>
       </c>
       <c r="D80" t="n">
-        <v>48.5968</v>
+        <v>48.3477</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>77.5202</v>
+        <v>75.8836</v>
       </c>
       <c r="C81" t="n">
-        <v>44.1722</v>
+        <v>44.0685</v>
       </c>
       <c r="D81" t="n">
-        <v>51.2197</v>
+        <v>51.0921</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>82.41889999999999</v>
+        <v>80.39319999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>46.8679</v>
+        <v>46.7811</v>
       </c>
       <c r="D82" t="n">
-        <v>54.1153</v>
+        <v>53.9074</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>87.5568</v>
+        <v>85.3079</v>
       </c>
       <c r="C83" t="n">
-        <v>49.7734</v>
+        <v>49.6229</v>
       </c>
       <c r="D83" t="n">
-        <v>57.3992</v>
+        <v>57.1779</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>93.8694</v>
+        <v>90.52330000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>52.7111</v>
+        <v>52.4434</v>
       </c>
       <c r="D84" t="n">
-        <v>61.5852</v>
+        <v>61.2113</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>98.5776</v>
+        <v>95.5669</v>
       </c>
       <c r="C85" t="n">
-        <v>55.6557</v>
+        <v>55.3378</v>
       </c>
       <c r="D85" t="n">
-        <v>65.2062</v>
+        <v>64.9037</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>104.286</v>
+        <v>100.83</v>
       </c>
       <c r="C86" t="n">
-        <v>58.6651</v>
+        <v>58.4207</v>
       </c>
       <c r="D86" t="n">
-        <v>69.04000000000001</v>
+        <v>68.5578</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>110.355</v>
+        <v>106.536</v>
       </c>
       <c r="C87" t="n">
-        <v>61.9032</v>
+        <v>61.4652</v>
       </c>
       <c r="D87" t="n">
-        <v>72.5719</v>
+        <v>72.11920000000001</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>115.968</v>
+        <v>112.083</v>
       </c>
       <c r="C88" t="n">
-        <v>65.0222</v>
+        <v>64.4545</v>
       </c>
       <c r="D88" t="n">
-        <v>76.4156</v>
+        <v>75.9841</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>122.377</v>
+        <v>118.139</v>
       </c>
       <c r="C89" t="n">
-        <v>68.1861</v>
+        <v>67.7317</v>
       </c>
       <c r="D89" t="n">
-        <v>80.2677</v>
+        <v>79.7924</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>128.764</v>
+        <v>124.423</v>
       </c>
       <c r="C90" t="n">
-        <v>71.47199999999999</v>
+        <v>71.00239999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>84.3408</v>
+        <v>83.809</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>135.468</v>
+        <v>130.856</v>
       </c>
       <c r="C91" t="n">
-        <v>74.8612</v>
+        <v>74.3665</v>
       </c>
       <c r="D91" t="n">
-        <v>88.75020000000001</v>
+        <v>88.2197</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>142.257</v>
+        <v>137.471</v>
       </c>
       <c r="C92" t="n">
-        <v>65.90600000000001</v>
+        <v>65.04049999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>78.5244</v>
+        <v>77.5737</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>118.156</v>
+        <v>115.526</v>
       </c>
       <c r="C93" t="n">
-        <v>68.1293</v>
+        <v>67.2366</v>
       </c>
       <c r="D93" t="n">
-        <v>82.1459</v>
+        <v>81.0994</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>121.749</v>
+        <v>119.101</v>
       </c>
       <c r="C94" t="n">
-        <v>70.4289</v>
+        <v>69.5064</v>
       </c>
       <c r="D94" t="n">
-        <v>84.8366</v>
+        <v>83.69840000000001</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>126.307</v>
+        <v>123.15</v>
       </c>
       <c r="C95" t="n">
-        <v>72.77679999999999</v>
+        <v>71.85769999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>87.4041</v>
+        <v>86.2701</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>130.591</v>
+        <v>127.049</v>
       </c>
       <c r="C96" t="n">
-        <v>75.27370000000001</v>
+        <v>74.2803</v>
       </c>
       <c r="D96" t="n">
-        <v>90.2427</v>
+        <v>89.0959</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>135.232</v>
+        <v>131.284</v>
       </c>
       <c r="C97" t="n">
-        <v>77.73950000000001</v>
+        <v>76.8496</v>
       </c>
       <c r="D97" t="n">
-        <v>94.9113</v>
+        <v>93.6865</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>140.23</v>
+        <v>135.747</v>
       </c>
       <c r="C98" t="n">
-        <v>80.3083</v>
+        <v>79.36060000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>97.6463</v>
+        <v>96.3562</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>144.807</v>
+        <v>140.471</v>
       </c>
       <c r="C99" t="n">
-        <v>83.03449999999999</v>
+        <v>82.0283</v>
       </c>
       <c r="D99" t="n">
-        <v>101.234</v>
+        <v>99.94459999999999</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>149.705</v>
+        <v>145.293</v>
       </c>
       <c r="C100" t="n">
-        <v>85.71299999999999</v>
+        <v>84.7115</v>
       </c>
       <c r="D100" t="n">
-        <v>104.949</v>
+        <v>103.968</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>155.395</v>
+        <v>150.3</v>
       </c>
       <c r="C101" t="n">
-        <v>88.5689</v>
+        <v>87.4752</v>
       </c>
       <c r="D101" t="n">
-        <v>108.896</v>
+        <v>107.764</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>160.729</v>
+        <v>155.696</v>
       </c>
       <c r="C102" t="n">
-        <v>91.5599</v>
+        <v>90.4135</v>
       </c>
       <c r="D102" t="n">
-        <v>112.815</v>
+        <v>112.011</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>167.365</v>
+        <v>161.378</v>
       </c>
       <c r="C103" t="n">
-        <v>94.6653</v>
+        <v>93.4606</v>
       </c>
       <c r="D103" t="n">
-        <v>117.258</v>
+        <v>116.206</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>173.517</v>
+        <v>167.347</v>
       </c>
       <c r="C104" t="n">
-        <v>97.7903</v>
+        <v>96.5518</v>
       </c>
       <c r="D104" t="n">
-        <v>121.706</v>
+        <v>120.743</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>180.098</v>
+        <v>173.533</v>
       </c>
       <c r="C105" t="n">
-        <v>101.112</v>
+        <v>99.7273</v>
       </c>
       <c r="D105" t="n">
-        <v>126.6</v>
+        <v>125.369</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>187.182</v>
+        <v>180.235</v>
       </c>
       <c r="C106" t="n">
-        <v>104.538</v>
+        <v>103.172</v>
       </c>
       <c r="D106" t="n">
-        <v>131.62</v>
+        <v>130.468</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>144.233</v>
+        <v>141.003</v>
       </c>
       <c r="C107" t="n">
-        <v>85.5581</v>
+        <v>84.52</v>
       </c>
       <c r="D107" t="n">
-        <v>109.078</v>
+        <v>107.76</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>147.464</v>
+        <v>144.481</v>
       </c>
       <c r="C108" t="n">
-        <v>87.69670000000001</v>
+        <v>86.7067</v>
       </c>
       <c r="D108" t="n">
-        <v>111.935</v>
+        <v>110.601</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>151.448</v>
+        <v>147.91</v>
       </c>
       <c r="C109" t="n">
-        <v>89.944</v>
+        <v>88.8994</v>
       </c>
       <c r="D109" t="n">
-        <v>115.747</v>
+        <v>114.198</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>155.391</v>
+        <v>151.529</v>
       </c>
       <c r="C110" t="n">
-        <v>92.0183</v>
+        <v>90.99039999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>118.617</v>
+        <v>117.395</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>159.25</v>
+        <v>155.503</v>
       </c>
       <c r="C111" t="n">
-        <v>93.3142</v>
+        <v>93.4122</v>
       </c>
       <c r="D111" t="n">
-        <v>119.669</v>
+        <v>120.239</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>163.683</v>
+        <v>159.632</v>
       </c>
       <c r="C112" t="n">
-        <v>95.8578</v>
+        <v>95.8004</v>
       </c>
       <c r="D112" t="n">
-        <v>123.485</v>
+        <v>123.838</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>168.14</v>
+        <v>163.831</v>
       </c>
       <c r="C113" t="n">
-        <v>98.355</v>
+        <v>98.35339999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>127.236</v>
+        <v>127.471</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>173.862</v>
+        <v>169.009</v>
       </c>
       <c r="C114" t="n">
-        <v>100.947</v>
+        <v>100.961</v>
       </c>
       <c r="D114" t="n">
-        <v>130.456</v>
+        <v>130.725</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>179.805</v>
+        <v>174.198</v>
       </c>
       <c r="C115" t="n">
-        <v>104.78</v>
+        <v>103.525</v>
       </c>
       <c r="D115" t="n">
-        <v>136.731</v>
+        <v>135.088</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>185.041</v>
+        <v>179.409</v>
       </c>
       <c r="C116" t="n">
-        <v>107.519</v>
+        <v>106.261</v>
       </c>
       <c r="D116" t="n">
-        <v>140.706</v>
+        <v>138.928</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>191.52</v>
+        <v>184.803</v>
       </c>
       <c r="C117" t="n">
-        <v>110.531</v>
+        <v>109.021</v>
       </c>
       <c r="D117" t="n">
-        <v>145.046</v>
+        <v>143.146</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>197.6</v>
+        <v>190.656</v>
       </c>
       <c r="C118" t="n">
-        <v>113.407</v>
+        <v>112.053</v>
       </c>
       <c r="D118" t="n">
-        <v>149.282</v>
+        <v>147.314</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>203.504</v>
+        <v>196.811</v>
       </c>
       <c r="C119" t="n">
-        <v>116.549</v>
+        <v>115.11</v>
       </c>
       <c r="D119" t="n">
-        <v>153.987</v>
+        <v>152.062</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>21.1466</v>
+        <v>20.8895</v>
       </c>
       <c r="C2" t="n">
-        <v>14.738</v>
+        <v>14.4894</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9039</v>
+        <v>12.8074</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>22.1004</v>
+        <v>21.7697</v>
       </c>
       <c r="C3" t="n">
-        <v>15.3828</v>
+        <v>14.8977</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1488</v>
+        <v>13.0259</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>22.9823</v>
+        <v>22.6349</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9581</v>
+        <v>15.51</v>
       </c>
       <c r="D4" t="n">
-        <v>13.3598</v>
+        <v>13.1707</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>23.9839</v>
+        <v>23.5468</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7491</v>
+        <v>16.2272</v>
       </c>
       <c r="D5" t="n">
-        <v>13.6887</v>
+        <v>13.5142</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3641</v>
+        <v>25.0012</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4192</v>
+        <v>17.0223</v>
       </c>
       <c r="D6" t="n">
-        <v>13.8115</v>
+        <v>13.7128</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>26.2961</v>
+        <v>25.9742</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6257</v>
+        <v>13.4144</v>
       </c>
       <c r="D7" t="n">
-        <v>12.9953</v>
+        <v>12.8497</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>17.882</v>
+        <v>17.96</v>
       </c>
       <c r="C8" t="n">
-        <v>13.8748</v>
+        <v>14.0529</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1315</v>
+        <v>13.0984</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3835</v>
+        <v>18.5458</v>
       </c>
       <c r="C9" t="n">
-        <v>14.6809</v>
+        <v>14.3274</v>
       </c>
       <c r="D9" t="n">
-        <v>13.4488</v>
+        <v>13.1415</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3461</v>
+        <v>19.2935</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1575</v>
+        <v>14.7935</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6367</v>
+        <v>13.467</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2999</v>
+        <v>20.1973</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5897</v>
+        <v>15.6945</v>
       </c>
       <c r="D11" t="n">
-        <v>13.8596</v>
+        <v>13.9865</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>20.962</v>
+        <v>20.9999</v>
       </c>
       <c r="C12" t="n">
-        <v>16.2553</v>
+        <v>16.3001</v>
       </c>
       <c r="D12" t="n">
-        <v>14.1066</v>
+        <v>14.0305</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2897</v>
+        <v>21.4912</v>
       </c>
       <c r="C13" t="n">
-        <v>17.0029</v>
+        <v>16.6556</v>
       </c>
       <c r="D13" t="n">
-        <v>14.3689</v>
+        <v>14.1832</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7575</v>
+        <v>22.6069</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6924</v>
+        <v>17.6939</v>
       </c>
       <c r="D14" t="n">
-        <v>14.5693</v>
+        <v>14.5981</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6179</v>
+        <v>23.6592</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4623</v>
+        <v>18.3906</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9746</v>
+        <v>14.8019</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>24.6398</v>
+        <v>24.6804</v>
       </c>
       <c r="C16" t="n">
-        <v>19.3503</v>
+        <v>19.3863</v>
       </c>
       <c r="D16" t="n">
-        <v>15.3335</v>
+        <v>15.1447</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7227</v>
+        <v>25.7362</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0385</v>
+        <v>19.9092</v>
       </c>
       <c r="D17" t="n">
-        <v>15.6435</v>
+        <v>15.3961</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>26.6298</v>
+        <v>26.7473</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7914</v>
+        <v>20.7788</v>
       </c>
       <c r="D18" t="n">
-        <v>15.6212</v>
+        <v>15.9501</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>27.757</v>
+        <v>28.0027</v>
       </c>
       <c r="C19" t="n">
-        <v>21.6718</v>
+        <v>21.6934</v>
       </c>
       <c r="D19" t="n">
-        <v>16.5818</v>
+        <v>16.5773</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>29.2443</v>
+        <v>29.4222</v>
       </c>
       <c r="C20" t="n">
-        <v>22.8441</v>
+        <v>23.0289</v>
       </c>
       <c r="D20" t="n">
-        <v>16.9905</v>
+        <v>16.6801</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>30.4401</v>
+        <v>30.5802</v>
       </c>
       <c r="C21" t="n">
-        <v>17.7308</v>
+        <v>17.6455</v>
       </c>
       <c r="D21" t="n">
-        <v>15.579</v>
+        <v>15.5985</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>21.846</v>
+        <v>21.9318</v>
       </c>
       <c r="C22" t="n">
-        <v>18.332</v>
+        <v>18.3927</v>
       </c>
       <c r="D22" t="n">
-        <v>15.8886</v>
+        <v>15.8204</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>22.6277</v>
+        <v>22.7227</v>
       </c>
       <c r="C23" t="n">
-        <v>18.9653</v>
+        <v>18.989</v>
       </c>
       <c r="D23" t="n">
-        <v>16.2457</v>
+        <v>16.1493</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>23.3832</v>
+        <v>23.4538</v>
       </c>
       <c r="C24" t="n">
-        <v>19.3934</v>
+        <v>19.4354</v>
       </c>
       <c r="D24" t="n">
-        <v>16.5184</v>
+        <v>16.4392</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>24.2115</v>
+        <v>24.2495</v>
       </c>
       <c r="C25" t="n">
-        <v>20.0668</v>
+        <v>20.1147</v>
       </c>
       <c r="D25" t="n">
-        <v>16.8465</v>
+        <v>16.7413</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>24.9965</v>
+        <v>25.0715</v>
       </c>
       <c r="C26" t="n">
-        <v>20.7896</v>
+        <v>20.8275</v>
       </c>
       <c r="D26" t="n">
-        <v>17.203</v>
+        <v>17.1333</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>25.7386</v>
+        <v>25.7465</v>
       </c>
       <c r="C27" t="n">
-        <v>21.2876</v>
+        <v>21.3354</v>
       </c>
       <c r="D27" t="n">
-        <v>17.4904</v>
+        <v>17.4448</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>26.6602</v>
+        <v>26.6861</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9353</v>
+        <v>21.9232</v>
       </c>
       <c r="D28" t="n">
-        <v>17.8568</v>
+        <v>17.7748</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>27.6539</v>
+        <v>27.691</v>
       </c>
       <c r="C29" t="n">
-        <v>22.4984</v>
+        <v>22.5574</v>
       </c>
       <c r="D29" t="n">
-        <v>18.2172</v>
+        <v>18.1568</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>28.4754</v>
+        <v>28.5515</v>
       </c>
       <c r="C30" t="n">
-        <v>23.3137</v>
+        <v>23.3787</v>
       </c>
       <c r="D30" t="n">
-        <v>18.5382</v>
+        <v>18.529</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>29.6653</v>
+        <v>29.6934</v>
       </c>
       <c r="C31" t="n">
-        <v>23.8177</v>
+        <v>23.8544</v>
       </c>
       <c r="D31" t="n">
-        <v>18.9642</v>
+        <v>18.8888</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>30.5267</v>
+        <v>30.5681</v>
       </c>
       <c r="C32" t="n">
-        <v>24.7287</v>
+        <v>24.7839</v>
       </c>
       <c r="D32" t="n">
-        <v>19.3299</v>
+        <v>18.9958</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>31.8329</v>
+        <v>31.8848</v>
       </c>
       <c r="C33" t="n">
-        <v>25.4539</v>
+        <v>25.5195</v>
       </c>
       <c r="D33" t="n">
-        <v>19.5897</v>
+        <v>19.7741</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>32.9184</v>
+        <v>32.895</v>
       </c>
       <c r="C34" t="n">
-        <v>26.404</v>
+        <v>26.4435</v>
       </c>
       <c r="D34" t="n">
-        <v>20.0867</v>
+        <v>20.1981</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>34.1677</v>
+        <v>34.2116</v>
       </c>
       <c r="C35" t="n">
-        <v>19.4388</v>
+        <v>19.4592</v>
       </c>
       <c r="D35" t="n">
-        <v>17.3441</v>
+        <v>17.4629</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>23.7854</v>
+        <v>23.8189</v>
       </c>
       <c r="C36" t="n">
-        <v>20.0783</v>
+        <v>20.1288</v>
       </c>
       <c r="D36" t="n">
-        <v>17.7746</v>
+        <v>17.7943</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>24.5481</v>
+        <v>24.5629</v>
       </c>
       <c r="C37" t="n">
-        <v>20.5149</v>
+        <v>20.5731</v>
       </c>
       <c r="D37" t="n">
-        <v>18.0157</v>
+        <v>18.0616</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>25.3357</v>
+        <v>25.3528</v>
       </c>
       <c r="C38" t="n">
-        <v>21.0415</v>
+        <v>21.1107</v>
       </c>
       <c r="D38" t="n">
-        <v>18.3038</v>
+        <v>18.345</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>25.868</v>
+        <v>25.9023</v>
       </c>
       <c r="C39" t="n">
-        <v>21.6449</v>
+        <v>21.6931</v>
       </c>
       <c r="D39" t="n">
-        <v>18.6483</v>
+        <v>18.6892</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>26.8255</v>
+        <v>26.8653</v>
       </c>
       <c r="C40" t="n">
-        <v>22.2943</v>
+        <v>22.3105</v>
       </c>
       <c r="D40" t="n">
-        <v>19.0202</v>
+        <v>19.0666</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>27.5497</v>
+        <v>27.5757</v>
       </c>
       <c r="C41" t="n">
-        <v>22.8457</v>
+        <v>23.0344</v>
       </c>
       <c r="D41" t="n">
-        <v>19.2851</v>
+        <v>19.3302</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>28.3096</v>
+        <v>28.3561</v>
       </c>
       <c r="C42" t="n">
-        <v>23.2394</v>
+        <v>23.2718</v>
       </c>
       <c r="D42" t="n">
-        <v>19.5798</v>
+        <v>19.6256</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>29.1491</v>
+        <v>29.1821</v>
       </c>
       <c r="C43" t="n">
-        <v>23.9141</v>
+        <v>23.9507</v>
       </c>
       <c r="D43" t="n">
-        <v>19.9165</v>
+        <v>19.9618</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>30.0348</v>
+        <v>30.0944</v>
       </c>
       <c r="C44" t="n">
-        <v>24.6543</v>
+        <v>24.689</v>
       </c>
       <c r="D44" t="n">
-        <v>20.3014</v>
+        <v>20.3583</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>31.1402</v>
+        <v>31.1976</v>
       </c>
       <c r="C45" t="n">
-        <v>25.7606</v>
+        <v>25.4335</v>
       </c>
       <c r="D45" t="n">
-        <v>20.8053</v>
+        <v>20.8355</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>32.2019</v>
+        <v>32.2249</v>
       </c>
       <c r="C46" t="n">
-        <v>26.1066</v>
+        <v>26.184</v>
       </c>
       <c r="D46" t="n">
-        <v>21.0618</v>
+        <v>21.0978</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>33.1519</v>
+        <v>33.197</v>
       </c>
       <c r="C47" t="n">
-        <v>26.8189</v>
+        <v>26.8748</v>
       </c>
       <c r="D47" t="n">
-        <v>21.5846</v>
+        <v>21.6407</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>34.2112</v>
+        <v>34.252</v>
       </c>
       <c r="C48" t="n">
-        <v>27.6673</v>
+        <v>27.6781</v>
       </c>
       <c r="D48" t="n">
-        <v>22.0019</v>
+        <v>22.0431</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>35.2717</v>
+        <v>35.3136</v>
       </c>
       <c r="C49" t="n">
-        <v>28.5632</v>
+        <v>28.5531</v>
       </c>
       <c r="D49" t="n">
-        <v>22.4903</v>
+        <v>22.5435</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>36.6671</v>
+        <v>36.6676</v>
       </c>
       <c r="C50" t="n">
-        <v>20.7202</v>
+        <v>20.6886</v>
       </c>
       <c r="D50" t="n">
-        <v>17.9675</v>
+        <v>17.9752</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>25.4347</v>
+        <v>25.4413</v>
       </c>
       <c r="C51" t="n">
-        <v>21.2013</v>
+        <v>21.1995</v>
       </c>
       <c r="D51" t="n">
-        <v>18.2301</v>
+        <v>18.2249</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>26.1588</v>
+        <v>26.173</v>
       </c>
       <c r="C52" t="n">
-        <v>21.7289</v>
+        <v>21.7472</v>
       </c>
       <c r="D52" t="n">
-        <v>18.518</v>
+        <v>18.5298</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>26.7136</v>
+        <v>26.7278</v>
       </c>
       <c r="C53" t="n">
-        <v>22.4451</v>
+        <v>22.4086</v>
       </c>
       <c r="D53" t="n">
-        <v>18.8799</v>
+        <v>18.8967</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>27.5319</v>
+        <v>27.5401</v>
       </c>
       <c r="C54" t="n">
-        <v>22.9166</v>
+        <v>22.944</v>
       </c>
       <c r="D54" t="n">
-        <v>19.1929</v>
+        <v>19.2115</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>28.329</v>
+        <v>28.3671</v>
       </c>
       <c r="C55" t="n">
-        <v>23.5514</v>
+        <v>23.5871</v>
       </c>
       <c r="D55" t="n">
-        <v>19.5627</v>
+        <v>19.5667</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>29.1655</v>
+        <v>29.099</v>
       </c>
       <c r="C56" t="n">
-        <v>24.053</v>
+        <v>24.0743</v>
       </c>
       <c r="D56" t="n">
-        <v>19.8686</v>
+        <v>19.8843</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>30.1603</v>
+        <v>30.1795</v>
       </c>
       <c r="C57" t="n">
-        <v>24.7326</v>
+        <v>24.7389</v>
       </c>
       <c r="D57" t="n">
-        <v>20.1944</v>
+        <v>20.2035</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>31.0848</v>
+        <v>31.0888</v>
       </c>
       <c r="C58" t="n">
-        <v>25.6493</v>
+        <v>25.4544</v>
       </c>
       <c r="D58" t="n">
-        <v>20.595</v>
+        <v>20.5957</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>32.2479</v>
+        <v>32.2935</v>
       </c>
       <c r="C59" t="n">
-        <v>26.0897</v>
+        <v>26.0312</v>
       </c>
       <c r="D59" t="n">
-        <v>20.9593</v>
+        <v>20.9715</v>
       </c>
     </row>
     <row r="60">
@@ -10177,10 +10177,10 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>33.0908</v>
+        <v>33.2147</v>
       </c>
       <c r="C60" t="n">
-        <v>27.0042</v>
+        <v>27.0654</v>
       </c>
       <c r="D60" t="n">
         <v>21.2952</v>
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>34.2282</v>
+        <v>34.2974</v>
       </c>
       <c r="C61" t="n">
-        <v>27.5807</v>
+        <v>27.6831</v>
       </c>
       <c r="D61" t="n">
-        <v>21.7356</v>
+        <v>21.7459</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>35.2556</v>
+        <v>35.3557</v>
       </c>
       <c r="C62" t="n">
-        <v>28.4794</v>
+        <v>28.5844</v>
       </c>
       <c r="D62" t="n">
-        <v>22.0805</v>
+        <v>22.1142</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>36.3821</v>
+        <v>36.5855</v>
       </c>
       <c r="C63" t="n">
-        <v>29.6101</v>
+        <v>29.4376</v>
       </c>
       <c r="D63" t="n">
-        <v>22.6091</v>
+        <v>22.6416</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>37.7194</v>
+        <v>37.8232</v>
       </c>
       <c r="C64" t="n">
-        <v>22.5455</v>
+        <v>23.0167</v>
       </c>
       <c r="D64" t="n">
-        <v>19.3753</v>
+        <v>19.5587</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8225</v>
+        <v>28.6075</v>
       </c>
       <c r="C65" t="n">
-        <v>23.1542</v>
+        <v>23.5872</v>
       </c>
       <c r="D65" t="n">
-        <v>19.5429</v>
+        <v>19.6129</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>29.098</v>
+        <v>29.6296</v>
       </c>
       <c r="C66" t="n">
-        <v>24.0126</v>
+        <v>24.4878</v>
       </c>
       <c r="D66" t="n">
-        <v>20.022</v>
+        <v>20.1548</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>30.2999</v>
+        <v>30.9842</v>
       </c>
       <c r="C67" t="n">
-        <v>24.9261</v>
+        <v>25.767</v>
       </c>
       <c r="D67" t="n">
-        <v>20.452</v>
+        <v>20.6364</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>31.4979</v>
+        <v>32.445</v>
       </c>
       <c r="C68" t="n">
-        <v>25.8177</v>
+        <v>26.5895</v>
       </c>
       <c r="D68" t="n">
-        <v>20.9867</v>
+        <v>21.186</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>34.1661</v>
+        <v>34.1034</v>
       </c>
       <c r="C69" t="n">
-        <v>26.7624</v>
+        <v>27.7533</v>
       </c>
       <c r="D69" t="n">
-        <v>21.4511</v>
+        <v>21.6905</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>35.9888</v>
+        <v>35.716</v>
       </c>
       <c r="C70" t="n">
-        <v>28.1663</v>
+        <v>28.8211</v>
       </c>
       <c r="D70" t="n">
-        <v>21.9721</v>
+        <v>22.1645</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>37.0066</v>
+        <v>37.9298</v>
       </c>
       <c r="C71" t="n">
-        <v>29.7101</v>
+        <v>30.4695</v>
       </c>
       <c r="D71" t="n">
-        <v>22.7106</v>
+        <v>22.9415</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>39.4073</v>
+        <v>40.6684</v>
       </c>
       <c r="C72" t="n">
-        <v>31.5698</v>
+        <v>32.4932</v>
       </c>
       <c r="D72" t="n">
-        <v>23.3776</v>
+        <v>23.5996</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>41.635</v>
+        <v>43.2018</v>
       </c>
       <c r="C73" t="n">
-        <v>33.1997</v>
+        <v>34.3366</v>
       </c>
       <c r="D73" t="n">
-        <v>24.1257</v>
+        <v>24.4482</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>44.3096</v>
+        <v>45.9318</v>
       </c>
       <c r="C74" t="n">
-        <v>35.3373</v>
+        <v>36.2595</v>
       </c>
       <c r="D74" t="n">
-        <v>25.1653</v>
+        <v>25.4114</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>48.2832</v>
+        <v>49.0071</v>
       </c>
       <c r="C75" t="n">
-        <v>37.7851</v>
+        <v>38.4518</v>
       </c>
       <c r="D75" t="n">
-        <v>26.1534</v>
+        <v>26.3481</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>51.6808</v>
+        <v>52.3085</v>
       </c>
       <c r="C76" t="n">
-        <v>40.6254</v>
+        <v>41.0723</v>
       </c>
       <c r="D76" t="n">
-        <v>27.4941</v>
+        <v>27.3982</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>56.2631</v>
+        <v>56.4639</v>
       </c>
       <c r="C77" t="n">
-        <v>44.0221</v>
+        <v>43.9408</v>
       </c>
       <c r="D77" t="n">
-        <v>28.9646</v>
+        <v>28.637</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>61.21</v>
+        <v>61.1921</v>
       </c>
       <c r="C78" t="n">
-        <v>40.3229</v>
+        <v>39.285</v>
       </c>
       <c r="D78" t="n">
-        <v>26.3917</v>
+        <v>25.8675</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>56.6265</v>
+        <v>55.4095</v>
       </c>
       <c r="C79" t="n">
-        <v>42.8401</v>
+        <v>42.4104</v>
       </c>
       <c r="D79" t="n">
-        <v>27.877</v>
+        <v>27.035</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>60.617</v>
+        <v>59.9144</v>
       </c>
       <c r="C80" t="n">
-        <v>45.9809</v>
+        <v>45.5717</v>
       </c>
       <c r="D80" t="n">
-        <v>29.0213</v>
+        <v>28.6759</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>65.3352</v>
+        <v>65.2109</v>
       </c>
       <c r="C81" t="n">
-        <v>49.8433</v>
+        <v>49.2347</v>
       </c>
       <c r="D81" t="n">
-        <v>30.6335</v>
+        <v>30.4983</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>70.6713</v>
+        <v>70.0196</v>
       </c>
       <c r="C82" t="n">
-        <v>53.5083</v>
+        <v>52.8832</v>
       </c>
       <c r="D82" t="n">
-        <v>32.7185</v>
+        <v>32.5439</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>75.7611</v>
+        <v>75.325</v>
       </c>
       <c r="C83" t="n">
-        <v>57.6092</v>
+        <v>57.0145</v>
       </c>
       <c r="D83" t="n">
-        <v>34.7324</v>
+        <v>34.2853</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>82.41840000000001</v>
+        <v>81.4425</v>
       </c>
       <c r="C84" t="n">
-        <v>62.0071</v>
+        <v>61.4916</v>
       </c>
       <c r="D84" t="n">
-        <v>37.1485</v>
+        <v>36.814</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>87.712</v>
+        <v>87.45310000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>66.3514</v>
+        <v>66.1173</v>
       </c>
       <c r="D85" t="n">
-        <v>39.4668</v>
+        <v>39.3719</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>94.19070000000001</v>
+        <v>93.7002</v>
       </c>
       <c r="C86" t="n">
-        <v>71.12649999999999</v>
+        <v>70.4726</v>
       </c>
       <c r="D86" t="n">
-        <v>42.6097</v>
+        <v>42.1946</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>100.721</v>
+        <v>100.126</v>
       </c>
       <c r="C87" t="n">
-        <v>76.7255</v>
+        <v>76.1182</v>
       </c>
       <c r="D87" t="n">
-        <v>45.2429</v>
+        <v>44.9054</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>108.312</v>
+        <v>107.35</v>
       </c>
       <c r="C88" t="n">
-        <v>81.6277</v>
+        <v>82.02930000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>48.3705</v>
+        <v>47.5816</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>115.569</v>
+        <v>114.49</v>
       </c>
       <c r="C89" t="n">
-        <v>87.1806</v>
+        <v>87.8061</v>
       </c>
       <c r="D89" t="n">
-        <v>51.3819</v>
+        <v>50.8941</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>122.828</v>
+        <v>121.988</v>
       </c>
       <c r="C90" t="n">
-        <v>92.59780000000001</v>
+        <v>91.8369</v>
       </c>
       <c r="D90" t="n">
-        <v>54.637</v>
+        <v>54.2628</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>131.052</v>
+        <v>130.216</v>
       </c>
       <c r="C91" t="n">
-        <v>100.292</v>
+        <v>97.96469999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>58.531</v>
+        <v>58.2428</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>139.832</v>
+        <v>138.962</v>
       </c>
       <c r="C92" t="n">
-        <v>82.12869999999999</v>
+        <v>81.9144</v>
       </c>
       <c r="D92" t="n">
-        <v>56.9521</v>
+        <v>57.6125</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>108.342</v>
+        <v>107.609</v>
       </c>
       <c r="C93" t="n">
-        <v>85.38509999999999</v>
+        <v>85.2877</v>
       </c>
       <c r="D93" t="n">
-        <v>59.2781</v>
+        <v>59.8381</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>112.891</v>
+        <v>111.713</v>
       </c>
       <c r="C94" t="n">
-        <v>88.985</v>
+        <v>88.7761</v>
       </c>
       <c r="D94" t="n">
-        <v>61.6866</v>
+        <v>62.2152</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>117.675</v>
+        <v>116.496</v>
       </c>
       <c r="C95" t="n">
-        <v>92.70010000000001</v>
+        <v>92.25709999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>64.31610000000001</v>
+        <v>64.7272</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>123.394</v>
+        <v>120.744</v>
       </c>
       <c r="C96" t="n">
-        <v>96.52030000000001</v>
+        <v>95.9254</v>
       </c>
       <c r="D96" t="n">
-        <v>67.2334</v>
+        <v>67.5729</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>128.193</v>
+        <v>126.687</v>
       </c>
       <c r="C97" t="n">
-        <v>100.612</v>
+        <v>100.097</v>
       </c>
       <c r="D97" t="n">
-        <v>69.3112</v>
+        <v>69.658</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>133.748</v>
+        <v>131.445</v>
       </c>
       <c r="C98" t="n">
-        <v>104.58</v>
+        <v>103.637</v>
       </c>
       <c r="D98" t="n">
-        <v>72.3442</v>
+        <v>72.6135</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>139.543</v>
+        <v>136.526</v>
       </c>
       <c r="C99" t="n">
-        <v>108.781</v>
+        <v>106.977</v>
       </c>
       <c r="D99" t="n">
-        <v>75.2469</v>
+        <v>75.40309999999999</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>144.527</v>
+        <v>141.583</v>
       </c>
       <c r="C100" t="n">
-        <v>113.506</v>
+        <v>111.676</v>
       </c>
       <c r="D100" t="n">
-        <v>78.1306</v>
+        <v>78.3549</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>150.241</v>
+        <v>147.766</v>
       </c>
       <c r="C101" t="n">
-        <v>118.068</v>
+        <v>116.042</v>
       </c>
       <c r="D101" t="n">
-        <v>80.92359999999999</v>
+        <v>81.0384</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>155.721</v>
+        <v>154.505</v>
       </c>
       <c r="C102" t="n">
-        <v>122.999</v>
+        <v>120.155</v>
       </c>
       <c r="D102" t="n">
-        <v>84.6794</v>
+        <v>83.92570000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>162.473</v>
+        <v>161.429</v>
       </c>
       <c r="C103" t="n">
-        <v>127.764</v>
+        <v>124.32</v>
       </c>
       <c r="D103" t="n">
-        <v>87.2551</v>
+        <v>87.5047</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>169.826</v>
+        <v>168.912</v>
       </c>
       <c r="C104" t="n">
-        <v>132.564</v>
+        <v>129.721</v>
       </c>
       <c r="D104" t="n">
-        <v>90.52</v>
+        <v>90.7698</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>177.702</v>
+        <v>176.805</v>
       </c>
       <c r="C105" t="n">
-        <v>137.66</v>
+        <v>134.697</v>
       </c>
       <c r="D105" t="n">
-        <v>94.1949</v>
+        <v>94.52330000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>185.521</v>
+        <v>184.627</v>
       </c>
       <c r="C106" t="n">
-        <v>142.378</v>
+        <v>140.073</v>
       </c>
       <c r="D106" t="n">
-        <v>97.3656</v>
+        <v>97.65900000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>128.699</v>
+        <v>128.98</v>
       </c>
       <c r="C107" t="n">
-        <v>107.496</v>
+        <v>104.29</v>
       </c>
       <c r="D107" t="n">
-        <v>85.74339999999999</v>
+        <v>84.08159999999999</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>134.263</v>
+        <v>132.076</v>
       </c>
       <c r="C108" t="n">
-        <v>110.664</v>
+        <v>107.673</v>
       </c>
       <c r="D108" t="n">
-        <v>87.8535</v>
+        <v>86.5895</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>139.155</v>
+        <v>138.174</v>
       </c>
       <c r="C109" t="n">
-        <v>112.966</v>
+        <v>110.804</v>
       </c>
       <c r="D109" t="n">
-        <v>89.998</v>
+        <v>88.54340000000001</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>144.181</v>
+        <v>143.532</v>
       </c>
       <c r="C110" t="n">
-        <v>115.686</v>
+        <v>114.355</v>
       </c>
       <c r="D110" t="n">
-        <v>91.97539999999999</v>
+        <v>90.19240000000001</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>149.472</v>
+        <v>148.509</v>
       </c>
       <c r="C111" t="n">
-        <v>119.324</v>
+        <v>117.949</v>
       </c>
       <c r="D111" t="n">
-        <v>94.9478</v>
+        <v>92.759</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>154.234</v>
+        <v>154.239</v>
       </c>
       <c r="C112" t="n">
-        <v>123.175</v>
+        <v>121.973</v>
       </c>
       <c r="D112" t="n">
-        <v>97.8721</v>
+        <v>95.7146</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>160.944</v>
+        <v>159.205</v>
       </c>
       <c r="C113" t="n">
-        <v>127.205</v>
+        <v>125.128</v>
       </c>
       <c r="D113" t="n">
-        <v>100.039</v>
+        <v>96.9731</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>167.068</v>
+        <v>165.093</v>
       </c>
       <c r="C114" t="n">
-        <v>130.886</v>
+        <v>129.139</v>
       </c>
       <c r="D114" t="n">
-        <v>103.222</v>
+        <v>98.3172</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>173.512</v>
+        <v>171.794</v>
       </c>
       <c r="C115" t="n">
-        <v>135.39</v>
+        <v>133.584</v>
       </c>
       <c r="D115" t="n">
-        <v>106.133</v>
+        <v>101.63</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>180.337</v>
+        <v>178.346</v>
       </c>
       <c r="C116" t="n">
-        <v>140.053</v>
+        <v>138.056</v>
       </c>
       <c r="D116" t="n">
-        <v>109.14</v>
+        <v>104.091</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>187.189</v>
+        <v>185.412</v>
       </c>
       <c r="C117" t="n">
-        <v>144.758</v>
+        <v>142.98</v>
       </c>
       <c r="D117" t="n">
-        <v>112.125</v>
+        <v>107.707</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>194.763</v>
+        <v>192.886</v>
       </c>
       <c r="C118" t="n">
-        <v>151.25</v>
+        <v>148.227</v>
       </c>
       <c r="D118" t="n">
-        <v>115.832</v>
+        <v>110.567</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>202.677</v>
+        <v>200.951</v>
       </c>
       <c r="C119" t="n">
-        <v>155.799</v>
+        <v>154.33</v>
       </c>
       <c r="D119" t="n">
-        <v>119.149</v>
+        <v>115.509</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>57.4757</v>
+        <v>57.6376</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0224</v>
+        <v>39.5932</v>
       </c>
       <c r="D2" t="n">
-        <v>23.5123</v>
+        <v>23.4836</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>59.544</v>
+        <v>59.5595</v>
       </c>
       <c r="C3" t="n">
-        <v>41.9406</v>
+        <v>40.1903</v>
       </c>
       <c r="D3" t="n">
-        <v>25.034</v>
+        <v>24.8085</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>62.8821</v>
+        <v>62.1524</v>
       </c>
       <c r="C4" t="n">
-        <v>43.7421</v>
+        <v>42.2452</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8204</v>
+        <v>25.5513</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>65.0805</v>
+        <v>64.8961</v>
       </c>
       <c r="C5" t="n">
-        <v>45.3604</v>
+        <v>44.4242</v>
       </c>
       <c r="D5" t="n">
-        <v>26.8339</v>
+        <v>26.6347</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>67.589</v>
+        <v>67.08969999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>48.1232</v>
+        <v>46.0616</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8035</v>
+        <v>27.7026</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>71.0194</v>
+        <v>70.3271</v>
       </c>
       <c r="C7" t="n">
-        <v>49.9804</v>
+        <v>48.4249</v>
       </c>
       <c r="D7" t="n">
-        <v>28.1886</v>
+        <v>28.176</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>74.3473</v>
+        <v>73.47620000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9474</v>
+        <v>51.0751</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1278</v>
+        <v>28.8768</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>77.58669999999999</v>
+        <v>76.9084</v>
       </c>
       <c r="C9" t="n">
-        <v>54.841</v>
+        <v>53.3438</v>
       </c>
       <c r="D9" t="n">
-        <v>30.4088</v>
+        <v>30.0009</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>81.2338</v>
+        <v>80.24930000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>58.0523</v>
+        <v>56.7283</v>
       </c>
       <c r="D10" t="n">
-        <v>31.7654</v>
+        <v>31.4132</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>83.6866</v>
+        <v>83.4425</v>
       </c>
       <c r="C11" t="n">
-        <v>38.2252</v>
+        <v>37.5491</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0543</v>
+        <v>23.0762</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>53.3263</v>
+        <v>53.2233</v>
       </c>
       <c r="C12" t="n">
-        <v>39.8622</v>
+        <v>39.293</v>
       </c>
       <c r="D12" t="n">
-        <v>23.8637</v>
+        <v>23.8824</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>55.3049</v>
+        <v>55.1244</v>
       </c>
       <c r="C13" t="n">
-        <v>42.7485</v>
+        <v>41.9833</v>
       </c>
       <c r="D13" t="n">
-        <v>24.6364</v>
+        <v>24.3432</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>58.3641</v>
+        <v>58.3873</v>
       </c>
       <c r="C14" t="n">
-        <v>44.6976</v>
+        <v>44.3176</v>
       </c>
       <c r="D14" t="n">
-        <v>25.5141</v>
+        <v>25.7541</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>61.2385</v>
+        <v>60.635</v>
       </c>
       <c r="C15" t="n">
-        <v>47.551</v>
+        <v>47.2523</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6793</v>
+        <v>26.5725</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>64.1823</v>
+        <v>64.16330000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>49.7298</v>
+        <v>49.5978</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9917</v>
+        <v>28.0043</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>67.3419</v>
+        <v>67.6251</v>
       </c>
       <c r="C17" t="n">
-        <v>53.23</v>
+        <v>53.0935</v>
       </c>
       <c r="D17" t="n">
-        <v>28.9979</v>
+        <v>28.3528</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>71.4358</v>
+        <v>71.6114</v>
       </c>
       <c r="C18" t="n">
-        <v>55.937</v>
+        <v>56.6475</v>
       </c>
       <c r="D18" t="n">
-        <v>30.0951</v>
+        <v>30.2421</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>75.0277</v>
+        <v>75.3683</v>
       </c>
       <c r="C19" t="n">
-        <v>59.2454</v>
+        <v>59.7156</v>
       </c>
       <c r="D19" t="n">
-        <v>31.2153</v>
+        <v>31.3313</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>78.7854</v>
+        <v>79.3395</v>
       </c>
       <c r="C20" t="n">
-        <v>62.2951</v>
+        <v>62.9364</v>
       </c>
       <c r="D20" t="n">
-        <v>32.2218</v>
+        <v>32.2628</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>83.0185</v>
+        <v>84.059</v>
       </c>
       <c r="C21" t="n">
-        <v>66.2007</v>
+        <v>66.67870000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>33.3165</v>
+        <v>33.6334</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>87.1347</v>
+        <v>87.79040000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>69.4584</v>
+        <v>70.05410000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>34.7339</v>
+        <v>34.9956</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>91.4174</v>
+        <v>92.1972</v>
       </c>
       <c r="C23" t="n">
-        <v>73.2683</v>
+        <v>73.68819999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>35.8455</v>
+        <v>35.8259</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>95.6906</v>
+        <v>96.374</v>
       </c>
       <c r="C24" t="n">
-        <v>76.8229</v>
+        <v>77.1943</v>
       </c>
       <c r="D24" t="n">
-        <v>37.018</v>
+        <v>37.5837</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>100.325</v>
+        <v>100.783</v>
       </c>
       <c r="C25" t="n">
-        <v>79.5703</v>
+        <v>81.21729999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>39.3849</v>
+        <v>39.386</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>103.593</v>
+        <v>104.787</v>
       </c>
       <c r="C26" t="n">
-        <v>49.503</v>
+        <v>50.1688</v>
       </c>
       <c r="D26" t="n">
-        <v>27.0829</v>
+        <v>27.6379</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>65.0829</v>
+        <v>65.7898</v>
       </c>
       <c r="C27" t="n">
-        <v>52.1325</v>
+        <v>52.6704</v>
       </c>
       <c r="D27" t="n">
-        <v>27.9665</v>
+        <v>28.7222</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>68.6097</v>
+        <v>69.45910000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>55.149</v>
+        <v>56.0949</v>
       </c>
       <c r="D28" t="n">
-        <v>29.2335</v>
+        <v>29.9029</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>72.1698</v>
+        <v>72.6896</v>
       </c>
       <c r="C29" t="n">
-        <v>58.1185</v>
+        <v>59.3229</v>
       </c>
       <c r="D29" t="n">
-        <v>30.0198</v>
+        <v>30.7961</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>75.806</v>
+        <v>76.34229999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>61.7784</v>
+        <v>62.7228</v>
       </c>
       <c r="D30" t="n">
-        <v>31.7597</v>
+        <v>32.2094</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>79.14830000000001</v>
+        <v>80.0419</v>
       </c>
       <c r="C31" t="n">
-        <v>65.21299999999999</v>
+        <v>66.1584</v>
       </c>
       <c r="D31" t="n">
-        <v>32.4146</v>
+        <v>32.9702</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>83.1729</v>
+        <v>83.6878</v>
       </c>
       <c r="C32" t="n">
-        <v>68.4846</v>
+        <v>69.72880000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>33.9084</v>
+        <v>34.174</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>87.09350000000001</v>
+        <v>87.91070000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>71.95699999999999</v>
+        <v>73.03019999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>35.2848</v>
+        <v>35.5685</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>91.3501</v>
+        <v>91.74120000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>75.82510000000001</v>
+        <v>76.8038</v>
       </c>
       <c r="D34" t="n">
-        <v>36.6204</v>
+        <v>36.3246</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>96.02630000000001</v>
+        <v>96.5843</v>
       </c>
       <c r="C35" t="n">
-        <v>79.4769</v>
+        <v>80.6617</v>
       </c>
       <c r="D35" t="n">
-        <v>37.6462</v>
+        <v>37.6889</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>100.021</v>
+        <v>101.106</v>
       </c>
       <c r="C36" t="n">
-        <v>82.81780000000001</v>
+        <v>83.84829999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>39.1157</v>
+        <v>39.4186</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>104.528</v>
+        <v>105.332</v>
       </c>
       <c r="C37" t="n">
-        <v>86.47069999999999</v>
+        <v>87.93129999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>40.2584</v>
+        <v>40.9865</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>109.306</v>
+        <v>109.933</v>
       </c>
       <c r="C38" t="n">
-        <v>90.5711</v>
+        <v>91.5941</v>
       </c>
       <c r="D38" t="n">
-        <v>41.8347</v>
+        <v>42.3032</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>114.45</v>
+        <v>114.76</v>
       </c>
       <c r="C39" t="n">
-        <v>94.2265</v>
+        <v>95.16370000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>43.5012</v>
+        <v>43.849</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>118.851</v>
+        <v>119.699</v>
       </c>
       <c r="C40" t="n">
-        <v>55.146</v>
+        <v>55.9168</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6611</v>
+        <v>32.2991</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>71.4855</v>
+        <v>72.1587</v>
       </c>
       <c r="C41" t="n">
-        <v>57.6392</v>
+        <v>58.1763</v>
       </c>
       <c r="D41" t="n">
-        <v>33.2376</v>
+        <v>33.3342</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>75.02070000000001</v>
+        <v>75.7475</v>
       </c>
       <c r="C42" t="n">
-        <v>60.75</v>
+        <v>61.4085</v>
       </c>
       <c r="D42" t="n">
-        <v>33.8934</v>
+        <v>34.5983</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>78.13760000000001</v>
+        <v>78.8694</v>
       </c>
       <c r="C43" t="n">
-        <v>63.9235</v>
+        <v>64.4744</v>
       </c>
       <c r="D43" t="n">
-        <v>35.5993</v>
+        <v>35.7602</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>82.2637</v>
+        <v>83.0347</v>
       </c>
       <c r="C44" t="n">
-        <v>67.3111</v>
+        <v>67.7957</v>
       </c>
       <c r="D44" t="n">
-        <v>37.2206</v>
+        <v>37.4533</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>86.2435</v>
+        <v>86.6728</v>
       </c>
       <c r="C45" t="n">
-        <v>70.87220000000001</v>
+        <v>71.32550000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>38.1195</v>
+        <v>38.5087</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>90.5406</v>
+        <v>90.9935</v>
       </c>
       <c r="C46" t="n">
-        <v>74.70740000000001</v>
+        <v>75.0535</v>
       </c>
       <c r="D46" t="n">
-        <v>39.8215</v>
+        <v>40.0262</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>94.3141</v>
+        <v>95.0124</v>
       </c>
       <c r="C47" t="n">
-        <v>78.2786</v>
+        <v>78.6825</v>
       </c>
       <c r="D47" t="n">
-        <v>41.4827</v>
+        <v>41.2891</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>98.37649999999999</v>
+        <v>99.3176</v>
       </c>
       <c r="C48" t="n">
-        <v>81.8956</v>
+        <v>82.4068</v>
       </c>
       <c r="D48" t="n">
-        <v>42.9212</v>
+        <v>42.9196</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>102.804</v>
+        <v>103.733</v>
       </c>
       <c r="C49" t="n">
-        <v>85.84610000000001</v>
+        <v>86.2809</v>
       </c>
       <c r="D49" t="n">
-        <v>44.037</v>
+        <v>44.2453</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>107.27</v>
+        <v>108.125</v>
       </c>
       <c r="C50" t="n">
-        <v>89.86320000000001</v>
+        <v>90.369</v>
       </c>
       <c r="D50" t="n">
-        <v>45.4255</v>
+        <v>45.8255</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>112.015</v>
+        <v>112.388</v>
       </c>
       <c r="C51" t="n">
-        <v>93.38030000000001</v>
+        <v>93.7664</v>
       </c>
       <c r="D51" t="n">
-        <v>47.4152</v>
+        <v>47.215</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>116.31</v>
+        <v>116.893</v>
       </c>
       <c r="C52" t="n">
-        <v>97.5574</v>
+        <v>98.017</v>
       </c>
       <c r="D52" t="n">
-        <v>49.1647</v>
+        <v>48.7361</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>121.375</v>
+        <v>122.391</v>
       </c>
       <c r="C53" t="n">
-        <v>101.436</v>
+        <v>101.745</v>
       </c>
       <c r="D53" t="n">
-        <v>50.6187</v>
+        <v>50.5208</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>126.355</v>
+        <v>127.219</v>
       </c>
       <c r="C54" t="n">
-        <v>58.3482</v>
+        <v>58.5871</v>
       </c>
       <c r="D54" t="n">
-        <v>35.3764</v>
+        <v>35.4601</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>75.0305</v>
+        <v>75.19670000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>61.3137</v>
+        <v>61.4625</v>
       </c>
       <c r="D55" t="n">
-        <v>36.9544</v>
+        <v>37.0351</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>78.04340000000001</v>
+        <v>78.4314</v>
       </c>
       <c r="C56" t="n">
-        <v>64.15730000000001</v>
+        <v>64.3844</v>
       </c>
       <c r="D56" t="n">
-        <v>38.2146</v>
+        <v>38.2969</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>81.94119999999999</v>
+        <v>82.1618</v>
       </c>
       <c r="C57" t="n">
-        <v>67.0235</v>
+        <v>67.2453</v>
       </c>
       <c r="D57" t="n">
-        <v>39.2652</v>
+        <v>39.3618</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>85.2963</v>
+        <v>85.5162</v>
       </c>
       <c r="C58" t="n">
-        <v>70.654</v>
+        <v>70.8707</v>
       </c>
       <c r="D58" t="n">
-        <v>40.6447</v>
+        <v>40.7976</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>89.167</v>
+        <v>89.4902</v>
       </c>
       <c r="C59" t="n">
-        <v>74.087</v>
+        <v>74.4128</v>
       </c>
       <c r="D59" t="n">
-        <v>42.2591</v>
+        <v>42.1069</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>92.9999</v>
+        <v>93.2608</v>
       </c>
       <c r="C60" t="n">
-        <v>77.7801</v>
+        <v>77.90219999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>43.4624</v>
+        <v>43.6286</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>97.1549</v>
+        <v>97.3908</v>
       </c>
       <c r="C61" t="n">
-        <v>81.66549999999999</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>44.4025</v>
+        <v>45.2261</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>101.198</v>
+        <v>101.66</v>
       </c>
       <c r="C62" t="n">
-        <v>85.58150000000001</v>
+        <v>85.7612</v>
       </c>
       <c r="D62" t="n">
-        <v>46.1773</v>
+        <v>46.2917</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>105.588</v>
+        <v>106.055</v>
       </c>
       <c r="C63" t="n">
-        <v>89.2535</v>
+        <v>89.52800000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>48.067</v>
+        <v>48.2168</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>110.716</v>
+        <v>111.063</v>
       </c>
       <c r="C64" t="n">
-        <v>93.32340000000001</v>
+        <v>93.53189999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>49.3027</v>
+        <v>49.4508</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>115.477</v>
+        <v>115.972</v>
       </c>
       <c r="C65" t="n">
-        <v>97.20569999999999</v>
+        <v>97.5201</v>
       </c>
       <c r="D65" t="n">
-        <v>50.7849</v>
+        <v>51.0103</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>119.745</v>
+        <v>120.314</v>
       </c>
       <c r="C66" t="n">
-        <v>101.218</v>
+        <v>101.459</v>
       </c>
       <c r="D66" t="n">
-        <v>52.4378</v>
+        <v>52.641</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>125.58</v>
+        <v>125.213</v>
       </c>
       <c r="C67" t="n">
-        <v>105.736</v>
+        <v>105.28</v>
       </c>
       <c r="D67" t="n">
-        <v>54.0046</v>
+        <v>54.1278</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>131.163</v>
+        <v>129.816</v>
       </c>
       <c r="C68" t="n">
-        <v>61.1719</v>
+        <v>60.7077</v>
       </c>
       <c r="D68" t="n">
-        <v>38.4745</v>
+        <v>38.3872</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>79.5038</v>
+        <v>80.381</v>
       </c>
       <c r="C69" t="n">
-        <v>65.2599</v>
+        <v>64.90689999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>39.7446</v>
+        <v>39.607</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>84.3569</v>
+        <v>84.9945</v>
       </c>
       <c r="C70" t="n">
-        <v>69.2346</v>
+        <v>70.173</v>
       </c>
       <c r="D70" t="n">
-        <v>41.4058</v>
+        <v>41.8216</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>90.3943</v>
+        <v>91.26090000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>74.4513</v>
+        <v>75.0145</v>
       </c>
       <c r="D71" t="n">
-        <v>43.2173</v>
+        <v>43.6801</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>96.0361</v>
+        <v>96.95010000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>79.5312</v>
+        <v>80.54810000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>45.2386</v>
+        <v>45.6341</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>103.675</v>
+        <v>104.749</v>
       </c>
       <c r="C73" t="n">
-        <v>86.711</v>
+        <v>87.2649</v>
       </c>
       <c r="D73" t="n">
-        <v>47.4965</v>
+        <v>47.8388</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>110.303</v>
+        <v>111.133</v>
       </c>
       <c r="C74" t="n">
-        <v>92.4992</v>
+        <v>93.066</v>
       </c>
       <c r="D74" t="n">
-        <v>49.4496</v>
+        <v>49.8447</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>117.997</v>
+        <v>118.673</v>
       </c>
       <c r="C75" t="n">
-        <v>99.3258</v>
+        <v>99.3901</v>
       </c>
       <c r="D75" t="n">
-        <v>51.9435</v>
+        <v>52.0401</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>126.041</v>
+        <v>126.345</v>
       </c>
       <c r="C76" t="n">
-        <v>107.165</v>
+        <v>107.609</v>
       </c>
       <c r="D76" t="n">
-        <v>54.0939</v>
+        <v>54.2882</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>137.383</v>
+        <v>137.764</v>
       </c>
       <c r="C77" t="n">
-        <v>116.25</v>
+        <v>116.149</v>
       </c>
       <c r="D77" t="n">
-        <v>57.2259</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>150.465</v>
+        <v>150.148</v>
       </c>
       <c r="C78" t="n">
-        <v>128.519</v>
+        <v>127.223</v>
       </c>
       <c r="D78" t="n">
-        <v>59.8862</v>
+        <v>59.8584</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>166.42</v>
+        <v>163.687</v>
       </c>
       <c r="C79" t="n">
-        <v>141.632</v>
+        <v>139.328</v>
       </c>
       <c r="D79" t="n">
-        <v>63.885</v>
+        <v>62.8238</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>182.217</v>
+        <v>181.709</v>
       </c>
       <c r="C80" t="n">
-        <v>156.431</v>
+        <v>155.808</v>
       </c>
       <c r="D80" t="n">
-        <v>68.15519999999999</v>
+        <v>67.8674</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>200.947</v>
+        <v>202.683</v>
       </c>
       <c r="C81" t="n">
-        <v>171.033</v>
+        <v>172.884</v>
       </c>
       <c r="D81" t="n">
-        <v>72.0346</v>
+        <v>72.2176</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>225.327</v>
+        <v>222.395</v>
       </c>
       <c r="C82" t="n">
-        <v>193.044</v>
+        <v>191.103</v>
       </c>
       <c r="D82" t="n">
-        <v>81.11450000000001</v>
+        <v>79.6246</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>250.408</v>
+        <v>246.653</v>
       </c>
       <c r="C83" t="n">
-        <v>119.81</v>
+        <v>119.718</v>
       </c>
       <c r="D83" t="n">
-        <v>55.219</v>
+        <v>54.749</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>164.569</v>
+        <v>163.289</v>
       </c>
       <c r="C84" t="n">
-        <v>134.298</v>
+        <v>133</v>
       </c>
       <c r="D84" t="n">
-        <v>59.923</v>
+        <v>59.4003</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>185.456</v>
+        <v>181.411</v>
       </c>
       <c r="C85" t="n">
-        <v>150.936</v>
+        <v>149.257</v>
       </c>
       <c r="D85" t="n">
-        <v>64.6399</v>
+        <v>64.2617</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>205.989</v>
+        <v>203.471</v>
       </c>
       <c r="C86" t="n">
-        <v>170.11</v>
+        <v>167.599</v>
       </c>
       <c r="D86" t="n">
-        <v>71.4785</v>
+        <v>70.8683</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>228.812</v>
+        <v>226.862</v>
       </c>
       <c r="C87" t="n">
-        <v>189.485</v>
+        <v>188.055</v>
       </c>
       <c r="D87" t="n">
-        <v>78.5214</v>
+        <v>77.9153</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>253.641</v>
+        <v>251.754</v>
       </c>
       <c r="C88" t="n">
-        <v>211.041</v>
+        <v>210.476</v>
       </c>
       <c r="D88" t="n">
-        <v>86.47069999999999</v>
+        <v>86.1075</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>279.004</v>
+        <v>278.254</v>
       </c>
       <c r="C89" t="n">
-        <v>234.451</v>
+        <v>234.002</v>
       </c>
       <c r="D89" t="n">
-        <v>93.9871</v>
+        <v>94.1844</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>307.076</v>
+        <v>306.047</v>
       </c>
       <c r="C90" t="n">
-        <v>259.808</v>
+        <v>259.27</v>
       </c>
       <c r="D90" t="n">
-        <v>103.109</v>
+        <v>102.897</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>338.371</v>
+        <v>338.396</v>
       </c>
       <c r="C91" t="n">
-        <v>286.132</v>
+        <v>286.215</v>
       </c>
       <c r="D91" t="n">
-        <v>113.115</v>
+        <v>112.862</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>370.61</v>
+        <v>371.261</v>
       </c>
       <c r="C92" t="n">
-        <v>314.636</v>
+        <v>315.58</v>
       </c>
       <c r="D92" t="n">
-        <v>122.24</v>
+        <v>122.927</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>406.102</v>
+        <v>405.603</v>
       </c>
       <c r="C93" t="n">
-        <v>345.232</v>
+        <v>346.277</v>
       </c>
       <c r="D93" t="n">
-        <v>132.954</v>
+        <v>133.309</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>441.314</v>
+        <v>441.23</v>
       </c>
       <c r="C94" t="n">
-        <v>376.891</v>
+        <v>376.928</v>
       </c>
       <c r="D94" t="n">
-        <v>144.063</v>
+        <v>144.303</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>479.407</v>
+        <v>479.554</v>
       </c>
       <c r="C95" t="n">
-        <v>409.7</v>
+        <v>408.671</v>
       </c>
       <c r="D95" t="n">
-        <v>157.584</v>
+        <v>157.085</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>519.475</v>
+        <v>518.65</v>
       </c>
       <c r="C96" t="n">
-        <v>444.048</v>
+        <v>439.313</v>
       </c>
       <c r="D96" t="n">
-        <v>170.563</v>
+        <v>170.831</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>559.203</v>
+        <v>550.627</v>
       </c>
       <c r="C97" t="n">
-        <v>252.367</v>
+        <v>251.008</v>
       </c>
       <c r="D97" t="n">
-        <v>117.717</v>
+        <v>117.388</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>333.425</v>
+        <v>325.824</v>
       </c>
       <c r="C98" t="n">
-        <v>269.715</v>
+        <v>267.217</v>
       </c>
       <c r="D98" t="n">
-        <v>125.067</v>
+        <v>124.449</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>352.624</v>
+        <v>349.955</v>
       </c>
       <c r="C99" t="n">
-        <v>285.953</v>
+        <v>283.971</v>
       </c>
       <c r="D99" t="n">
-        <v>134.885</v>
+        <v>134.727</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>375.259</v>
+        <v>373.907</v>
       </c>
       <c r="C100" t="n">
-        <v>307.178</v>
+        <v>305.968</v>
       </c>
       <c r="D100" t="n">
-        <v>143.691</v>
+        <v>143.513</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>401.404</v>
+        <v>399.606</v>
       </c>
       <c r="C101" t="n">
-        <v>331.208</v>
+        <v>331.283</v>
       </c>
       <c r="D101" t="n">
-        <v>150.115</v>
+        <v>149.858</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>426.295</v>
+        <v>426.686</v>
       </c>
       <c r="C102" t="n">
-        <v>355.527</v>
+        <v>354.366</v>
       </c>
       <c r="D102" t="n">
-        <v>160.363</v>
+        <v>160.749</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>457.257</v>
+        <v>457.088</v>
       </c>
       <c r="C103" t="n">
-        <v>380.881</v>
+        <v>381.343</v>
       </c>
       <c r="D103" t="n">
-        <v>169.447</v>
+        <v>169.298</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>486.071</v>
+        <v>487.175</v>
       </c>
       <c r="C104" t="n">
-        <v>408.487</v>
+        <v>409.882</v>
       </c>
       <c r="D104" t="n">
-        <v>179.948</v>
+        <v>180.132</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>520.309</v>
+        <v>520.571</v>
       </c>
       <c r="C105" t="n">
-        <v>438.34</v>
+        <v>438.242</v>
       </c>
       <c r="D105" t="n">
-        <v>188.585</v>
+        <v>188.073</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>552.49</v>
+        <v>554.345</v>
       </c>
       <c r="C106" t="n">
-        <v>468.634</v>
+        <v>470.812</v>
       </c>
       <c r="D106" t="n">
-        <v>200.871</v>
+        <v>201.042</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>588.125</v>
+        <v>591.813</v>
       </c>
       <c r="C107" t="n">
-        <v>500.479</v>
+        <v>502.092</v>
       </c>
       <c r="D107" t="n">
-        <v>210.971</v>
+        <v>211.754</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>624.501</v>
+        <v>625.83</v>
       </c>
       <c r="C108" t="n">
-        <v>533.463</v>
+        <v>535.234</v>
       </c>
       <c r="D108" t="n">
-        <v>222.552</v>
+        <v>223.674</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>664.924</v>
+        <v>667.549</v>
       </c>
       <c r="C109" t="n">
-        <v>567.4349999999999</v>
+        <v>569.23</v>
       </c>
       <c r="D109" t="n">
-        <v>235.108</v>
+        <v>235.703</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>704.548</v>
+        <v>705.016</v>
       </c>
       <c r="C110" t="n">
-        <v>602.447</v>
+        <v>604.168</v>
       </c>
       <c r="D110" t="n">
-        <v>247.814</v>
+        <v>247.542</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>745.972</v>
+        <v>749.521</v>
       </c>
       <c r="C111" t="n">
-        <v>318.746</v>
+        <v>320.075</v>
       </c>
       <c r="D111" t="n">
-        <v>168</v>
+        <v>166.797</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>424.342</v>
+        <v>424.432</v>
       </c>
       <c r="C112" t="n">
-        <v>346.619</v>
+        <v>341.515</v>
       </c>
       <c r="D112" t="n">
-        <v>174.923</v>
+        <v>174.101</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>449.018</v>
+        <v>448.553</v>
       </c>
       <c r="C113" t="n">
-        <v>362.218</v>
+        <v>361.244</v>
       </c>
       <c r="D113" t="n">
-        <v>183.465</v>
+        <v>182.533</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>474.194</v>
+        <v>473.431</v>
       </c>
       <c r="C114" t="n">
-        <v>385.633</v>
+        <v>387.164</v>
       </c>
       <c r="D114" t="n">
-        <v>192.831</v>
+        <v>191.649</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>500.582</v>
+        <v>501.446</v>
       </c>
       <c r="C115" t="n">
-        <v>411.229</v>
+        <v>410.068</v>
       </c>
       <c r="D115" t="n">
-        <v>200.963</v>
+        <v>199.805</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>529.2670000000001</v>
+        <v>530.466</v>
       </c>
       <c r="C116" t="n">
-        <v>439.647</v>
+        <v>438.484</v>
       </c>
       <c r="D116" t="n">
-        <v>210.277</v>
+        <v>209.253</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>559.454</v>
+        <v>559.126</v>
       </c>
       <c r="C117" t="n">
-        <v>467.35</v>
+        <v>466.609</v>
       </c>
       <c r="D117" t="n">
-        <v>222.491</v>
+        <v>220.783</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>592.652</v>
+        <v>591.3339999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>497.509</v>
+        <v>497.101</v>
       </c>
       <c r="D118" t="n">
-        <v>234.402</v>
+        <v>233.027</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>626.66</v>
+        <v>625.6079999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>529.872</v>
+        <v>529.746</v>
       </c>
       <c r="D119" t="n">
-        <v>243.515</v>
+        <v>242.251</v>
       </c>
     </row>
   </sheetData>
